--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,31 +82,31 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,31 +653,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.004759161331947</v>
+        <v>0.994578759144797</v>
       </c>
       <c r="D3">
-        <v>0.994578759144797</v>
+        <v>0.9985135374786613</v>
       </c>
       <c r="E3">
         <v>1.000735844379216</v>
       </c>
       <c r="F3">
+        <v>0.994578759144797</v>
+      </c>
+      <c r="G3">
         <v>1.004759161331947</v>
       </c>
-      <c r="G3">
-        <v>0.9987826297686138</v>
-      </c>
       <c r="H3">
-        <v>1.001951357723442</v>
+        <v>1.004759161331947</v>
       </c>
       <c r="I3">
         <v>1.004759161331947</v>
       </c>
       <c r="J3">
-        <v>0.994578759144797</v>
+        <v>0.9987826297686138</v>
       </c>
       <c r="K3">
-        <v>0.9985135374786613</v>
+        <v>1.001951357723442</v>
       </c>
       <c r="L3">
         <v>1.001695887902029</v>
@@ -824,7 +716,7 @@
         <v>0.9996720965304264</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,31 +724,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.009165273922513</v>
+        <v>0.9895132465174489</v>
       </c>
       <c r="D4">
-        <v>0.9895132465174489</v>
+        <v>0.9971386508381694</v>
       </c>
       <c r="E4">
         <v>1.001429042347536</v>
       </c>
       <c r="F4">
+        <v>0.9895132465174489</v>
+      </c>
+      <c r="G4">
         <v>1.009165273922513</v>
       </c>
-      <c r="G4">
-        <v>0.9976561951306122</v>
-      </c>
       <c r="H4">
-        <v>1.003768280793965</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="I4">
         <v>1.009165273922513</v>
       </c>
       <c r="J4">
-        <v>0.9895132465174489</v>
+        <v>0.9976561951306122</v>
       </c>
       <c r="K4">
-        <v>0.9971386508381691</v>
+        <v>1.003768280793965</v>
       </c>
       <c r="L4">
         <v>1.003274744147699</v>
@@ -895,7 +787,7 @@
         <v>0.9993642268918479</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,31 +795,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.017459532888245</v>
+        <v>0.9798574642977054</v>
       </c>
       <c r="D5">
-        <v>0.9798574642977053</v>
+        <v>0.9945559213465666</v>
       </c>
       <c r="E5">
         <v>1.002849307318035</v>
       </c>
       <c r="F5">
+        <v>0.9798574642977054</v>
+      </c>
+      <c r="G5">
         <v>1.017459532888245</v>
       </c>
-      <c r="G5">
-        <v>0.9954901231685662</v>
-      </c>
       <c r="H5">
-        <v>1.007258923844104</v>
+        <v>1.017459532888245</v>
       </c>
       <c r="I5">
         <v>1.017459532888245</v>
       </c>
       <c r="J5">
-        <v>0.9798574642977053</v>
+        <v>0.9954901231685662</v>
       </c>
       <c r="K5">
-        <v>0.9945559213465666</v>
+        <v>1.007258923844104</v>
       </c>
       <c r="L5">
         <v>1.006236316749687</v>
@@ -942,7 +834,7 @@
         <v>1.002849307318035</v>
       </c>
       <c r="P5">
-        <v>0.99135338580787</v>
+        <v>0.9913533858078701</v>
       </c>
       <c r="Q5">
         <v>0.9991697152433006</v>
@@ -951,7 +843,7 @@
         <v>1.000055434834662</v>
       </c>
       <c r="S5">
-        <v>0.9927322982614354</v>
+        <v>0.9927322982614356</v>
       </c>
       <c r="T5">
         <v>1.000055434834662</v>
@@ -963,10 +855,10 @@
         <v>1.002623192112159</v>
       </c>
       <c r="W5">
-        <v>0.9987758231784944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9987758231784943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,31 +866,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.025567568935174</v>
+        <v>0.9704314596833274</v>
       </c>
       <c r="D6">
-        <v>0.9704314596833274</v>
+        <v>0.9920464006424506</v>
       </c>
       <c r="E6">
         <v>1.004249859488042</v>
       </c>
       <c r="F6">
+        <v>0.9704314596833274</v>
+      </c>
+      <c r="G6">
         <v>1.025567568935174</v>
       </c>
-      <c r="G6">
-        <v>0.9933638219349538</v>
-      </c>
       <c r="H6">
-        <v>1.010666503664677</v>
+        <v>1.025567568935174</v>
       </c>
       <c r="I6">
         <v>1.025567568935174</v>
       </c>
       <c r="J6">
-        <v>0.9704314596833274</v>
+        <v>0.9933638219349538</v>
       </c>
       <c r="K6">
-        <v>0.9920464006424506</v>
+        <v>1.010666503664677</v>
       </c>
       <c r="L6">
         <v>1.00911059658296</v>
@@ -1034,10 +926,10 @@
         <v>1.003836055795334</v>
       </c>
       <c r="W6">
-        <v>0.9982024473314266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9982024473314265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,46 +937,46 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9994816263125663</v>
+      </c>
+      <c r="D7">
+        <v>0.9999165894080103</v>
+      </c>
+      <c r="E7">
+        <v>1.000163140017173</v>
+      </c>
+      <c r="F7">
+        <v>0.9994816263125663</v>
+      </c>
+      <c r="G7">
         <v>1.000286493689811</v>
       </c>
-      <c r="D7">
-        <v>0.9994816263125663</v>
-      </c>
-      <c r="E7">
-        <v>1.000163140017172</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.000286493689811</v>
-      </c>
-      <c r="G7">
-        <v>0.9998904371583699</v>
-      </c>
-      <c r="H7">
-        <v>1.000196720399643</v>
       </c>
       <c r="I7">
         <v>1.000286493689811</v>
       </c>
       <c r="J7">
-        <v>0.9994816263125663</v>
+        <v>0.9998904371583699</v>
       </c>
       <c r="K7">
-        <v>0.9999165894080103</v>
+        <v>1.000196720399643</v>
       </c>
       <c r="L7">
         <v>1.00011182456786</v>
       </c>
       <c r="M7">
-        <v>0.9996680232426391</v>
+        <v>0.9996680232426394</v>
       </c>
       <c r="N7">
         <v>1.000286493689811</v>
       </c>
       <c r="O7">
-        <v>1.000163140017172</v>
+        <v>1.000163140017173</v>
       </c>
       <c r="P7">
-        <v>0.9998223831648694</v>
+        <v>0.9998223831648695</v>
       </c>
       <c r="Q7">
         <v>1.000026788587771</v>
@@ -1105,10 +997,10 @@
         <v>1.000021638173546</v>
       </c>
       <c r="W7">
-        <v>0.999964356849509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999643568495091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00090598303344</v>
+        <v>0.9985199703430819</v>
       </c>
       <c r="D8">
-        <v>0.9985199703430824</v>
+        <v>0.9997309736284997</v>
       </c>
       <c r="E8">
         <v>1.00041559969905</v>
       </c>
       <c r="F8">
+        <v>0.9985199703430819</v>
+      </c>
+      <c r="G8">
         <v>1.00090598303344</v>
       </c>
-      <c r="G8">
-        <v>0.9996845941242939</v>
-      </c>
       <c r="H8">
-        <v>1.000555583492637</v>
+        <v>1.00090598303344</v>
       </c>
       <c r="I8">
         <v>1.00090598303344</v>
       </c>
       <c r="J8">
-        <v>0.9985199703430824</v>
+        <v>0.9996845941242937</v>
       </c>
       <c r="K8">
-        <v>0.9997309736284999</v>
+        <v>1.000555583492638</v>
       </c>
       <c r="L8">
         <v>1.000346382739877</v>
       </c>
       <c r="M8">
-        <v>0.9990443035715147</v>
+        <v>0.9990443035715149</v>
       </c>
       <c r="N8">
         <v>1.00090598303344</v>
@@ -1155,7 +1047,7 @@
         <v>1.00041559969905</v>
       </c>
       <c r="P8">
-        <v>0.9994677850210665</v>
+        <v>0.9994677850210663</v>
       </c>
       <c r="Q8">
         <v>1.000050096911672</v>
@@ -1164,13 +1056,13 @@
         <v>0.9999471843585243</v>
       </c>
       <c r="S8">
-        <v>0.9995400547221424</v>
+        <v>0.999540054722142</v>
       </c>
       <c r="T8">
         <v>0.9999471843585243</v>
       </c>
       <c r="U8">
-        <v>0.9998815367999667</v>
+        <v>0.9998815367999666</v>
       </c>
       <c r="V8">
         <v>1.000086426046661</v>
@@ -1179,7 +1071,7 @@
         <v>0.9999004238290494</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,31 +1079,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00146595307938</v>
+        <v>0.9978459984854007</v>
       </c>
       <c r="D9">
-        <v>0.9978459984854007</v>
+        <v>0.999556110967893</v>
       </c>
       <c r="E9">
         <v>1.000521102935452</v>
       </c>
       <c r="F9">
+        <v>0.9978459984854007</v>
+      </c>
+      <c r="G9">
         <v>1.00146595307938</v>
       </c>
-      <c r="G9">
-        <v>0.9995364499552731</v>
-      </c>
       <c r="H9">
-        <v>1.000798974765334</v>
+        <v>1.00146595307938</v>
       </c>
       <c r="I9">
         <v>1.00146595307938</v>
       </c>
       <c r="J9">
-        <v>0.9978459984854007</v>
+        <v>0.9995364499552731</v>
       </c>
       <c r="K9">
-        <v>0.999556110967893</v>
+        <v>1.000798974765334</v>
       </c>
       <c r="L9">
         <v>1.000549921187226</v>
@@ -1250,7 +1142,7 @@
         <v>0.9998587472478373</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,31 +1150,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.002953482658046</v>
+        <v>0.9954224894740417</v>
       </c>
       <c r="D10">
-        <v>0.9954224894740417</v>
+        <v>0.9991144816031706</v>
       </c>
       <c r="E10">
         <v>1.001192175443521</v>
       </c>
       <c r="F10">
+        <v>0.9954224894740417</v>
+      </c>
+      <c r="G10">
         <v>1.002953482658046</v>
       </c>
-      <c r="G10">
-        <v>0.9990238812647662</v>
-      </c>
       <c r="H10">
-        <v>1.001704435994626</v>
+        <v>1.002953482658046</v>
       </c>
       <c r="I10">
         <v>1.002953482658046</v>
       </c>
       <c r="J10">
-        <v>0.9954224894740417</v>
+        <v>0.9990238812647662</v>
       </c>
       <c r="K10">
-        <v>0.9991144816031706</v>
+        <v>1.001704435994626</v>
       </c>
       <c r="L10">
         <v>1.001120792656758</v>
@@ -1321,7 +1213,7 @@
         <v>0.9996956086050357</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,31 +1221,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.005530231307421</v>
+        <v>0.9922161249489228</v>
       </c>
       <c r="D11">
-        <v>0.9922161249489228</v>
+        <v>0.9983137330700799</v>
       </c>
       <c r="E11">
         <v>1.001744250046807</v>
       </c>
       <c r="F11">
+        <v>0.9922161249489228</v>
+      </c>
+      <c r="G11">
         <v>1.005530231307421</v>
       </c>
-      <c r="G11">
-        <v>0.9983214527582972</v>
-      </c>
       <c r="H11">
-        <v>1.002868241759702</v>
+        <v>1.005530231307421</v>
       </c>
       <c r="I11">
         <v>1.005530231307421</v>
       </c>
       <c r="J11">
-        <v>0.9922161249489228</v>
+        <v>0.9983214527582972</v>
       </c>
       <c r="K11">
-        <v>0.9983137330700799</v>
+        <v>1.002868241759702</v>
       </c>
       <c r="L11">
         <v>1.002061656645142</v>
@@ -1392,7 +1284,7 @@
         <v>0.9994951812602864</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,34 +1292,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9860814526514601</v>
+        <v>1.114359926117516</v>
       </c>
       <c r="D12">
-        <v>1.114359926117516</v>
+        <v>1.000461040254294</v>
       </c>
       <c r="E12">
         <v>0.9355091172145319</v>
       </c>
       <c r="F12">
+        <v>1.114359926117516</v>
+      </c>
+      <c r="G12">
         <v>0.9860814526514601</v>
       </c>
-      <c r="G12">
-        <v>1.022939026056447</v>
-      </c>
       <c r="H12">
-        <v>0.9534045963821535</v>
+        <v>0.9860814526514601</v>
       </c>
       <c r="I12">
         <v>0.9860814526514601</v>
       </c>
       <c r="J12">
-        <v>1.114359926117516</v>
+        <v>1.022939026056447</v>
       </c>
       <c r="K12">
-        <v>1.000461040254294</v>
+        <v>0.9534045963821534</v>
       </c>
       <c r="L12">
-        <v>0.9911820440698967</v>
+        <v>0.9911820440698969</v>
       </c>
       <c r="M12">
         <v>1.068629186633957</v>
@@ -1463,7 +1355,7 @@
         <v>1.009070798672532</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,31 +1363,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.965589992305406</v>
+        <v>1.013023478209936</v>
       </c>
       <c r="D13">
-        <v>1.013023478209936</v>
+        <v>1.01186609296541</v>
       </c>
       <c r="E13">
         <v>1.012259343999107</v>
       </c>
       <c r="F13">
-        <v>0.965589992305406</v>
+        <v>1.013023478209936</v>
       </c>
       <c r="G13">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="H13">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="I13">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="J13">
         <v>1.003084459309294</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>0.9972410691309167</v>
-      </c>
-      <c r="I13">
-        <v>0.965589992305406</v>
-      </c>
-      <c r="J13">
-        <v>1.013023478209936</v>
-      </c>
-      <c r="K13">
-        <v>1.01186609296541</v>
       </c>
       <c r="L13">
         <v>0.9883139550583141</v>
@@ -1504,7 +1396,7 @@
         <v>1.010568862437565</v>
       </c>
       <c r="N13">
-        <v>0.965589992305406</v>
+        <v>0.9655899923054061</v>
       </c>
       <c r="O13">
         <v>1.012259343999107</v>
@@ -1534,7 +1426,7 @@
         <v>1.000243406676993</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,31 +1434,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9232440436940612</v>
+        <v>0.9495556907948551</v>
       </c>
       <c r="D14">
-        <v>0.9495556907948551</v>
+        <v>1.029713845490989</v>
       </c>
       <c r="E14">
         <v>1.073895747723929</v>
       </c>
       <c r="F14">
-        <v>0.9232440436940612</v>
+        <v>0.9495556907948551</v>
       </c>
       <c r="G14">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="H14">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="I14">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="J14">
         <v>0.9933444082733895</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>1.024771104951278</v>
-      </c>
-      <c r="I14">
-        <v>0.9232440436940612</v>
-      </c>
-      <c r="J14">
-        <v>0.9495556907948551</v>
-      </c>
-      <c r="K14">
-        <v>1.029713845490989</v>
       </c>
       <c r="L14">
         <v>0.9783665009512694</v>
@@ -1575,7 +1467,7 @@
         <v>0.9783002134435266</v>
       </c>
       <c r="N14">
-        <v>0.9232440436940612</v>
+        <v>0.9232440436940611</v>
       </c>
       <c r="O14">
         <v>1.073895747723929</v>
@@ -1593,7 +1485,7 @@
         <v>1.005598615597391</v>
       </c>
       <c r="T14">
-        <v>0.9822318274042817</v>
+        <v>0.9822318274042816</v>
       </c>
       <c r="U14">
         <v>0.9850099726215586</v>
@@ -1605,7 +1497,7 @@
         <v>0.9938989444154123</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,31 +1505,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.033861511597765</v>
+        <v>1.017742000111958</v>
       </c>
       <c r="D15">
-        <v>1.017742000111958</v>
+        <v>0.9869753866395347</v>
       </c>
       <c r="E15">
         <v>0.9708447351522942</v>
       </c>
       <c r="F15">
+        <v>1.017742000111958</v>
+      </c>
+      <c r="G15">
         <v>1.033861511597765</v>
       </c>
-      <c r="G15">
-        <v>1.00171894190294</v>
-      </c>
       <c r="H15">
-        <v>0.9913194689752158</v>
+        <v>1.033861511597765</v>
       </c>
       <c r="I15">
         <v>1.033861511597765</v>
       </c>
       <c r="J15">
-        <v>1.017742000111958</v>
+        <v>1.00171894190294</v>
       </c>
       <c r="K15">
-        <v>0.9869753866395347</v>
+        <v>0.9913194689752158</v>
       </c>
       <c r="L15">
         <v>1.009575558954179</v>
@@ -1676,7 +1568,7 @@
         <v>1.002334248026266</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000012951111389</v>
+        <v>0.8930939820618167</v>
       </c>
       <c r="D16">
-        <v>1.000014265262033</v>
+        <v>0.9717067039018414</v>
       </c>
       <c r="E16">
-        <v>1.000047888214149</v>
+        <v>1.016026947532025</v>
       </c>
       <c r="F16">
-        <v>1.000012951111389</v>
+        <v>0.8930939820618167</v>
       </c>
       <c r="G16">
-        <v>0.9999664449995812</v>
+        <v>1.090913023433971</v>
       </c>
       <c r="H16">
-        <v>1.000030110702129</v>
+        <v>1.090913023433971</v>
       </c>
       <c r="I16">
-        <v>1.000012951111389</v>
+        <v>1.090913023433971</v>
       </c>
       <c r="J16">
-        <v>1.000014265262033</v>
+        <v>0.9761689459463058</v>
       </c>
       <c r="K16">
-        <v>0.9999907513428428</v>
+        <v>1.038605957713575</v>
       </c>
       <c r="L16">
-        <v>0.9999826819109803</v>
+        <v>1.032606032654188</v>
       </c>
       <c r="M16">
-        <v>0.9999800044695841</v>
+        <v>0.9285293965360057</v>
       </c>
       <c r="N16">
-        <v>1.000012951111389</v>
+        <v>1.090913023433971</v>
       </c>
       <c r="O16">
-        <v>1.000047888214149</v>
+        <v>1.016026947532025</v>
       </c>
       <c r="P16">
-        <v>1.000031076738091</v>
+        <v>0.9545604647969209</v>
       </c>
       <c r="Q16">
-        <v>1.000007166606865</v>
+        <v>0.9960979467391655</v>
       </c>
       <c r="R16">
-        <v>1.000025034862524</v>
+        <v>1.000011317675938</v>
       </c>
       <c r="S16">
-        <v>1.000009532825255</v>
+        <v>0.9617632918467159</v>
       </c>
       <c r="T16">
-        <v>1.000025034862524</v>
+        <v>1.000011317675938</v>
       </c>
       <c r="U16">
-        <v>1.000010387396788</v>
+        <v>0.9940507247435296</v>
       </c>
       <c r="V16">
-        <v>1.000010900139709</v>
+        <v>1.013423184481618</v>
       </c>
       <c r="W16">
-        <v>1.000003137251586</v>
+        <v>0.9934563737224662</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000222050567939</v>
+        <v>0.9099865788991316</v>
       </c>
       <c r="D17">
-        <v>0.9993719398151365</v>
+        <v>0.9784218905287612</v>
       </c>
       <c r="E17">
-        <v>1.000191244423077</v>
+        <v>1.017051120934228</v>
       </c>
       <c r="F17">
-        <v>1.000222050567939</v>
+        <v>0.9099865788991316</v>
       </c>
       <c r="G17">
-        <v>0.99991443408531</v>
+        <v>1.070171110887364</v>
       </c>
       <c r="H17">
-        <v>1.000202620248907</v>
+        <v>1.070171110887364</v>
       </c>
       <c r="I17">
-        <v>1.000222050567939</v>
+        <v>1.070171110887364</v>
       </c>
       <c r="J17">
-        <v>0.9993719398151365</v>
+        <v>0.9801669931299923</v>
       </c>
       <c r="K17">
-        <v>0.999947400678812</v>
+        <v>1.032899157344269</v>
       </c>
       <c r="L17">
-        <v>1.000122387592581</v>
+        <v>1.025513505481809</v>
       </c>
       <c r="M17">
-        <v>0.9996416329785256</v>
+        <v>0.9404269441365066</v>
       </c>
       <c r="N17">
-        <v>1.000222050567939</v>
+        <v>1.070171110887364</v>
       </c>
       <c r="O17">
-        <v>1.000191244423077</v>
+        <v>1.017051120934228</v>
       </c>
       <c r="P17">
-        <v>0.9997815921191067</v>
+        <v>0.9635188499166798</v>
       </c>
       <c r="Q17">
-        <v>1.000052839254193</v>
+        <v>0.9986090570321102</v>
       </c>
       <c r="R17">
-        <v>0.9999284116020507</v>
+        <v>0.9990696035735747</v>
       </c>
       <c r="S17">
-        <v>0.9998258727745077</v>
+        <v>0.9690682309877839</v>
       </c>
       <c r="T17">
-        <v>0.9999284116020505</v>
+        <v>0.9990696035735747</v>
       </c>
       <c r="U17">
-        <v>0.9999249172228654</v>
+        <v>0.994343950962679</v>
       </c>
       <c r="V17">
-        <v>0.9999843438918801</v>
+        <v>1.009509382947616</v>
       </c>
       <c r="W17">
-        <v>0.9999517137987859</v>
+        <v>0.9943296626677578</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001586305192045</v>
+        <v>0.9438331917532786</v>
       </c>
       <c r="D18">
-        <v>0.998506415786273</v>
+        <v>0.9917529270340689</v>
       </c>
       <c r="E18">
-        <v>1.000221322261168</v>
+        <v>1.018902682949478</v>
       </c>
       <c r="F18">
-        <v>1.001586305192045</v>
+        <v>0.9438331917532786</v>
       </c>
       <c r="G18">
-        <v>0.9995583097899158</v>
+        <v>1.028962609637432</v>
       </c>
       <c r="H18">
-        <v>1.000619838833335</v>
+        <v>1.028962609637432</v>
       </c>
       <c r="I18">
-        <v>1.001586305192045</v>
+        <v>1.028962609637432</v>
       </c>
       <c r="J18">
-        <v>0.998506415786273</v>
+        <v>0.9881675675014191</v>
       </c>
       <c r="K18">
-        <v>0.9994819292093284</v>
+        <v>1.021440756352737</v>
       </c>
       <c r="L18">
-        <v>1.000495921767031</v>
+        <v>1.011411455220193</v>
       </c>
       <c r="M18">
-        <v>0.9988977590113023</v>
+        <v>0.9642337869449227</v>
       </c>
       <c r="N18">
-        <v>1.001586305192045</v>
+        <v>1.028962609637432</v>
       </c>
       <c r="O18">
-        <v>1.000221322261168</v>
+        <v>1.018902682949478</v>
       </c>
       <c r="P18">
-        <v>0.9993638690237203</v>
+        <v>0.9813679373513784</v>
       </c>
       <c r="Q18">
-        <v>0.9998898160255416</v>
+        <v>1.003535125225449</v>
       </c>
       <c r="R18">
-        <v>1.000104681079828</v>
+        <v>0.9972328281133963</v>
       </c>
       <c r="S18">
-        <v>0.9994286826124522</v>
+        <v>0.9836344807347253</v>
       </c>
       <c r="T18">
-        <v>1.000104681079828</v>
+        <v>0.9972328281133963</v>
       </c>
       <c r="U18">
-        <v>0.9999680882573503</v>
+        <v>0.9949665129604019</v>
       </c>
       <c r="V18">
-        <v>1.000291731644289</v>
+        <v>1.001765732295808</v>
       </c>
       <c r="W18">
-        <v>0.9999209752312996</v>
+        <v>0.9960881221741912</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9370261360452106</v>
+      </c>
+      <c r="D19">
+        <v>0.9920746955814405</v>
+      </c>
+      <c r="E19">
+        <v>1.023436297962328</v>
+      </c>
+      <c r="F19">
+        <v>0.9370261360452106</v>
+      </c>
+      <c r="G19">
+        <v>1.028753296839594</v>
+      </c>
+      <c r="H19">
+        <v>1.028753296839594</v>
+      </c>
+      <c r="I19">
+        <v>1.028753296839594</v>
+      </c>
+      <c r="J19">
+        <v>0.9867750525009706</v>
+      </c>
+      <c r="K19">
+        <v>1.024350514243677</v>
+      </c>
+      <c r="L19">
+        <v>1.011589993293249</v>
+      </c>
+      <c r="M19">
+        <v>0.9601931483567202</v>
+      </c>
+      <c r="N19">
+        <v>1.028753296839594</v>
+      </c>
+      <c r="O19">
+        <v>1.023436297962328</v>
+      </c>
+      <c r="P19">
+        <v>0.9802312170037691</v>
+      </c>
+      <c r="Q19">
+        <v>1.005105675231649</v>
+      </c>
+      <c r="R19">
+        <v>0.9964052436157109</v>
+      </c>
+      <c r="S19">
+        <v>0.9824124955028363</v>
+      </c>
+      <c r="T19">
+        <v>0.9964052436157109</v>
+      </c>
+      <c r="U19">
+        <v>0.9939976958370258</v>
+      </c>
+      <c r="V19">
+        <v>1.000948816037539</v>
+      </c>
+      <c r="W19">
+        <v>0.9955248918528987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000014265262034</v>
+      </c>
+      <c r="D20">
+        <v>0.9999907513428428</v>
+      </c>
+      <c r="E20">
+        <v>1.000047888214149</v>
+      </c>
+      <c r="F20">
+        <v>1.000014265262034</v>
+      </c>
+      <c r="G20">
+        <v>1.000012951111389</v>
+      </c>
+      <c r="H20">
+        <v>1.000012951111389</v>
+      </c>
+      <c r="I20">
+        <v>1.000012951111389</v>
+      </c>
+      <c r="J20">
+        <v>0.9999664449995812</v>
+      </c>
+      <c r="K20">
+        <v>1.000030110702129</v>
+      </c>
+      <c r="L20">
+        <v>0.9999826819109803</v>
+      </c>
+      <c r="M20">
+        <v>0.9999800044695841</v>
+      </c>
+      <c r="N20">
+        <v>1.000012951111389</v>
+      </c>
+      <c r="O20">
+        <v>1.000047888214149</v>
+      </c>
+      <c r="P20">
+        <v>1.000031076738091</v>
+      </c>
+      <c r="Q20">
+        <v>1.000007166606865</v>
+      </c>
+      <c r="R20">
+        <v>1.000025034862524</v>
+      </c>
+      <c r="S20">
+        <v>1.000009532825255</v>
+      </c>
+      <c r="T20">
+        <v>1.000025034862524</v>
+      </c>
+      <c r="U20">
+        <v>1.000010387396788</v>
+      </c>
+      <c r="V20">
+        <v>1.000010900139709</v>
+      </c>
+      <c r="W20">
+        <v>1.000003137251586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9993719398151365</v>
+      </c>
+      <c r="D21">
+        <v>0.999947400678812</v>
+      </c>
+      <c r="E21">
+        <v>1.000191244423077</v>
+      </c>
+      <c r="F21">
+        <v>0.9993719398151365</v>
+      </c>
+      <c r="G21">
+        <v>1.000222050567939</v>
+      </c>
+      <c r="H21">
+        <v>1.000222050567939</v>
+      </c>
+      <c r="I21">
+        <v>1.000222050567939</v>
+      </c>
+      <c r="J21">
+        <v>0.99991443408531</v>
+      </c>
+      <c r="K21">
+        <v>1.000202620248907</v>
+      </c>
+      <c r="L21">
+        <v>1.000122387592581</v>
+      </c>
+      <c r="M21">
+        <v>0.9996416329785256</v>
+      </c>
+      <c r="N21">
+        <v>1.000222050567939</v>
+      </c>
+      <c r="O21">
+        <v>1.000191244423077</v>
+      </c>
+      <c r="P21">
+        <v>0.9997815921191067</v>
+      </c>
+      <c r="Q21">
+        <v>1.000052839254193</v>
+      </c>
+      <c r="R21">
+        <v>0.9999284116020507</v>
+      </c>
+      <c r="S21">
+        <v>0.9998258727745077</v>
+      </c>
+      <c r="T21">
+        <v>0.9999284116020505</v>
+      </c>
+      <c r="U21">
+        <v>0.9999249172228654</v>
+      </c>
+      <c r="V21">
+        <v>0.9999843438918801</v>
+      </c>
+      <c r="W21">
+        <v>0.9999517137987859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.998506415786273</v>
+      </c>
+      <c r="D22">
+        <v>0.9994819292093284</v>
+      </c>
+      <c r="E22">
+        <v>1.000221322261168</v>
+      </c>
+      <c r="F22">
+        <v>0.998506415786273</v>
+      </c>
+      <c r="G22">
+        <v>1.001586305192045</v>
+      </c>
+      <c r="H22">
+        <v>1.001586305192045</v>
+      </c>
+      <c r="I22">
+        <v>1.001586305192045</v>
+      </c>
+      <c r="J22">
+        <v>0.9995583097899157</v>
+      </c>
+      <c r="K22">
+        <v>1.000619838833334</v>
+      </c>
+      <c r="L22">
+        <v>1.000495921767031</v>
+      </c>
+      <c r="M22">
+        <v>0.9988977590113023</v>
+      </c>
+      <c r="N22">
+        <v>1.001586305192045</v>
+      </c>
+      <c r="O22">
+        <v>1.000221322261168</v>
+      </c>
+      <c r="P22">
+        <v>0.9993638690237203</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998898160255416</v>
+      </c>
+      <c r="R22">
+        <v>1.000104681079828</v>
+      </c>
+      <c r="S22">
+        <v>0.9994286826124522</v>
+      </c>
+      <c r="T22">
+        <v>1.000104681079828</v>
+      </c>
+      <c r="U22">
+        <v>0.9999680882573503</v>
+      </c>
+      <c r="V22">
+        <v>1.000291731644289</v>
+      </c>
+      <c r="W22">
+        <v>0.9999209752312996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9970591658172933</v>
+      </c>
+      <c r="D23">
+        <v>0.9985336736135125</v>
+      </c>
+      <c r="E23">
+        <v>1.000196223344717</v>
+      </c>
+      <c r="F23">
+        <v>0.9970591658172933</v>
+      </c>
+      <c r="G23">
         <v>1.004322445273111</v>
       </c>
-      <c r="D19">
-        <v>0.9970591658172933</v>
-      </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.004322445273111</v>
+      </c>
+      <c r="I23">
+        <v>1.004322445273111</v>
+      </c>
+      <c r="J23">
+        <v>0.9988464451549904</v>
+      </c>
+      <c r="K23">
+        <v>1.001390740019026</v>
+      </c>
+      <c r="L23">
+        <v>1.001200027352157</v>
+      </c>
+      <c r="M23">
+        <v>0.9975362002347745</v>
+      </c>
+      <c r="N23">
+        <v>1.004322445273111</v>
+      </c>
+      <c r="O23">
         <v>1.000196223344717</v>
       </c>
-      <c r="F19">
-        <v>1.004322445273111</v>
-      </c>
-      <c r="G19">
-        <v>0.9988464451549904</v>
-      </c>
-      <c r="H19">
-        <v>1.001390740019026</v>
-      </c>
-      <c r="I19">
-        <v>1.004322445273111</v>
-      </c>
-      <c r="J19">
-        <v>0.9970591658172933</v>
-      </c>
-      <c r="K19">
-        <v>0.9985336736135123</v>
-      </c>
-      <c r="L19">
-        <v>1.001200027352157</v>
-      </c>
-      <c r="M19">
-        <v>0.9975362002347745</v>
-      </c>
-      <c r="N19">
-        <v>1.004322445273111</v>
-      </c>
-      <c r="O19">
-        <v>1.000196223344717</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9986276945810049</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9995213342498535</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000525944811707</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9987006114390001</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000525944811707</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.000106069897528</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000949344972645</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9998856151011977</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.994578759144797</v>
+        <v>0.931937707291066</v>
       </c>
       <c r="D3">
-        <v>0.9985135374786613</v>
+        <v>0.9898990155763674</v>
       </c>
       <c r="E3">
-        <v>1.000735844379216</v>
+        <v>1.022870408515851</v>
       </c>
       <c r="F3">
-        <v>0.994578759144797</v>
+        <v>0.931937707291066</v>
       </c>
       <c r="G3">
-        <v>1.004759161331947</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="H3">
-        <v>1.004759161331947</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="I3">
-        <v>1.004759161331947</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="J3">
-        <v>0.9987826297686138</v>
+        <v>0.985589760540346</v>
       </c>
       <c r="K3">
-        <v>1.001951357723442</v>
+        <v>1.026034091556198</v>
       </c>
       <c r="L3">
-        <v>1.001695887902029</v>
+        <v>1.013878469171469</v>
       </c>
       <c r="M3">
-        <v>0.9963595945147065</v>
+        <v>0.9565827099567692</v>
       </c>
       <c r="N3">
-        <v>1.004759161331947</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="O3">
-        <v>1.000735844379216</v>
+        <v>1.022870408515851</v>
       </c>
       <c r="P3">
-        <v>0.9976573017620065</v>
+        <v>0.9774040579034585</v>
       </c>
       <c r="Q3">
-        <v>0.9997592370739149</v>
+        <v>1.004230084528098</v>
       </c>
       <c r="R3">
-        <v>1.00002458828532</v>
+        <v>0.9967226633981747</v>
       </c>
       <c r="S3">
-        <v>0.9980324110975424</v>
+        <v>0.9801326254490877</v>
       </c>
       <c r="T3">
-        <v>1.00002458828532</v>
+        <v>0.9967226633981747</v>
       </c>
       <c r="U3">
-        <v>0.9997140986561432</v>
+        <v>0.9939394376837175</v>
       </c>
       <c r="V3">
-        <v>1.000723111191304</v>
+        <v>1.002223525024495</v>
       </c>
       <c r="W3">
-        <v>0.9996720965304264</v>
+        <v>0.9952690046244592</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9895132465174489</v>
+        <v>0.9386139181270938</v>
       </c>
       <c r="D4">
-        <v>0.9971386508381694</v>
+        <v>0.9910581006466651</v>
       </c>
       <c r="E4">
-        <v>1.001429042347536</v>
+        <v>1.020844508395452</v>
       </c>
       <c r="F4">
-        <v>0.9895132465174489</v>
+        <v>0.9386139181270938</v>
       </c>
       <c r="G4">
-        <v>1.009165273922513</v>
+        <v>1.031433772607164</v>
       </c>
       <c r="H4">
-        <v>1.009165273922513</v>
+        <v>1.031433772607164</v>
       </c>
       <c r="I4">
-        <v>1.009165273922513</v>
+        <v>1.031433772607164</v>
       </c>
       <c r="J4">
-        <v>0.9976561951306122</v>
+        <v>0.9870411013930286</v>
       </c>
       <c r="K4">
-        <v>1.003768280793965</v>
+        <v>1.023483863704811</v>
       </c>
       <c r="L4">
-        <v>1.003274744147699</v>
+        <v>1.01238625553298</v>
       </c>
       <c r="M4">
-        <v>0.9929683814368394</v>
+        <v>0.9609035370471477</v>
       </c>
       <c r="N4">
-        <v>1.009165273922513</v>
+        <v>1.031433772607164</v>
       </c>
       <c r="O4">
-        <v>1.001429042347536</v>
+        <v>1.020844508395452</v>
       </c>
       <c r="P4">
-        <v>0.9954711444324924</v>
+        <v>0.9797292132612729</v>
       </c>
       <c r="Q4">
-        <v>0.9995426187390741</v>
+        <v>1.00394280489424</v>
       </c>
       <c r="R4">
-        <v>1.000035854262499</v>
+        <v>0.9969640663765699</v>
       </c>
       <c r="S4">
-        <v>0.996199494665199</v>
+        <v>0.9821665093051916</v>
       </c>
       <c r="T4">
-        <v>1.000035854262499</v>
+        <v>0.9969640663765699</v>
       </c>
       <c r="U4">
-        <v>0.9994409394795276</v>
+        <v>0.9944833251306846</v>
       </c>
       <c r="V4">
-        <v>1.001385806368125</v>
+        <v>1.00187341462598</v>
       </c>
       <c r="W4">
-        <v>0.9993642268918479</v>
+        <v>0.9957206321817926</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9798574642977054</v>
+        <v>0.9191261986522907</v>
       </c>
       <c r="D5">
-        <v>0.9945559213465666</v>
+        <v>0.9876531508625329</v>
       </c>
       <c r="E5">
-        <v>1.002849307318035</v>
+        <v>1.026716259272236</v>
       </c>
       <c r="F5">
-        <v>0.9798574642977054</v>
+        <v>0.9191261986522907</v>
       </c>
       <c r="G5">
-        <v>1.017459532888245</v>
+        <v>1.042954466603773</v>
       </c>
       <c r="H5">
-        <v>1.017459532888245</v>
+        <v>1.042954466603773</v>
       </c>
       <c r="I5">
-        <v>1.017459532888245</v>
+        <v>1.042954466603773</v>
       </c>
       <c r="J5">
-        <v>0.9954901231685662</v>
+        <v>0.9828069797574118</v>
       </c>
       <c r="K5">
-        <v>1.007258923844104</v>
+        <v>1.030920094204851</v>
       </c>
       <c r="L5">
-        <v>1.006236316749687</v>
+        <v>1.016763676981133</v>
       </c>
       <c r="M5">
-        <v>0.9864989958150467</v>
+        <v>0.9482883556603791</v>
       </c>
       <c r="N5">
-        <v>1.017459532888245</v>
+        <v>1.042954466603773</v>
       </c>
       <c r="O5">
-        <v>1.002849307318035</v>
+        <v>1.026716259272236</v>
       </c>
       <c r="P5">
-        <v>0.9913533858078701</v>
+        <v>0.9729212289622633</v>
       </c>
       <c r="Q5">
-        <v>0.9991697152433006</v>
+        <v>1.004761619514824</v>
       </c>
       <c r="R5">
-        <v>1.000055434834662</v>
+        <v>0.9962656415094332</v>
       </c>
       <c r="S5">
-        <v>0.9927322982614356</v>
+        <v>0.9762164792273128</v>
       </c>
       <c r="T5">
-        <v>1.000055434834662</v>
+        <v>0.9962656415094332</v>
       </c>
       <c r="U5">
-        <v>0.9989141069181378</v>
+        <v>0.9929009760714278</v>
       </c>
       <c r="V5">
-        <v>1.002623192112159</v>
+        <v>1.002911674177897</v>
       </c>
       <c r="W5">
-        <v>0.9987758231784943</v>
+        <v>0.9944036477493259</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9704314596833274</v>
+        <v>0.9070063709659094</v>
       </c>
       <c r="D6">
-        <v>0.9920464006424506</v>
+        <v>0.9855031127272716</v>
       </c>
       <c r="E6">
-        <v>1.004249859488042</v>
+        <v>1.030305278522727</v>
       </c>
       <c r="F6">
-        <v>0.9704314596833274</v>
+        <v>0.9070063709659094</v>
       </c>
       <c r="G6">
-        <v>1.025567568935174</v>
+        <v>1.050210213863636</v>
       </c>
       <c r="H6">
-        <v>1.025567568935174</v>
+        <v>1.050210213863636</v>
       </c>
       <c r="I6">
-        <v>1.025567568935174</v>
+        <v>1.050210213863636</v>
       </c>
       <c r="J6">
-        <v>0.9933638219349538</v>
+        <v>0.9801771603977278</v>
       </c>
       <c r="K6">
-        <v>1.010666503664677</v>
+        <v>1.035533101079546</v>
       </c>
       <c r="L6">
-        <v>1.00911059658296</v>
+        <v>1.019518629772727</v>
       </c>
       <c r="M6">
-        <v>0.9801833677198277</v>
+        <v>0.9404385397159093</v>
       </c>
       <c r="N6">
-        <v>1.025567568935174</v>
+        <v>1.050210213863636</v>
       </c>
       <c r="O6">
-        <v>1.004249859488042</v>
+        <v>1.030305278522727</v>
       </c>
       <c r="P6">
-        <v>0.9873406595856846</v>
+        <v>0.9686558247443182</v>
       </c>
       <c r="Q6">
-        <v>0.9988068407114978</v>
+        <v>1.005241219460228</v>
       </c>
       <c r="R6">
-        <v>1.000082962702181</v>
+        <v>0.9958406211174241</v>
       </c>
       <c r="S6">
-        <v>0.9893483803687744</v>
+        <v>0.9724962699621215</v>
       </c>
       <c r="T6">
-        <v>1.000082962702181</v>
+        <v>0.9958406211174241</v>
       </c>
       <c r="U6">
-        <v>0.9984031775103742</v>
+        <v>0.9919247559375001</v>
       </c>
       <c r="V6">
-        <v>1.003836055795334</v>
+        <v>1.003581847522727</v>
       </c>
       <c r="W6">
-        <v>0.9982024473314265</v>
+        <v>0.9935865508806818</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994816263125663</v>
+        <v>0.7782881620323401</v>
       </c>
       <c r="D7">
-        <v>0.9999165894080103</v>
+        <v>0.9548437287111239</v>
       </c>
       <c r="E7">
-        <v>1.000163140017173</v>
+        <v>1.062331869340761</v>
       </c>
       <c r="F7">
-        <v>0.9994816263125663</v>
+        <v>0.7782881620323401</v>
       </c>
       <c r="G7">
-        <v>1.000286493689811</v>
+        <v>1.148682625005047</v>
       </c>
       <c r="H7">
-        <v>1.000286493689811</v>
+        <v>1.148682625005047</v>
       </c>
       <c r="I7">
-        <v>1.000286493689811</v>
+        <v>1.148682625005047</v>
       </c>
       <c r="J7">
-        <v>0.9998904371583699</v>
+        <v>0.9481916501495078</v>
       </c>
       <c r="K7">
-        <v>1.000196720399643</v>
+        <v>1.086507761948012</v>
       </c>
       <c r="L7">
-        <v>1.00011182456786</v>
+        <v>1.053332716713282</v>
       </c>
       <c r="M7">
-        <v>0.9996680232426394</v>
+        <v>0.8526112467804291</v>
       </c>
       <c r="N7">
-        <v>1.000286493689811</v>
+        <v>1.148682625005047</v>
       </c>
       <c r="O7">
-        <v>1.000163140017173</v>
+        <v>1.062331869340761</v>
       </c>
       <c r="P7">
-        <v>0.9998223831648695</v>
+        <v>0.9203100156865507</v>
       </c>
       <c r="Q7">
-        <v>1.000026788587771</v>
+        <v>1.005261759745135</v>
       </c>
       <c r="R7">
-        <v>0.9999770866731833</v>
+        <v>0.9964342187927162</v>
       </c>
       <c r="S7">
-        <v>0.9998450678293697</v>
+        <v>0.9296038938408696</v>
       </c>
       <c r="T7">
-        <v>0.9999770866731833</v>
+        <v>0.9964342187927162</v>
       </c>
       <c r="U7">
-        <v>0.9999554242944799</v>
+        <v>0.9843735766319142</v>
       </c>
       <c r="V7">
-        <v>1.000021638173546</v>
+        <v>1.017235386306541</v>
       </c>
       <c r="W7">
-        <v>0.9999643568495091</v>
+        <v>0.9855987200850629</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9985199703430819</v>
+        <v>0.7769352445081835</v>
       </c>
       <c r="D8">
-        <v>0.9997309736284997</v>
+        <v>0.9545582578186358</v>
       </c>
       <c r="E8">
-        <v>1.00041559969905</v>
+        <v>1.062605117582375</v>
       </c>
       <c r="F8">
-        <v>0.9985199703430819</v>
+        <v>0.7769352445081835</v>
       </c>
       <c r="G8">
-        <v>1.00090598303344</v>
+        <v>1.14962395841443</v>
       </c>
       <c r="H8">
-        <v>1.00090598303344</v>
+        <v>1.14962395841443</v>
       </c>
       <c r="I8">
-        <v>1.00090598303344</v>
+        <v>1.14962395841443</v>
       </c>
       <c r="J8">
-        <v>0.9996845941242937</v>
+        <v>0.9479235707156691</v>
       </c>
       <c r="K8">
-        <v>1.000555583492638</v>
+        <v>1.086985273198841</v>
       </c>
       <c r="L8">
-        <v>1.000346382739877</v>
+        <v>1.053699861226355</v>
       </c>
       <c r="M8">
-        <v>0.9990443035715149</v>
+        <v>0.8517439425382844</v>
       </c>
       <c r="N8">
-        <v>1.00090598303344</v>
+        <v>1.14962395841443</v>
       </c>
       <c r="O8">
-        <v>1.00041559969905</v>
+        <v>1.062605117582375</v>
       </c>
       <c r="P8">
-        <v>0.9994677850210663</v>
+        <v>0.9197701810452794</v>
       </c>
       <c r="Q8">
-        <v>1.000050096911672</v>
+        <v>1.005264344149022</v>
       </c>
       <c r="R8">
-        <v>0.9999471843585243</v>
+        <v>0.9963881068349963</v>
       </c>
       <c r="S8">
-        <v>0.999540054722142</v>
+        <v>0.9291546442687427</v>
       </c>
       <c r="T8">
-        <v>0.9999471843585243</v>
+        <v>0.9963881068349963</v>
       </c>
       <c r="U8">
-        <v>0.9998815367999666</v>
+        <v>0.9842719728051645</v>
       </c>
       <c r="V8">
-        <v>1.000086426046661</v>
+        <v>1.017342369927018</v>
       </c>
       <c r="W8">
-        <v>0.9999004238290494</v>
+        <v>0.9855094032503469</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9978459984854007</v>
+        <v>0.7759074997521435</v>
       </c>
       <c r="D9">
-        <v>0.999556110967893</v>
+        <v>0.9545232686981555</v>
       </c>
       <c r="E9">
-        <v>1.000521102935452</v>
+        <v>1.063114969446584</v>
       </c>
       <c r="F9">
-        <v>0.9978459984854007</v>
+        <v>0.7759074997521435</v>
       </c>
       <c r="G9">
-        <v>1.00146595307938</v>
+        <v>1.14982439951789</v>
       </c>
       <c r="H9">
-        <v>1.00146595307938</v>
+        <v>1.14982439951789</v>
       </c>
       <c r="I9">
-        <v>1.00146595307938</v>
+        <v>1.14982439951789</v>
       </c>
       <c r="J9">
-        <v>0.9995364499552731</v>
+        <v>0.9477301663650809</v>
       </c>
       <c r="K9">
-        <v>1.000798974765334</v>
+        <v>1.087387415146198</v>
       </c>
       <c r="L9">
-        <v>1.000549921187226</v>
+        <v>1.053815881195276</v>
       </c>
       <c r="M9">
-        <v>0.9985954666067383</v>
+        <v>0.8511283614968722</v>
       </c>
       <c r="N9">
-        <v>1.00146595307938</v>
+        <v>1.14982439951789</v>
       </c>
       <c r="O9">
-        <v>1.000521102935452</v>
+        <v>1.063114969446584</v>
       </c>
       <c r="P9">
-        <v>0.9991835507104265</v>
+        <v>0.9195112345993637</v>
       </c>
       <c r="Q9">
-        <v>1.000028776445363</v>
+        <v>1.005422567905832</v>
       </c>
       <c r="R9">
-        <v>0.9999443515000777</v>
+        <v>0.9962822895722058</v>
       </c>
       <c r="S9">
-        <v>0.999301183792042</v>
+        <v>0.928917545187936</v>
       </c>
       <c r="T9">
-        <v>0.9999443515000777</v>
+        <v>0.996282289572206</v>
       </c>
       <c r="U9">
-        <v>0.9998423761138765</v>
+        <v>0.9841442587704247</v>
       </c>
       <c r="V9">
-        <v>1.000167091506977</v>
+        <v>1.017280286919918</v>
       </c>
       <c r="W9">
-        <v>0.9998587472478373</v>
+        <v>0.9854289952022751</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9954224894740417</v>
+        <v>0.7713671765729007</v>
       </c>
       <c r="D10">
-        <v>0.9991144816031706</v>
+        <v>0.9531973333305993</v>
       </c>
       <c r="E10">
-        <v>1.001192175443521</v>
+        <v>1.063464145450275</v>
       </c>
       <c r="F10">
-        <v>0.9954224894740417</v>
+        <v>0.7713671765729007</v>
       </c>
       <c r="G10">
-        <v>1.002953482658046</v>
+        <v>1.154012228023285</v>
       </c>
       <c r="H10">
-        <v>1.002953482658046</v>
+        <v>1.154012228023285</v>
       </c>
       <c r="I10">
-        <v>1.002953482658046</v>
+        <v>1.154012228023285</v>
       </c>
       <c r="J10">
-        <v>0.9990238812647662</v>
+        <v>0.9467896545010446</v>
       </c>
       <c r="K10">
-        <v>1.001704435994626</v>
+        <v>1.088933372628021</v>
       </c>
       <c r="L10">
-        <v>1.001120792656758</v>
+        <v>1.055363460610476</v>
       </c>
       <c r="M10">
-        <v>0.9970331297453559</v>
+        <v>0.8481146953601142</v>
       </c>
       <c r="N10">
-        <v>1.002953482658046</v>
+        <v>1.154012228023285</v>
       </c>
       <c r="O10">
-        <v>1.001192175443521</v>
+        <v>1.063464145450275</v>
       </c>
       <c r="P10">
-        <v>0.9983073324587812</v>
+        <v>0.9174156610115878</v>
       </c>
       <c r="Q10">
-        <v>1.000108028354143</v>
+        <v>1.00512689997566</v>
       </c>
       <c r="R10">
-        <v>0.9998560491918695</v>
+        <v>0.9962811833488202</v>
       </c>
       <c r="S10">
-        <v>0.9985461820607763</v>
+        <v>0.92720699217474</v>
       </c>
       <c r="T10">
-        <v>0.9998560491918695</v>
+        <v>0.9962811833488202</v>
       </c>
       <c r="U10">
-        <v>0.9996480072100937</v>
+        <v>0.9839083011368763</v>
       </c>
       <c r="V10">
-        <v>1.000309102299684</v>
+        <v>1.017929086514158</v>
       </c>
       <c r="W10">
-        <v>0.9996956086050357</v>
+        <v>0.9851552583095894</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9922161249489228</v>
+        <v>0.9935424968271928</v>
       </c>
       <c r="D11">
-        <v>0.9983137330700799</v>
+        <v>0.998098301890469</v>
       </c>
       <c r="E11">
-        <v>1.001744250046807</v>
+        <v>1.000677475539629</v>
       </c>
       <c r="F11">
-        <v>0.9922161249489228</v>
+        <v>0.9935424968271928</v>
       </c>
       <c r="G11">
-        <v>1.005530231307421</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="H11">
-        <v>1.005530231307421</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="I11">
-        <v>1.005530231307421</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="J11">
-        <v>0.9983214527582972</v>
+        <v>0.9985368725181772</v>
       </c>
       <c r="K11">
-        <v>1.002868241759702</v>
+        <v>1.002305896745516</v>
       </c>
       <c r="L11">
-        <v>1.002061656645142</v>
+        <v>1.00213302652238</v>
       </c>
       <c r="M11">
-        <v>0.9949057595459186</v>
+        <v>0.9956268389217143</v>
       </c>
       <c r="N11">
-        <v>1.005530231307421</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="O11">
-        <v>1.001744250046807</v>
+        <v>1.000677475539629</v>
       </c>
       <c r="P11">
-        <v>0.9969801874978647</v>
+        <v>0.997109986183411</v>
       </c>
       <c r="Q11">
-        <v>1.000032851402552</v>
+        <v>0.9996071740289032</v>
       </c>
       <c r="R11">
-        <v>0.9998302021010502</v>
+        <v>1.000081936174716</v>
       </c>
       <c r="S11">
-        <v>0.9974272759180088</v>
+        <v>0.9975856149616664</v>
       </c>
       <c r="T11">
-        <v>0.9998302021010502</v>
+        <v>1.000081936174716</v>
       </c>
       <c r="U11">
-        <v>0.999453014765362</v>
+        <v>0.9996956702605817</v>
       </c>
       <c r="V11">
-        <v>1.000668458073774</v>
+        <v>1.000961703439931</v>
       </c>
       <c r="W11">
-        <v>0.9994951812602864</v>
+        <v>0.9996183431403007</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.114359926117516</v>
+        <v>0.9960308777365364</v>
       </c>
       <c r="D12">
-        <v>1.000461040254294</v>
+        <v>0.9990482613352548</v>
       </c>
       <c r="E12">
-        <v>0.9355091172145319</v>
+        <v>1.00079427683938</v>
       </c>
       <c r="F12">
-        <v>1.114359926117516</v>
+        <v>0.9960308777365364</v>
       </c>
       <c r="G12">
-        <v>0.9860814526514601</v>
+        <v>1.003088186063383</v>
       </c>
       <c r="H12">
-        <v>0.9860814526514601</v>
+        <v>1.003088186063383</v>
       </c>
       <c r="I12">
-        <v>0.9860814526514601</v>
+        <v>1.003088186063383</v>
       </c>
       <c r="J12">
-        <v>1.022939026056447</v>
+        <v>0.999103825334738</v>
       </c>
       <c r="K12">
-        <v>0.9534045963821534</v>
+        <v>1.00147338987707</v>
       </c>
       <c r="L12">
-        <v>0.9911820440698969</v>
+        <v>1.001110462170438</v>
       </c>
       <c r="M12">
-        <v>1.068629186633957</v>
+        <v>0.9973572426031349</v>
       </c>
       <c r="N12">
-        <v>0.9860814526514601</v>
+        <v>1.003088186063383</v>
       </c>
       <c r="O12">
-        <v>0.9355091172145319</v>
+        <v>1.00079427683938</v>
       </c>
       <c r="P12">
-        <v>1.024934521666024</v>
+        <v>0.9984125772879582</v>
       </c>
       <c r="Q12">
-        <v>0.9792240716354892</v>
+        <v>0.9999490510870589</v>
       </c>
       <c r="R12">
-        <v>1.011983498661169</v>
+        <v>0.9999711135464331</v>
       </c>
       <c r="S12">
-        <v>1.024269356462831</v>
+        <v>0.9986429933035513</v>
       </c>
       <c r="T12">
-        <v>1.011983498661169</v>
+        <v>0.999971113546433</v>
       </c>
       <c r="U12">
-        <v>1.014722380509989</v>
+        <v>0.9997542914935091</v>
       </c>
       <c r="V12">
-        <v>1.008994194938283</v>
+        <v>1.000421070407484</v>
       </c>
       <c r="W12">
-        <v>1.009070798672532</v>
+        <v>0.9997508152449919</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.013023478209936</v>
+        <v>0.9855036185887207</v>
       </c>
       <c r="D13">
-        <v>1.01186609296541</v>
+        <v>0.9966289446336194</v>
       </c>
       <c r="E13">
-        <v>1.012259343999107</v>
+        <v>1.003054301670231</v>
       </c>
       <c r="F13">
-        <v>1.013023478209936</v>
+        <v>0.9855036185887207</v>
       </c>
       <c r="G13">
-        <v>0.9655899923054061</v>
+        <v>1.010984342853777</v>
       </c>
       <c r="H13">
-        <v>0.9655899923054061</v>
+        <v>1.010984342853777</v>
       </c>
       <c r="I13">
-        <v>0.9655899923054061</v>
+        <v>1.010984342853777</v>
       </c>
       <c r="J13">
-        <v>1.003084459309294</v>
+        <v>0.9967437800908648</v>
       </c>
       <c r="K13">
-        <v>0.9972410691309167</v>
+        <v>1.005392769316172</v>
       </c>
       <c r="L13">
-        <v>0.9883139550583141</v>
+        <v>1.003969154425157</v>
       </c>
       <c r="M13">
-        <v>1.010568862437565</v>
+        <v>0.9903807589641695</v>
       </c>
       <c r="N13">
-        <v>0.9655899923054061</v>
+        <v>1.010984342853777</v>
       </c>
       <c r="O13">
-        <v>1.012259343999107</v>
+        <v>1.003054301670231</v>
       </c>
       <c r="P13">
-        <v>1.012641411104521</v>
+        <v>0.9942789601294759</v>
       </c>
       <c r="Q13">
-        <v>1.0076719016542</v>
+        <v>0.9998990408805479</v>
       </c>
       <c r="R13">
-        <v>0.9969576048381494</v>
+        <v>0.9998474210375763</v>
       </c>
       <c r="S13">
-        <v>1.009455760506112</v>
+        <v>0.9951005667832722</v>
       </c>
       <c r="T13">
-        <v>0.9969576048381494</v>
+        <v>0.9998474210375763</v>
       </c>
       <c r="U13">
-        <v>0.9984893184559355</v>
+        <v>0.9990715108008984</v>
       </c>
       <c r="V13">
-        <v>0.9919094532258296</v>
+        <v>1.001454077211474</v>
       </c>
       <c r="W13">
-        <v>1.000243406676993</v>
+        <v>0.9990822088178389</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9495556907948551</v>
+        <v>0.9847055971840312</v>
       </c>
       <c r="D14">
-        <v>1.029713845490989</v>
+        <v>0.9959083444843811</v>
       </c>
       <c r="E14">
-        <v>1.073895747723929</v>
+        <v>1.002240316641256</v>
       </c>
       <c r="F14">
-        <v>0.9495556907948551</v>
+        <v>0.9847055971840312</v>
       </c>
       <c r="G14">
-        <v>0.9232440436940611</v>
+        <v>1.013129123443693</v>
       </c>
       <c r="H14">
-        <v>0.9232440436940611</v>
+        <v>1.013129123443693</v>
       </c>
       <c r="I14">
-        <v>0.9232440436940611</v>
+        <v>1.013129123443693</v>
       </c>
       <c r="J14">
-        <v>0.9933444082733895</v>
+        <v>0.9965772688105665</v>
       </c>
       <c r="K14">
-        <v>1.024771104951278</v>
+        <v>1.005524468780459</v>
       </c>
       <c r="L14">
-        <v>0.9783665009512694</v>
+        <v>1.004696709463267</v>
       </c>
       <c r="M14">
-        <v>0.9783002134435266</v>
+        <v>0.9897569521943596</v>
       </c>
       <c r="N14">
-        <v>0.9232440436940611</v>
+        <v>1.013129123443693</v>
       </c>
       <c r="O14">
-        <v>1.073895747723929</v>
+        <v>1.002240316641256</v>
       </c>
       <c r="P14">
-        <v>1.011725719259392</v>
+        <v>0.9934729569126435</v>
       </c>
       <c r="Q14">
-        <v>1.033620077998659</v>
+        <v>0.9994087927259111</v>
       </c>
       <c r="R14">
-        <v>0.9822318274042817</v>
+        <v>1.000025012422993</v>
       </c>
       <c r="S14">
-        <v>1.005598615597391</v>
+        <v>0.9945077275452845</v>
       </c>
       <c r="T14">
-        <v>0.9822318274042816</v>
+        <v>1.000025012422993</v>
       </c>
       <c r="U14">
-        <v>0.9850099726215586</v>
+        <v>0.9991630765198866</v>
       </c>
       <c r="V14">
-        <v>0.9726567868360592</v>
+        <v>1.001956285904648</v>
       </c>
       <c r="W14">
-        <v>0.9938989444154123</v>
+        <v>0.9990673476252516</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.017742000111958</v>
+        <v>0.994578759144797</v>
       </c>
       <c r="D15">
-        <v>0.9869753866395347</v>
+        <v>0.9985135374786613</v>
       </c>
       <c r="E15">
-        <v>0.9708447351522942</v>
+        <v>1.000735844379216</v>
       </c>
       <c r="F15">
-        <v>1.017742000111958</v>
+        <v>0.994578759144797</v>
       </c>
       <c r="G15">
-        <v>1.033861511597765</v>
+        <v>1.004759161331947</v>
       </c>
       <c r="H15">
-        <v>1.033861511597765</v>
+        <v>1.004759161331947</v>
       </c>
       <c r="I15">
-        <v>1.033861511597765</v>
+        <v>1.004759161331947</v>
       </c>
       <c r="J15">
-        <v>1.00171894190294</v>
+        <v>0.9987826297686138</v>
       </c>
       <c r="K15">
-        <v>0.9913194689752158</v>
+        <v>1.001951357723442</v>
       </c>
       <c r="L15">
-        <v>1.009575558954179</v>
+        <v>1.001695887902029</v>
       </c>
       <c r="M15">
-        <v>1.006636380876238</v>
+        <v>0.9963595945147065</v>
       </c>
       <c r="N15">
-        <v>1.033861511597765</v>
+        <v>1.004759161331947</v>
       </c>
       <c r="O15">
-        <v>0.9708447351522942</v>
+        <v>1.000735844379216</v>
       </c>
       <c r="P15">
-        <v>0.9942933676321261</v>
+        <v>0.9976573017620065</v>
       </c>
       <c r="Q15">
-        <v>0.986281838527617</v>
+        <v>0.9997592370739149</v>
       </c>
       <c r="R15">
-        <v>1.007482748954006</v>
+        <v>1.00002458828532</v>
       </c>
       <c r="S15">
-        <v>0.9967685590557306</v>
+        <v>0.9980324110975424</v>
       </c>
       <c r="T15">
-        <v>1.007482748954006</v>
+        <v>1.00002458828532</v>
       </c>
       <c r="U15">
-        <v>1.006041797191239</v>
+        <v>0.9997140986561432</v>
       </c>
       <c r="V15">
-        <v>1.011605740072544</v>
+        <v>1.000723111191304</v>
       </c>
       <c r="W15">
-        <v>1.002334248026266</v>
+        <v>0.9996720965304264</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8930939820618167</v>
+        <v>0.9895132465174489</v>
       </c>
       <c r="D16">
-        <v>0.9717067039018414</v>
+        <v>0.9971386508381694</v>
       </c>
       <c r="E16">
-        <v>1.016026947532025</v>
+        <v>1.001429042347536</v>
       </c>
       <c r="F16">
-        <v>0.8930939820618167</v>
+        <v>0.9895132465174489</v>
       </c>
       <c r="G16">
-        <v>1.090913023433971</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="H16">
-        <v>1.090913023433971</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="I16">
-        <v>1.090913023433971</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="J16">
-        <v>0.9761689459463058</v>
+        <v>0.9976561951306122</v>
       </c>
       <c r="K16">
-        <v>1.038605957713575</v>
+        <v>1.003768280793965</v>
       </c>
       <c r="L16">
-        <v>1.032606032654188</v>
+        <v>1.003274744147699</v>
       </c>
       <c r="M16">
-        <v>0.9285293965360057</v>
+        <v>0.9929683814368394</v>
       </c>
       <c r="N16">
-        <v>1.090913023433971</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="O16">
-        <v>1.016026947532025</v>
+        <v>1.001429042347536</v>
       </c>
       <c r="P16">
-        <v>0.9545604647969209</v>
+        <v>0.9954711444324924</v>
       </c>
       <c r="Q16">
-        <v>0.9960979467391655</v>
+        <v>0.9995426187390741</v>
       </c>
       <c r="R16">
-        <v>1.000011317675938</v>
+        <v>1.000035854262499</v>
       </c>
       <c r="S16">
-        <v>0.9617632918467159</v>
+        <v>0.996199494665199</v>
       </c>
       <c r="T16">
-        <v>1.000011317675938</v>
+        <v>1.000035854262499</v>
       </c>
       <c r="U16">
-        <v>0.9940507247435296</v>
+        <v>0.9994409394795276</v>
       </c>
       <c r="V16">
-        <v>1.013423184481618</v>
+        <v>1.001385806368125</v>
       </c>
       <c r="W16">
-        <v>0.9934563737224662</v>
+        <v>0.9993642268918479</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9099865788991316</v>
+        <v>0.9798574642977054</v>
       </c>
       <c r="D17">
-        <v>0.9784218905287612</v>
+        <v>0.9945559213465666</v>
       </c>
       <c r="E17">
-        <v>1.017051120934228</v>
+        <v>1.002849307318035</v>
       </c>
       <c r="F17">
-        <v>0.9099865788991316</v>
+        <v>0.9798574642977054</v>
       </c>
       <c r="G17">
-        <v>1.070171110887364</v>
+        <v>1.017459532888245</v>
       </c>
       <c r="H17">
-        <v>1.070171110887364</v>
+        <v>1.017459532888245</v>
       </c>
       <c r="I17">
-        <v>1.070171110887364</v>
+        <v>1.017459532888245</v>
       </c>
       <c r="J17">
-        <v>0.9801669931299923</v>
+        <v>0.9954901231685662</v>
       </c>
       <c r="K17">
-        <v>1.032899157344269</v>
+        <v>1.007258923844104</v>
       </c>
       <c r="L17">
-        <v>1.025513505481809</v>
+        <v>1.006236316749687</v>
       </c>
       <c r="M17">
-        <v>0.9404269441365066</v>
+        <v>0.9864989958150467</v>
       </c>
       <c r="N17">
-        <v>1.070171110887364</v>
+        <v>1.017459532888245</v>
       </c>
       <c r="O17">
-        <v>1.017051120934228</v>
+        <v>1.002849307318035</v>
       </c>
       <c r="P17">
-        <v>0.9635188499166798</v>
+        <v>0.9913533858078701</v>
       </c>
       <c r="Q17">
-        <v>0.9986090570321102</v>
+        <v>0.9991697152433006</v>
       </c>
       <c r="R17">
-        <v>0.9990696035735747</v>
+        <v>1.000055434834662</v>
       </c>
       <c r="S17">
-        <v>0.9690682309877839</v>
+        <v>0.9927322982614356</v>
       </c>
       <c r="T17">
-        <v>0.9990696035735747</v>
+        <v>1.000055434834662</v>
       </c>
       <c r="U17">
-        <v>0.994343950962679</v>
+        <v>0.9989141069181378</v>
       </c>
       <c r="V17">
-        <v>1.009509382947616</v>
+        <v>1.002623192112159</v>
       </c>
       <c r="W17">
-        <v>0.9943296626677578</v>
+        <v>0.9987758231784943</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9438331917532786</v>
+        <v>0.9704314596833274</v>
       </c>
       <c r="D18">
-        <v>0.9917529270340689</v>
+        <v>0.9920464006424506</v>
       </c>
       <c r="E18">
-        <v>1.018902682949478</v>
+        <v>1.004249859488042</v>
       </c>
       <c r="F18">
-        <v>0.9438331917532786</v>
+        <v>0.9704314596833274</v>
       </c>
       <c r="G18">
-        <v>1.028962609637432</v>
+        <v>1.025567568935174</v>
       </c>
       <c r="H18">
-        <v>1.028962609637432</v>
+        <v>1.025567568935174</v>
       </c>
       <c r="I18">
-        <v>1.028962609637432</v>
+        <v>1.025567568935174</v>
       </c>
       <c r="J18">
-        <v>0.9881675675014191</v>
+        <v>0.9933638219349538</v>
       </c>
       <c r="K18">
-        <v>1.021440756352737</v>
+        <v>1.010666503664677</v>
       </c>
       <c r="L18">
-        <v>1.011411455220193</v>
+        <v>1.00911059658296</v>
       </c>
       <c r="M18">
-        <v>0.9642337869449227</v>
+        <v>0.9801833677198277</v>
       </c>
       <c r="N18">
-        <v>1.028962609637432</v>
+        <v>1.025567568935174</v>
       </c>
       <c r="O18">
-        <v>1.018902682949478</v>
+        <v>1.004249859488042</v>
       </c>
       <c r="P18">
-        <v>0.9813679373513784</v>
+        <v>0.9873406595856846</v>
       </c>
       <c r="Q18">
-        <v>1.003535125225449</v>
+        <v>0.9988068407114978</v>
       </c>
       <c r="R18">
-        <v>0.9972328281133963</v>
+        <v>1.000082962702181</v>
       </c>
       <c r="S18">
-        <v>0.9836344807347253</v>
+        <v>0.9893483803687744</v>
       </c>
       <c r="T18">
-        <v>0.9972328281133963</v>
+        <v>1.000082962702181</v>
       </c>
       <c r="U18">
-        <v>0.9949665129604019</v>
+        <v>0.9984031775103742</v>
       </c>
       <c r="V18">
-        <v>1.001765732295808</v>
+        <v>1.003836055795334</v>
       </c>
       <c r="W18">
-        <v>0.9960881221741912</v>
+        <v>0.9982024473314265</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9370261360452106</v>
+        <v>0.9994816263125663</v>
       </c>
       <c r="D19">
-        <v>0.9920746955814405</v>
+        <v>0.9999165894080103</v>
       </c>
       <c r="E19">
-        <v>1.023436297962328</v>
+        <v>1.000163140017173</v>
       </c>
       <c r="F19">
-        <v>0.9370261360452106</v>
+        <v>0.9994816263125663</v>
       </c>
       <c r="G19">
-        <v>1.028753296839594</v>
+        <v>1.000286493689811</v>
       </c>
       <c r="H19">
-        <v>1.028753296839594</v>
+        <v>1.000286493689811</v>
       </c>
       <c r="I19">
-        <v>1.028753296839594</v>
+        <v>1.000286493689811</v>
       </c>
       <c r="J19">
-        <v>0.9867750525009706</v>
+        <v>0.9998904371583699</v>
       </c>
       <c r="K19">
-        <v>1.024350514243677</v>
+        <v>1.000196720399643</v>
       </c>
       <c r="L19">
-        <v>1.011589993293249</v>
+        <v>1.00011182456786</v>
       </c>
       <c r="M19">
-        <v>0.9601931483567202</v>
+        <v>0.9996680232426394</v>
       </c>
       <c r="N19">
-        <v>1.028753296839594</v>
+        <v>1.000286493689811</v>
       </c>
       <c r="O19">
-        <v>1.023436297962328</v>
+        <v>1.000163140017173</v>
       </c>
       <c r="P19">
-        <v>0.9802312170037691</v>
+        <v>0.9998223831648695</v>
       </c>
       <c r="Q19">
-        <v>1.005105675231649</v>
+        <v>1.000026788587771</v>
       </c>
       <c r="R19">
-        <v>0.9964052436157109</v>
+        <v>0.9999770866731833</v>
       </c>
       <c r="S19">
-        <v>0.9824124955028363</v>
+        <v>0.9998450678293697</v>
       </c>
       <c r="T19">
-        <v>0.9964052436157109</v>
+        <v>0.9999770866731833</v>
       </c>
       <c r="U19">
-        <v>0.9939976958370258</v>
+        <v>0.9999554242944799</v>
       </c>
       <c r="V19">
-        <v>1.000948816037539</v>
+        <v>1.000021638173546</v>
       </c>
       <c r="W19">
-        <v>0.9955248918528987</v>
+        <v>0.9999643568495091</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000014265262034</v>
+        <v>0.9985199703430819</v>
       </c>
       <c r="D20">
-        <v>0.9999907513428428</v>
+        <v>0.9997309736284997</v>
       </c>
       <c r="E20">
-        <v>1.000047888214149</v>
+        <v>1.00041559969905</v>
       </c>
       <c r="F20">
-        <v>1.000014265262034</v>
+        <v>0.9985199703430819</v>
       </c>
       <c r="G20">
-        <v>1.000012951111389</v>
+        <v>1.00090598303344</v>
       </c>
       <c r="H20">
-        <v>1.000012951111389</v>
+        <v>1.00090598303344</v>
       </c>
       <c r="I20">
-        <v>1.000012951111389</v>
+        <v>1.00090598303344</v>
       </c>
       <c r="J20">
-        <v>0.9999664449995812</v>
+        <v>0.9996845941242937</v>
       </c>
       <c r="K20">
-        <v>1.000030110702129</v>
+        <v>1.000555583492638</v>
       </c>
       <c r="L20">
-        <v>0.9999826819109803</v>
+        <v>1.000346382739877</v>
       </c>
       <c r="M20">
-        <v>0.9999800044695841</v>
+        <v>0.9990443035715149</v>
       </c>
       <c r="N20">
-        <v>1.000012951111389</v>
+        <v>1.00090598303344</v>
       </c>
       <c r="O20">
-        <v>1.000047888214149</v>
+        <v>1.00041559969905</v>
       </c>
       <c r="P20">
-        <v>1.000031076738091</v>
+        <v>0.9994677850210663</v>
       </c>
       <c r="Q20">
-        <v>1.000007166606865</v>
+        <v>1.000050096911672</v>
       </c>
       <c r="R20">
-        <v>1.000025034862524</v>
+        <v>0.9999471843585243</v>
       </c>
       <c r="S20">
-        <v>1.000009532825255</v>
+        <v>0.999540054722142</v>
       </c>
       <c r="T20">
-        <v>1.000025034862524</v>
+        <v>0.9999471843585243</v>
       </c>
       <c r="U20">
-        <v>1.000010387396788</v>
+        <v>0.9998815367999666</v>
       </c>
       <c r="V20">
-        <v>1.000010900139709</v>
+        <v>1.000086426046661</v>
       </c>
       <c r="W20">
-        <v>1.000003137251586</v>
+        <v>0.9999004238290494</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9993719398151365</v>
+        <v>0.9978459984854007</v>
       </c>
       <c r="D21">
-        <v>0.999947400678812</v>
+        <v>0.999556110967893</v>
       </c>
       <c r="E21">
-        <v>1.000191244423077</v>
+        <v>1.000521102935452</v>
       </c>
       <c r="F21">
-        <v>0.9993719398151365</v>
+        <v>0.9978459984854007</v>
       </c>
       <c r="G21">
-        <v>1.000222050567939</v>
+        <v>1.00146595307938</v>
       </c>
       <c r="H21">
-        <v>1.000222050567939</v>
+        <v>1.00146595307938</v>
       </c>
       <c r="I21">
-        <v>1.000222050567939</v>
+        <v>1.00146595307938</v>
       </c>
       <c r="J21">
-        <v>0.99991443408531</v>
+        <v>0.9995364499552731</v>
       </c>
       <c r="K21">
-        <v>1.000202620248907</v>
+        <v>1.000798974765334</v>
       </c>
       <c r="L21">
-        <v>1.000122387592581</v>
+        <v>1.000549921187226</v>
       </c>
       <c r="M21">
-        <v>0.9996416329785256</v>
+        <v>0.9985954666067383</v>
       </c>
       <c r="N21">
-        <v>1.000222050567939</v>
+        <v>1.00146595307938</v>
       </c>
       <c r="O21">
-        <v>1.000191244423077</v>
+        <v>1.000521102935452</v>
       </c>
       <c r="P21">
-        <v>0.9997815921191067</v>
+        <v>0.9991835507104265</v>
       </c>
       <c r="Q21">
-        <v>1.000052839254193</v>
+        <v>1.000028776445363</v>
       </c>
       <c r="R21">
-        <v>0.9999284116020507</v>
+        <v>0.9999443515000777</v>
       </c>
       <c r="S21">
-        <v>0.9998258727745077</v>
+        <v>0.999301183792042</v>
       </c>
       <c r="T21">
-        <v>0.9999284116020505</v>
+        <v>0.9999443515000777</v>
       </c>
       <c r="U21">
-        <v>0.9999249172228654</v>
+        <v>0.9998423761138765</v>
       </c>
       <c r="V21">
-        <v>0.9999843438918801</v>
+        <v>1.000167091506977</v>
       </c>
       <c r="W21">
-        <v>0.9999517137987859</v>
+        <v>0.9998587472478373</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.998506415786273</v>
+        <v>0.9954224894740417</v>
       </c>
       <c r="D22">
-        <v>0.9994819292093284</v>
+        <v>0.9991144816031706</v>
       </c>
       <c r="E22">
-        <v>1.000221322261168</v>
+        <v>1.001192175443521</v>
       </c>
       <c r="F22">
-        <v>0.998506415786273</v>
+        <v>0.9954224894740417</v>
       </c>
       <c r="G22">
-        <v>1.001586305192045</v>
+        <v>1.002953482658046</v>
       </c>
       <c r="H22">
-        <v>1.001586305192045</v>
+        <v>1.002953482658046</v>
       </c>
       <c r="I22">
-        <v>1.001586305192045</v>
+        <v>1.002953482658046</v>
       </c>
       <c r="J22">
-        <v>0.9995583097899157</v>
+        <v>0.9990238812647662</v>
       </c>
       <c r="K22">
-        <v>1.000619838833334</v>
+        <v>1.001704435994626</v>
       </c>
       <c r="L22">
-        <v>1.000495921767031</v>
+        <v>1.001120792656758</v>
       </c>
       <c r="M22">
-        <v>0.9988977590113023</v>
+        <v>0.9970331297453559</v>
       </c>
       <c r="N22">
-        <v>1.001586305192045</v>
+        <v>1.002953482658046</v>
       </c>
       <c r="O22">
-        <v>1.000221322261168</v>
+        <v>1.001192175443521</v>
       </c>
       <c r="P22">
-        <v>0.9993638690237203</v>
+        <v>0.9983073324587812</v>
       </c>
       <c r="Q22">
-        <v>0.9998898160255416</v>
+        <v>1.000108028354143</v>
       </c>
       <c r="R22">
-        <v>1.000104681079828</v>
+        <v>0.9998560491918695</v>
       </c>
       <c r="S22">
-        <v>0.9994286826124522</v>
+        <v>0.9985461820607763</v>
       </c>
       <c r="T22">
-        <v>1.000104681079828</v>
+        <v>0.9998560491918695</v>
       </c>
       <c r="U22">
-        <v>0.9999680882573503</v>
+        <v>0.9996480072100937</v>
       </c>
       <c r="V22">
-        <v>1.000291731644289</v>
+        <v>1.000309102299684</v>
       </c>
       <c r="W22">
-        <v>0.9999209752312996</v>
+        <v>0.9996956086050357</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9922161249489228</v>
+      </c>
+      <c r="D23">
+        <v>0.9983137330700799</v>
+      </c>
+      <c r="E23">
+        <v>1.001744250046807</v>
+      </c>
+      <c r="F23">
+        <v>0.9922161249489228</v>
+      </c>
+      <c r="G23">
+        <v>1.005530231307421</v>
+      </c>
+      <c r="H23">
+        <v>1.005530231307421</v>
+      </c>
+      <c r="I23">
+        <v>1.005530231307421</v>
+      </c>
+      <c r="J23">
+        <v>0.9983214527582972</v>
+      </c>
+      <c r="K23">
+        <v>1.002868241759702</v>
+      </c>
+      <c r="L23">
+        <v>1.002061656645142</v>
+      </c>
+      <c r="M23">
+        <v>0.9949057595459186</v>
+      </c>
+      <c r="N23">
+        <v>1.005530231307421</v>
+      </c>
+      <c r="O23">
+        <v>1.001744250046807</v>
+      </c>
+      <c r="P23">
+        <v>0.9969801874978647</v>
+      </c>
+      <c r="Q23">
+        <v>1.000032851402552</v>
+      </c>
+      <c r="R23">
+        <v>0.9998302021010502</v>
+      </c>
+      <c r="S23">
+        <v>0.9974272759180088</v>
+      </c>
+      <c r="T23">
+        <v>0.9998302021010502</v>
+      </c>
+      <c r="U23">
+        <v>0.999453014765362</v>
+      </c>
+      <c r="V23">
+        <v>1.000668458073774</v>
+      </c>
+      <c r="W23">
+        <v>0.9994951812602864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.114359926117516</v>
+      </c>
+      <c r="D24">
+        <v>1.000461040254294</v>
+      </c>
+      <c r="E24">
+        <v>0.9355091172145319</v>
+      </c>
+      <c r="F24">
+        <v>1.114359926117516</v>
+      </c>
+      <c r="G24">
+        <v>0.9860814526514601</v>
+      </c>
+      <c r="H24">
+        <v>0.9860814526514601</v>
+      </c>
+      <c r="I24">
+        <v>0.9860814526514601</v>
+      </c>
+      <c r="J24">
+        <v>1.022939026056447</v>
+      </c>
+      <c r="K24">
+        <v>0.9534045963821534</v>
+      </c>
+      <c r="L24">
+        <v>0.9911820440698969</v>
+      </c>
+      <c r="M24">
+        <v>1.068629186633957</v>
+      </c>
+      <c r="N24">
+        <v>0.9860814526514601</v>
+      </c>
+      <c r="O24">
+        <v>0.9355091172145319</v>
+      </c>
+      <c r="P24">
+        <v>1.024934521666024</v>
+      </c>
+      <c r="Q24">
+        <v>0.9792240716354892</v>
+      </c>
+      <c r="R24">
+        <v>1.011983498661169</v>
+      </c>
+      <c r="S24">
+        <v>1.024269356462831</v>
+      </c>
+      <c r="T24">
+        <v>1.011983498661169</v>
+      </c>
+      <c r="U24">
+        <v>1.014722380509989</v>
+      </c>
+      <c r="V24">
+        <v>1.008994194938283</v>
+      </c>
+      <c r="W24">
+        <v>1.009070798672532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.013023478209936</v>
+      </c>
+      <c r="D25">
+        <v>1.01186609296541</v>
+      </c>
+      <c r="E25">
+        <v>1.012259343999107</v>
+      </c>
+      <c r="F25">
+        <v>1.013023478209936</v>
+      </c>
+      <c r="G25">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="H25">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="I25">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="J25">
+        <v>1.003084459309294</v>
+      </c>
+      <c r="K25">
+        <v>0.9972410691309167</v>
+      </c>
+      <c r="L25">
+        <v>0.9883139550583141</v>
+      </c>
+      <c r="M25">
+        <v>1.010568862437565</v>
+      </c>
+      <c r="N25">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="O25">
+        <v>1.012259343999107</v>
+      </c>
+      <c r="P25">
+        <v>1.012641411104521</v>
+      </c>
+      <c r="Q25">
+        <v>1.0076719016542</v>
+      </c>
+      <c r="R25">
+        <v>0.9969576048381494</v>
+      </c>
+      <c r="S25">
+        <v>1.009455760506112</v>
+      </c>
+      <c r="T25">
+        <v>0.9969576048381494</v>
+      </c>
+      <c r="U25">
+        <v>0.9984893184559355</v>
+      </c>
+      <c r="V25">
+        <v>0.9919094532258296</v>
+      </c>
+      <c r="W25">
+        <v>1.000243406676993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9495556907948551</v>
+      </c>
+      <c r="D26">
+        <v>1.029713845490989</v>
+      </c>
+      <c r="E26">
+        <v>1.073895747723929</v>
+      </c>
+      <c r="F26">
+        <v>0.9495556907948551</v>
+      </c>
+      <c r="G26">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="H26">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="I26">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="J26">
+        <v>0.9933444082733895</v>
+      </c>
+      <c r="K26">
+        <v>1.024771104951278</v>
+      </c>
+      <c r="L26">
+        <v>0.9783665009512694</v>
+      </c>
+      <c r="M26">
+        <v>0.9783002134435266</v>
+      </c>
+      <c r="N26">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="O26">
+        <v>1.073895747723929</v>
+      </c>
+      <c r="P26">
+        <v>1.011725719259392</v>
+      </c>
+      <c r="Q26">
+        <v>1.033620077998659</v>
+      </c>
+      <c r="R26">
+        <v>0.9822318274042817</v>
+      </c>
+      <c r="S26">
+        <v>1.005598615597391</v>
+      </c>
+      <c r="T26">
+        <v>0.9822318274042816</v>
+      </c>
+      <c r="U26">
+        <v>0.9850099726215586</v>
+      </c>
+      <c r="V26">
+        <v>0.9726567868360592</v>
+      </c>
+      <c r="W26">
+        <v>0.9938989444154123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.017742000111958</v>
+      </c>
+      <c r="D27">
+        <v>0.9869753866395347</v>
+      </c>
+      <c r="E27">
+        <v>0.9708447351522942</v>
+      </c>
+      <c r="F27">
+        <v>1.017742000111958</v>
+      </c>
+      <c r="G27">
+        <v>1.033861511597765</v>
+      </c>
+      <c r="H27">
+        <v>1.033861511597765</v>
+      </c>
+      <c r="I27">
+        <v>1.033861511597765</v>
+      </c>
+      <c r="J27">
+        <v>1.00171894190294</v>
+      </c>
+      <c r="K27">
+        <v>0.9913194689752158</v>
+      </c>
+      <c r="L27">
+        <v>1.009575558954179</v>
+      </c>
+      <c r="M27">
+        <v>1.006636380876238</v>
+      </c>
+      <c r="N27">
+        <v>1.033861511597765</v>
+      </c>
+      <c r="O27">
+        <v>0.9708447351522942</v>
+      </c>
+      <c r="P27">
+        <v>0.9942933676321261</v>
+      </c>
+      <c r="Q27">
+        <v>0.986281838527617</v>
+      </c>
+      <c r="R27">
+        <v>1.007482748954006</v>
+      </c>
+      <c r="S27">
+        <v>0.9967685590557306</v>
+      </c>
+      <c r="T27">
+        <v>1.007482748954006</v>
+      </c>
+      <c r="U27">
+        <v>1.006041797191239</v>
+      </c>
+      <c r="V27">
+        <v>1.011605740072544</v>
+      </c>
+      <c r="W27">
+        <v>1.002334248026266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8930939820618167</v>
+      </c>
+      <c r="D28">
+        <v>0.9717067039018414</v>
+      </c>
+      <c r="E28">
+        <v>1.016026947532025</v>
+      </c>
+      <c r="F28">
+        <v>0.8930939820618167</v>
+      </c>
+      <c r="G28">
+        <v>1.090913023433971</v>
+      </c>
+      <c r="H28">
+        <v>1.090913023433971</v>
+      </c>
+      <c r="I28">
+        <v>1.090913023433971</v>
+      </c>
+      <c r="J28">
+        <v>0.9761689459463058</v>
+      </c>
+      <c r="K28">
+        <v>1.038605957713575</v>
+      </c>
+      <c r="L28">
+        <v>1.032606032654188</v>
+      </c>
+      <c r="M28">
+        <v>0.9285293965360057</v>
+      </c>
+      <c r="N28">
+        <v>1.090913023433971</v>
+      </c>
+      <c r="O28">
+        <v>1.016026947532025</v>
+      </c>
+      <c r="P28">
+        <v>0.9545604647969209</v>
+      </c>
+      <c r="Q28">
+        <v>0.9960979467391655</v>
+      </c>
+      <c r="R28">
+        <v>1.000011317675938</v>
+      </c>
+      <c r="S28">
+        <v>0.9617632918467159</v>
+      </c>
+      <c r="T28">
+        <v>1.000011317675938</v>
+      </c>
+      <c r="U28">
+        <v>0.9940507247435296</v>
+      </c>
+      <c r="V28">
+        <v>1.013423184481618</v>
+      </c>
+      <c r="W28">
+        <v>0.9934563737224662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9099865788991316</v>
+      </c>
+      <c r="D29">
+        <v>0.9784218905287612</v>
+      </c>
+      <c r="E29">
+        <v>1.017051120934228</v>
+      </c>
+      <c r="F29">
+        <v>0.9099865788991316</v>
+      </c>
+      <c r="G29">
+        <v>1.070171110887364</v>
+      </c>
+      <c r="H29">
+        <v>1.070171110887364</v>
+      </c>
+      <c r="I29">
+        <v>1.070171110887364</v>
+      </c>
+      <c r="J29">
+        <v>0.9801669931299923</v>
+      </c>
+      <c r="K29">
+        <v>1.032899157344269</v>
+      </c>
+      <c r="L29">
+        <v>1.025513505481809</v>
+      </c>
+      <c r="M29">
+        <v>0.9404269441365066</v>
+      </c>
+      <c r="N29">
+        <v>1.070171110887364</v>
+      </c>
+      <c r="O29">
+        <v>1.017051120934228</v>
+      </c>
+      <c r="P29">
+        <v>0.9635188499166798</v>
+      </c>
+      <c r="Q29">
+        <v>0.9986090570321102</v>
+      </c>
+      <c r="R29">
+        <v>0.9990696035735747</v>
+      </c>
+      <c r="S29">
+        <v>0.9690682309877839</v>
+      </c>
+      <c r="T29">
+        <v>0.9990696035735747</v>
+      </c>
+      <c r="U29">
+        <v>0.994343950962679</v>
+      </c>
+      <c r="V29">
+        <v>1.009509382947616</v>
+      </c>
+      <c r="W29">
+        <v>0.9943296626677578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9438331917532786</v>
+      </c>
+      <c r="D30">
+        <v>0.9917529270340689</v>
+      </c>
+      <c r="E30">
+        <v>1.018902682949478</v>
+      </c>
+      <c r="F30">
+        <v>0.9438331917532786</v>
+      </c>
+      <c r="G30">
+        <v>1.028962609637432</v>
+      </c>
+      <c r="H30">
+        <v>1.028962609637432</v>
+      </c>
+      <c r="I30">
+        <v>1.028962609637432</v>
+      </c>
+      <c r="J30">
+        <v>0.9881675675014191</v>
+      </c>
+      <c r="K30">
+        <v>1.021440756352737</v>
+      </c>
+      <c r="L30">
+        <v>1.011411455220193</v>
+      </c>
+      <c r="M30">
+        <v>0.9642337869449227</v>
+      </c>
+      <c r="N30">
+        <v>1.028962609637432</v>
+      </c>
+      <c r="O30">
+        <v>1.018902682949478</v>
+      </c>
+      <c r="P30">
+        <v>0.9813679373513784</v>
+      </c>
+      <c r="Q30">
+        <v>1.003535125225449</v>
+      </c>
+      <c r="R30">
+        <v>0.9972328281133963</v>
+      </c>
+      <c r="S30">
+        <v>0.9836344807347253</v>
+      </c>
+      <c r="T30">
+        <v>0.9972328281133963</v>
+      </c>
+      <c r="U30">
+        <v>0.9949665129604019</v>
+      </c>
+      <c r="V30">
+        <v>1.001765732295808</v>
+      </c>
+      <c r="W30">
+        <v>0.9960881221741912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9370261360452106</v>
+      </c>
+      <c r="D31">
+        <v>0.9920746955814405</v>
+      </c>
+      <c r="E31">
+        <v>1.023436297962328</v>
+      </c>
+      <c r="F31">
+        <v>0.9370261360452106</v>
+      </c>
+      <c r="G31">
+        <v>1.028753296839594</v>
+      </c>
+      <c r="H31">
+        <v>1.028753296839594</v>
+      </c>
+      <c r="I31">
+        <v>1.028753296839594</v>
+      </c>
+      <c r="J31">
+        <v>0.9867750525009706</v>
+      </c>
+      <c r="K31">
+        <v>1.024350514243677</v>
+      </c>
+      <c r="L31">
+        <v>1.011589993293249</v>
+      </c>
+      <c r="M31">
+        <v>0.9601931483567202</v>
+      </c>
+      <c r="N31">
+        <v>1.028753296839594</v>
+      </c>
+      <c r="O31">
+        <v>1.023436297962328</v>
+      </c>
+      <c r="P31">
+        <v>0.9802312170037691</v>
+      </c>
+      <c r="Q31">
+        <v>1.005105675231649</v>
+      </c>
+      <c r="R31">
+        <v>0.9964052436157109</v>
+      </c>
+      <c r="S31">
+        <v>0.9824124955028363</v>
+      </c>
+      <c r="T31">
+        <v>0.9964052436157109</v>
+      </c>
+      <c r="U31">
+        <v>0.9939976958370258</v>
+      </c>
+      <c r="V31">
+        <v>1.000948816037539</v>
+      </c>
+      <c r="W31">
+        <v>0.9955248918528987</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8701709627397264</v>
+      </c>
+      <c r="D32">
+        <v>0.9627578027397259</v>
+      </c>
+      <c r="E32">
+        <v>1.014831053150685</v>
+      </c>
+      <c r="F32">
+        <v>0.8701709627397264</v>
+      </c>
+      <c r="G32">
+        <v>1.118537590410959</v>
+      </c>
+      <c r="H32">
+        <v>1.118537590410959</v>
+      </c>
+      <c r="I32">
+        <v>1.118537590410959</v>
+      </c>
+      <c r="J32">
+        <v>0.9708170735616437</v>
+      </c>
+      <c r="K32">
+        <v>1.046343477534247</v>
+      </c>
+      <c r="L32">
+        <v>1.042124317534247</v>
+      </c>
+      <c r="M32">
+        <v>0.9124604726027402</v>
+      </c>
+      <c r="N32">
+        <v>1.118537590410959</v>
+      </c>
+      <c r="O32">
+        <v>1.014831053150685</v>
+      </c>
+      <c r="P32">
+        <v>0.9425010079452056</v>
+      </c>
+      <c r="Q32">
+        <v>0.9928240633561642</v>
+      </c>
+      <c r="R32">
+        <v>1.001179868767123</v>
+      </c>
+      <c r="S32">
+        <v>0.9519396964840183</v>
+      </c>
+      <c r="T32">
+        <v>1.001179868767123</v>
+      </c>
+      <c r="U32">
+        <v>0.9935891699657534</v>
+      </c>
+      <c r="V32">
+        <v>1.018578854054794</v>
+      </c>
+      <c r="W32">
+        <v>0.9922553437842466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.7168553047368421</v>
+      </c>
+      <c r="D33">
+        <v>0.9698350252631578</v>
+      </c>
+      <c r="E33">
+        <v>1.111709294736842</v>
+      </c>
+      <c r="F33">
+        <v>0.7168553047368421</v>
+      </c>
+      <c r="G33">
+        <v>1.115133974736842</v>
+      </c>
+      <c r="H33">
+        <v>1.115133974736842</v>
+      </c>
+      <c r="I33">
+        <v>1.115133974736842</v>
+      </c>
+      <c r="J33">
+        <v>0.9419243331578947</v>
+      </c>
+      <c r="K33">
+        <v>1.109213078947368</v>
+      </c>
+      <c r="L33">
+        <v>1.047995976842105</v>
+      </c>
+      <c r="M33">
+        <v>0.8232362084210527</v>
+      </c>
+      <c r="N33">
+        <v>1.115133974736842</v>
+      </c>
+      <c r="O33">
+        <v>1.111709294736842</v>
+      </c>
+      <c r="P33">
+        <v>0.9142822997368421</v>
+      </c>
+      <c r="Q33">
+        <v>1.026816813947368</v>
+      </c>
+      <c r="R33">
+        <v>0.9812328580701752</v>
+      </c>
+      <c r="S33">
+        <v>0.923496310877193</v>
+      </c>
+      <c r="T33">
+        <v>0.9812328580701752</v>
+      </c>
+      <c r="U33">
+        <v>0.9714057268421051</v>
+      </c>
+      <c r="V33">
+        <v>1.000151376421053</v>
+      </c>
+      <c r="W33">
+        <v>0.9794878996052629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.7577747673684211</v>
+      </c>
+      <c r="D34">
+        <v>0.9509650821052634</v>
+      </c>
+      <c r="E34">
+        <v>1.067063227368421</v>
+      </c>
+      <c r="F34">
+        <v>0.7577747673684211</v>
+      </c>
+      <c r="G34">
+        <v>1.161701761578947</v>
+      </c>
+      <c r="H34">
+        <v>1.161701761578947</v>
+      </c>
+      <c r="I34">
+        <v>1.161701761578947</v>
+      </c>
+      <c r="J34">
+        <v>0.9442347436842107</v>
+      </c>
+      <c r="K34">
+        <v>1.093760708421053</v>
+      </c>
+      <c r="L34">
+        <v>1.058552753157894</v>
+      </c>
+      <c r="M34">
+        <v>0.8396274373684209</v>
+      </c>
+      <c r="N34">
+        <v>1.161701761578947</v>
+      </c>
+      <c r="O34">
+        <v>1.067063227368421</v>
+      </c>
+      <c r="P34">
+        <v>0.9124189973684211</v>
+      </c>
+      <c r="Q34">
+        <v>1.005648985526316</v>
+      </c>
+      <c r="R34">
+        <v>0.9955132521052632</v>
+      </c>
+      <c r="S34">
+        <v>0.9230242461403509</v>
+      </c>
+      <c r="T34">
+        <v>0.9955132521052632</v>
+      </c>
+      <c r="U34">
+        <v>0.982693625</v>
+      </c>
+      <c r="V34">
+        <v>1.01849525231579</v>
+      </c>
+      <c r="W34">
+        <v>0.9842100601315791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.7735651689095547</v>
+      </c>
+      <c r="D35">
+        <v>0.9721893727893858</v>
+      </c>
+      <c r="E35">
+        <v>1.085483983338213</v>
+      </c>
+      <c r="F35">
+        <v>0.7735651689095547</v>
+      </c>
+      <c r="G35">
+        <v>1.100780122629307</v>
+      </c>
+      <c r="H35">
+        <v>1.100780122629307</v>
+      </c>
+      <c r="I35">
+        <v>1.100780122629307</v>
+      </c>
+      <c r="J35">
+        <v>0.9526767354278208</v>
+      </c>
+      <c r="K35">
+        <v>1.087739537655904</v>
+      </c>
+      <c r="L35">
+        <v>1.041156716528014</v>
+      </c>
+      <c r="M35">
+        <v>0.857077893329007</v>
+      </c>
+      <c r="N35">
+        <v>1.100780122629307</v>
+      </c>
+      <c r="O35">
+        <v>1.085483983338213</v>
+      </c>
+      <c r="P35">
+        <v>0.9295245761238842</v>
+      </c>
+      <c r="Q35">
+        <v>1.019080359383017</v>
+      </c>
+      <c r="R35">
+        <v>0.9866097582923583</v>
+      </c>
+      <c r="S35">
+        <v>0.9372419625585297</v>
+      </c>
+      <c r="T35">
+        <v>0.9866097582923583</v>
+      </c>
+      <c r="U35">
+        <v>0.9781265025762239</v>
+      </c>
+      <c r="V35">
+        <v>1.002657226586841</v>
+      </c>
+      <c r="W35">
+        <v>0.9838336913259007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000014265262034</v>
+      </c>
+      <c r="D36">
+        <v>0.9999907513428428</v>
+      </c>
+      <c r="E36">
+        <v>1.000047888214149</v>
+      </c>
+      <c r="F36">
+        <v>1.000014265262034</v>
+      </c>
+      <c r="G36">
+        <v>1.000012951111389</v>
+      </c>
+      <c r="H36">
+        <v>1.000012951111389</v>
+      </c>
+      <c r="I36">
+        <v>1.000012951111389</v>
+      </c>
+      <c r="J36">
+        <v>0.9999664449995812</v>
+      </c>
+      <c r="K36">
+        <v>1.000030110702129</v>
+      </c>
+      <c r="L36">
+        <v>0.9999826819109803</v>
+      </c>
+      <c r="M36">
+        <v>0.9999800044695841</v>
+      </c>
+      <c r="N36">
+        <v>1.000012951111389</v>
+      </c>
+      <c r="O36">
+        <v>1.000047888214149</v>
+      </c>
+      <c r="P36">
+        <v>1.000031076738091</v>
+      </c>
+      <c r="Q36">
+        <v>1.000007166606865</v>
+      </c>
+      <c r="R36">
+        <v>1.000025034862524</v>
+      </c>
+      <c r="S36">
+        <v>1.000009532825255</v>
+      </c>
+      <c r="T36">
+        <v>1.000025034862524</v>
+      </c>
+      <c r="U36">
+        <v>1.000010387396788</v>
+      </c>
+      <c r="V36">
+        <v>1.000010900139709</v>
+      </c>
+      <c r="W36">
+        <v>1.000003137251586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9993719398151365</v>
+      </c>
+      <c r="D37">
+        <v>0.999947400678812</v>
+      </c>
+      <c r="E37">
+        <v>1.000191244423077</v>
+      </c>
+      <c r="F37">
+        <v>0.9993719398151365</v>
+      </c>
+      <c r="G37">
+        <v>1.000222050567939</v>
+      </c>
+      <c r="H37">
+        <v>1.000222050567939</v>
+      </c>
+      <c r="I37">
+        <v>1.000222050567939</v>
+      </c>
+      <c r="J37">
+        <v>0.99991443408531</v>
+      </c>
+      <c r="K37">
+        <v>1.000202620248907</v>
+      </c>
+      <c r="L37">
+        <v>1.000122387592581</v>
+      </c>
+      <c r="M37">
+        <v>0.9996416329785256</v>
+      </c>
+      <c r="N37">
+        <v>1.000222050567939</v>
+      </c>
+      <c r="O37">
+        <v>1.000191244423077</v>
+      </c>
+      <c r="P37">
+        <v>0.9997815921191067</v>
+      </c>
+      <c r="Q37">
+        <v>1.000052839254193</v>
+      </c>
+      <c r="R37">
+        <v>0.9999284116020507</v>
+      </c>
+      <c r="S37">
+        <v>0.9998258727745077</v>
+      </c>
+      <c r="T37">
+        <v>0.9999284116020505</v>
+      </c>
+      <c r="U37">
+        <v>0.9999249172228654</v>
+      </c>
+      <c r="V37">
+        <v>0.9999843438918801</v>
+      </c>
+      <c r="W37">
+        <v>0.9999517137987859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.998506415786273</v>
+      </c>
+      <c r="D38">
+        <v>0.9994819292093284</v>
+      </c>
+      <c r="E38">
+        <v>1.000221322261168</v>
+      </c>
+      <c r="F38">
+        <v>0.998506415786273</v>
+      </c>
+      <c r="G38">
+        <v>1.001586305192045</v>
+      </c>
+      <c r="H38">
+        <v>1.001586305192045</v>
+      </c>
+      <c r="I38">
+        <v>1.001586305192045</v>
+      </c>
+      <c r="J38">
+        <v>0.9995583097899157</v>
+      </c>
+      <c r="K38">
+        <v>1.000619838833334</v>
+      </c>
+      <c r="L38">
+        <v>1.000495921767031</v>
+      </c>
+      <c r="M38">
+        <v>0.9988977590113023</v>
+      </c>
+      <c r="N38">
+        <v>1.001586305192045</v>
+      </c>
+      <c r="O38">
+        <v>1.000221322261168</v>
+      </c>
+      <c r="P38">
+        <v>0.9993638690237203</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998898160255416</v>
+      </c>
+      <c r="R38">
+        <v>1.000104681079828</v>
+      </c>
+      <c r="S38">
+        <v>0.9994286826124522</v>
+      </c>
+      <c r="T38">
+        <v>1.000104681079828</v>
+      </c>
+      <c r="U38">
+        <v>0.9999680882573503</v>
+      </c>
+      <c r="V38">
+        <v>1.000291731644289</v>
+      </c>
+      <c r="W38">
+        <v>0.9999209752312996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9970591658172933</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9985336736135125</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000196223344717</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9970591658172933</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.004322445273111</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.004322445273111</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.004322445273111</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9988464451549904</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.001390740019026</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.001200027352157</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9975362002347745</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.004322445273111</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000196223344717</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9986276945810049</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9995213342498535</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000525944811707</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9987006114390001</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000525944811707</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.000106069897528</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000949344972645</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9998856151011977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9136429991658068</v>
+      </c>
+      <c r="D40">
+        <v>0.9820799869891673</v>
+      </c>
+      <c r="E40">
+        <v>1.022285018107455</v>
+      </c>
+      <c r="F40">
+        <v>0.9136429991658068</v>
+      </c>
+      <c r="G40">
+        <v>1.059220447268806</v>
+      </c>
+      <c r="H40">
+        <v>1.059220447268806</v>
+      </c>
+      <c r="I40">
+        <v>1.059220447268806</v>
+      </c>
+      <c r="J40">
+        <v>0.980479864708228</v>
+      </c>
+      <c r="K40">
+        <v>1.032857789697587</v>
+      </c>
+      <c r="L40">
+        <v>1.021540811379689</v>
+      </c>
+      <c r="M40">
+        <v>0.9430296304989757</v>
+      </c>
+      <c r="N40">
+        <v>1.059220447268806</v>
+      </c>
+      <c r="O40">
+        <v>1.022285018107455</v>
+      </c>
+      <c r="P40">
+        <v>0.9679640086366309</v>
+      </c>
+      <c r="Q40">
+        <v>1.001382441407841</v>
+      </c>
+      <c r="R40">
+        <v>0.9983828215140228</v>
+      </c>
+      <c r="S40">
+        <v>0.9721359606604967</v>
+      </c>
+      <c r="T40">
+        <v>0.9983828215140228</v>
+      </c>
+      <c r="U40">
+        <v>0.9939070823125741</v>
+      </c>
+      <c r="V40">
+        <v>1.006969755303821</v>
+      </c>
+      <c r="W40">
+        <v>0.9943920684769644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.047179228474378</v>
+      </c>
+      <c r="D41">
+        <v>1.007003931491519</v>
+      </c>
+      <c r="E41">
+        <v>0.9847251989703737</v>
+      </c>
+      <c r="F41">
+        <v>1.047179228474378</v>
+      </c>
+      <c r="G41">
+        <v>0.9751932952671875</v>
+      </c>
+      <c r="H41">
+        <v>0.9751932952671875</v>
+      </c>
+      <c r="I41">
+        <v>0.9751932952671875</v>
+      </c>
+      <c r="J41">
+        <v>1.009768377247389</v>
+      </c>
+      <c r="K41">
+        <v>0.9822581236056996</v>
+      </c>
+      <c r="L41">
+        <v>0.990216920296496</v>
+      </c>
+      <c r="M41">
+        <v>1.029906811945644</v>
+      </c>
+      <c r="N41">
+        <v>0.9751932952671875</v>
+      </c>
+      <c r="O41">
+        <v>0.9847251989703737</v>
+      </c>
+      <c r="P41">
+        <v>1.015952213722376</v>
+      </c>
+      <c r="Q41">
+        <v>0.9972467881088816</v>
+      </c>
+      <c r="R41">
+        <v>1.002365907570646</v>
+      </c>
+      <c r="S41">
+        <v>1.01389093489738</v>
+      </c>
+      <c r="T41">
+        <v>1.002365907570646</v>
+      </c>
+      <c r="U41">
+        <v>1.004216524989832</v>
+      </c>
+      <c r="V41">
+        <v>0.9984118790453032</v>
+      </c>
+      <c r="W41">
+        <v>1.003281485912336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9154550004457428</v>
+      </c>
+      <c r="D42">
+        <v>0.9901295115998366</v>
+      </c>
+      <c r="E42">
+        <v>1.032542749800656</v>
+      </c>
+      <c r="F42">
+        <v>0.9154550004457428</v>
+      </c>
+      <c r="G42">
+        <v>1.036652574780998</v>
+      </c>
+      <c r="H42">
+        <v>1.036652574780998</v>
+      </c>
+      <c r="I42">
+        <v>1.036652574780998</v>
+      </c>
+      <c r="J42">
+        <v>0.9823211109385472</v>
+      </c>
+      <c r="K42">
+        <v>1.032753295235392</v>
+      </c>
+      <c r="L42">
+        <v>1.01490321012545</v>
+      </c>
+      <c r="M42">
+        <v>0.9467923394094176</v>
+      </c>
+      <c r="N42">
+        <v>1.036652574780998</v>
+      </c>
+      <c r="O42">
+        <v>1.032542749800656</v>
+      </c>
+      <c r="P42">
+        <v>0.9739988751231992</v>
+      </c>
+      <c r="Q42">
+        <v>1.007431930369601</v>
+      </c>
+      <c r="R42">
+        <v>0.9948834416757987</v>
+      </c>
+      <c r="S42">
+        <v>0.9767729537283151</v>
+      </c>
+      <c r="T42">
+        <v>0.9948834416757987</v>
+      </c>
+      <c r="U42">
+        <v>0.9917428589914858</v>
+      </c>
+      <c r="V42">
+        <v>1.000724802149388</v>
+      </c>
+      <c r="W42">
+        <v>0.9939437240420049</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,49 +85,46 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.004759161331947</v>
+        <v>0.9985199703430819</v>
       </c>
       <c r="D3">
-        <v>0.994578759144797</v>
+        <v>0.9997309736284997</v>
       </c>
       <c r="E3">
-        <v>1.000735844379216</v>
+        <v>1.00041559969905</v>
       </c>
       <c r="F3">
-        <v>1.004759161331947</v>
+        <v>0.9985199703430819</v>
       </c>
       <c r="G3">
-        <v>0.9987826297686138</v>
+        <v>1.00090598303344</v>
       </c>
       <c r="H3">
-        <v>1.001951357723442</v>
+        <v>1.00090598303344</v>
       </c>
       <c r="I3">
-        <v>1.004759161331947</v>
+        <v>1.00090598303344</v>
       </c>
       <c r="J3">
-        <v>0.994578759144797</v>
+        <v>0.9996845941242937</v>
       </c>
       <c r="K3">
-        <v>0.9985135374786613</v>
+        <v>1.000555583492638</v>
       </c>
       <c r="L3">
-        <v>1.001695887902029</v>
+        <v>1.000346382739877</v>
       </c>
       <c r="M3">
-        <v>0.9963595945147065</v>
+        <v>0.9990443035715149</v>
       </c>
       <c r="N3">
-        <v>1.004759161331947</v>
+        <v>1.00090598303344</v>
       </c>
       <c r="O3">
-        <v>1.000735844379216</v>
+        <v>1.00041559969905</v>
       </c>
       <c r="P3">
-        <v>0.9976573017620065</v>
+        <v>0.9994677850210663</v>
       </c>
       <c r="Q3">
-        <v>0.9997592370739149</v>
+        <v>1.000050096911672</v>
       </c>
       <c r="R3">
-        <v>1.00002458828532</v>
+        <v>0.9999471843585243</v>
       </c>
       <c r="S3">
-        <v>0.9980324110975424</v>
+        <v>0.999540054722142</v>
       </c>
       <c r="T3">
-        <v>1.00002458828532</v>
+        <v>0.9999471843585243</v>
       </c>
       <c r="U3">
-        <v>0.9997140986561432</v>
+        <v>0.9998815367999666</v>
       </c>
       <c r="V3">
-        <v>1.000723111191304</v>
+        <v>1.000086426046661</v>
       </c>
       <c r="W3">
-        <v>0.9996720965304264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999004238290494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.009165273922513</v>
+        <v>0.9136429991658068</v>
       </c>
       <c r="D4">
-        <v>0.9895132465174489</v>
+        <v>0.9820799869891673</v>
       </c>
       <c r="E4">
-        <v>1.001429042347536</v>
+        <v>1.022285018107455</v>
       </c>
       <c r="F4">
-        <v>1.009165273922513</v>
+        <v>0.9136429991658068</v>
       </c>
       <c r="G4">
-        <v>0.9976561951306122</v>
+        <v>1.059220447268806</v>
       </c>
       <c r="H4">
-        <v>1.003768280793965</v>
+        <v>1.059220447268806</v>
       </c>
       <c r="I4">
-        <v>1.009165273922513</v>
+        <v>1.059220447268806</v>
       </c>
       <c r="J4">
-        <v>0.9895132465174489</v>
+        <v>0.980479864708228</v>
       </c>
       <c r="K4">
-        <v>0.9971386508381691</v>
+        <v>1.032857789697587</v>
       </c>
       <c r="L4">
-        <v>1.003274744147699</v>
+        <v>1.021540811379689</v>
       </c>
       <c r="M4">
-        <v>0.9929683814368394</v>
+        <v>0.9430296304989757</v>
       </c>
       <c r="N4">
-        <v>1.009165273922513</v>
+        <v>1.059220447268806</v>
       </c>
       <c r="O4">
-        <v>1.001429042347536</v>
+        <v>1.022285018107455</v>
       </c>
       <c r="P4">
-        <v>0.9954711444324924</v>
+        <v>0.9679640086366309</v>
       </c>
       <c r="Q4">
-        <v>0.9995426187390741</v>
+        <v>1.001382441407841</v>
       </c>
       <c r="R4">
-        <v>1.000035854262499</v>
+        <v>0.9983828215140228</v>
       </c>
       <c r="S4">
-        <v>0.996199494665199</v>
+        <v>0.9721359606604967</v>
       </c>
       <c r="T4">
-        <v>1.000035854262499</v>
+        <v>0.9983828215140228</v>
       </c>
       <c r="U4">
-        <v>0.9994409394795276</v>
+        <v>0.9939070823125741</v>
       </c>
       <c r="V4">
-        <v>1.001385806368125</v>
+        <v>1.006969755303821</v>
       </c>
       <c r="W4">
-        <v>0.9993642268918479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9943920684769644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.017459532888245</v>
+        <v>0.931937707291066</v>
       </c>
       <c r="D5">
-        <v>0.9798574642977053</v>
+        <v>0.9898990155763674</v>
       </c>
       <c r="E5">
-        <v>1.002849307318035</v>
+        <v>1.022870408515851</v>
       </c>
       <c r="F5">
-        <v>1.017459532888245</v>
+        <v>0.931937707291066</v>
       </c>
       <c r="G5">
-        <v>0.9954901231685662</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="H5">
-        <v>1.007258923844104</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="I5">
-        <v>1.017459532888245</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="J5">
-        <v>0.9798574642977053</v>
+        <v>0.985589760540346</v>
       </c>
       <c r="K5">
-        <v>0.9945559213465666</v>
+        <v>1.026034091556198</v>
       </c>
       <c r="L5">
-        <v>1.006236316749687</v>
+        <v>1.013878469171469</v>
       </c>
       <c r="M5">
-        <v>0.9864989958150467</v>
+        <v>0.9565827099567692</v>
       </c>
       <c r="N5">
-        <v>1.017459532888245</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="O5">
-        <v>1.002849307318035</v>
+        <v>1.022870408515851</v>
       </c>
       <c r="P5">
-        <v>0.99135338580787</v>
+        <v>0.9774040579034585</v>
       </c>
       <c r="Q5">
-        <v>0.9991697152433006</v>
+        <v>1.004230084528098</v>
       </c>
       <c r="R5">
-        <v>1.000055434834662</v>
+        <v>0.9967226633981747</v>
       </c>
       <c r="S5">
-        <v>0.9927322982614354</v>
+        <v>0.9801326254490877</v>
       </c>
       <c r="T5">
-        <v>1.000055434834662</v>
+        <v>0.9967226633981747</v>
       </c>
       <c r="U5">
-        <v>0.9989141069181378</v>
+        <v>0.9939394376837175</v>
       </c>
       <c r="V5">
-        <v>1.002623192112159</v>
+        <v>1.002223525024495</v>
       </c>
       <c r="W5">
-        <v>0.9987758231784944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9952690046244592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.025567568935174</v>
+        <v>0.7735651689095547</v>
       </c>
       <c r="D6">
-        <v>0.9704314596833274</v>
+        <v>0.9721893727893858</v>
       </c>
       <c r="E6">
-        <v>1.004249859488042</v>
+        <v>1.085483983338213</v>
       </c>
       <c r="F6">
-        <v>1.025567568935174</v>
+        <v>0.7735651689095547</v>
       </c>
       <c r="G6">
-        <v>0.9933638219349538</v>
+        <v>1.100780122629307</v>
       </c>
       <c r="H6">
-        <v>1.010666503664677</v>
+        <v>1.100780122629307</v>
       </c>
       <c r="I6">
-        <v>1.025567568935174</v>
+        <v>1.100780122629307</v>
       </c>
       <c r="J6">
-        <v>0.9704314596833274</v>
+        <v>0.9526767354278208</v>
       </c>
       <c r="K6">
-        <v>0.9920464006424506</v>
+        <v>1.087739537655904</v>
       </c>
       <c r="L6">
-        <v>1.00911059658296</v>
+        <v>1.041156716528014</v>
       </c>
       <c r="M6">
-        <v>0.9801833677198277</v>
+        <v>0.857077893329007</v>
       </c>
       <c r="N6">
-        <v>1.025567568935174</v>
+        <v>1.100780122629307</v>
       </c>
       <c r="O6">
-        <v>1.004249859488042</v>
+        <v>1.085483983338213</v>
       </c>
       <c r="P6">
-        <v>0.9873406595856846</v>
+        <v>0.9295245761238842</v>
       </c>
       <c r="Q6">
-        <v>0.9988068407114978</v>
+        <v>1.019080359383017</v>
       </c>
       <c r="R6">
-        <v>1.000082962702181</v>
+        <v>0.9866097582923583</v>
       </c>
       <c r="S6">
-        <v>0.9893483803687744</v>
+        <v>0.9372419625585297</v>
       </c>
       <c r="T6">
-        <v>1.000082962702181</v>
+        <v>0.9866097582923583</v>
       </c>
       <c r="U6">
-        <v>0.9984031775103742</v>
+        <v>0.9781265025762239</v>
       </c>
       <c r="V6">
-        <v>1.003836055795334</v>
+        <v>1.002657226586841</v>
       </c>
       <c r="W6">
-        <v>0.9982024473314266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9838336913259007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000286493689811</v>
+        <v>0.9935424968271928</v>
       </c>
       <c r="D7">
-        <v>0.9994816263125663</v>
+        <v>0.998098301890469</v>
       </c>
       <c r="E7">
-        <v>1.000163140017172</v>
+        <v>1.000677475539629</v>
       </c>
       <c r="F7">
-        <v>1.000286493689811</v>
+        <v>0.9935424968271928</v>
       </c>
       <c r="G7">
-        <v>0.9998904371583699</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="H7">
-        <v>1.000196720399643</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="I7">
-        <v>1.000286493689811</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="J7">
-        <v>0.9994816263125663</v>
+        <v>0.9985368725181772</v>
       </c>
       <c r="K7">
-        <v>0.9999165894080103</v>
+        <v>1.002305896745516</v>
       </c>
       <c r="L7">
-        <v>1.00011182456786</v>
+        <v>1.00213302652238</v>
       </c>
       <c r="M7">
-        <v>0.9996680232426391</v>
+        <v>0.9956268389217143</v>
       </c>
       <c r="N7">
-        <v>1.000286493689811</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="O7">
-        <v>1.000163140017172</v>
+        <v>1.000677475539629</v>
       </c>
       <c r="P7">
-        <v>0.9998223831648694</v>
+        <v>0.997109986183411</v>
       </c>
       <c r="Q7">
-        <v>1.000026788587771</v>
+        <v>0.9996071740289032</v>
       </c>
       <c r="R7">
-        <v>0.9999770866731833</v>
+        <v>1.000081936174716</v>
       </c>
       <c r="S7">
-        <v>0.9998450678293697</v>
+        <v>0.9975856149616664</v>
       </c>
       <c r="T7">
-        <v>0.9999770866731833</v>
+        <v>1.000081936174716</v>
       </c>
       <c r="U7">
-        <v>0.9999554242944799</v>
+        <v>0.9996956702605817</v>
       </c>
       <c r="V7">
-        <v>1.000021638173546</v>
+        <v>1.000961703439931</v>
       </c>
       <c r="W7">
-        <v>0.999964356849509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9996183431403007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00090598303344</v>
+        <v>0.9993719398151365</v>
       </c>
       <c r="D8">
-        <v>0.9985199703430824</v>
+        <v>0.999947400678812</v>
       </c>
       <c r="E8">
-        <v>1.00041559969905</v>
+        <v>1.000191244423077</v>
       </c>
       <c r="F8">
-        <v>1.00090598303344</v>
+        <v>0.9993719398151365</v>
       </c>
       <c r="G8">
-        <v>0.9996845941242939</v>
+        <v>1.000222050567939</v>
       </c>
       <c r="H8">
-        <v>1.000555583492637</v>
+        <v>1.000222050567939</v>
       </c>
       <c r="I8">
-        <v>1.00090598303344</v>
+        <v>1.000222050567939</v>
       </c>
       <c r="J8">
-        <v>0.9985199703430824</v>
+        <v>0.99991443408531</v>
       </c>
       <c r="K8">
-        <v>0.9997309736284999</v>
+        <v>1.000202620248907</v>
       </c>
       <c r="L8">
-        <v>1.000346382739877</v>
+        <v>1.000122387592581</v>
       </c>
       <c r="M8">
-        <v>0.9990443035715147</v>
+        <v>0.9996416329785256</v>
       </c>
       <c r="N8">
-        <v>1.00090598303344</v>
+        <v>1.000222050567939</v>
       </c>
       <c r="O8">
-        <v>1.00041559969905</v>
+        <v>1.000191244423077</v>
       </c>
       <c r="P8">
-        <v>0.9994677850210665</v>
+        <v>0.9997815921191067</v>
       </c>
       <c r="Q8">
-        <v>1.000050096911672</v>
+        <v>1.000052839254193</v>
       </c>
       <c r="R8">
-        <v>0.9999471843585243</v>
+        <v>0.9999284116020507</v>
       </c>
       <c r="S8">
-        <v>0.9995400547221424</v>
+        <v>0.9998258727745077</v>
       </c>
       <c r="T8">
-        <v>0.9999471843585243</v>
+        <v>0.9999284116020505</v>
       </c>
       <c r="U8">
-        <v>0.9998815367999667</v>
+        <v>0.9999249172228654</v>
       </c>
       <c r="V8">
-        <v>1.000086426046661</v>
+        <v>0.9999843438918801</v>
       </c>
       <c r="W8">
-        <v>0.9999004238290494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9999517137987859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00146595307938</v>
+        <v>0.9895132465174489</v>
       </c>
       <c r="D9">
-        <v>0.9978459984854007</v>
+        <v>0.9971386508381694</v>
       </c>
       <c r="E9">
-        <v>1.000521102935452</v>
+        <v>1.001429042347536</v>
       </c>
       <c r="F9">
-        <v>1.00146595307938</v>
+        <v>0.9895132465174489</v>
       </c>
       <c r="G9">
-        <v>0.9995364499552731</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="H9">
-        <v>1.000798974765334</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="I9">
-        <v>1.00146595307938</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="J9">
-        <v>0.9978459984854007</v>
+        <v>0.9976561951306122</v>
       </c>
       <c r="K9">
-        <v>0.999556110967893</v>
+        <v>1.003768280793965</v>
       </c>
       <c r="L9">
-        <v>1.000549921187226</v>
+        <v>1.003274744147699</v>
       </c>
       <c r="M9">
-        <v>0.9985954666067383</v>
+        <v>0.9929683814368394</v>
       </c>
       <c r="N9">
-        <v>1.00146595307938</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="O9">
-        <v>1.000521102935452</v>
+        <v>1.001429042347536</v>
       </c>
       <c r="P9">
-        <v>0.9991835507104265</v>
+        <v>0.9954711444324924</v>
       </c>
       <c r="Q9">
-        <v>1.000028776445363</v>
+        <v>0.9995426187390741</v>
       </c>
       <c r="R9">
-        <v>0.9999443515000777</v>
+        <v>1.000035854262499</v>
       </c>
       <c r="S9">
-        <v>0.999301183792042</v>
+        <v>0.996199494665199</v>
       </c>
       <c r="T9">
-        <v>0.9999443515000777</v>
+        <v>1.000035854262499</v>
       </c>
       <c r="U9">
-        <v>0.9998423761138765</v>
+        <v>0.9994409394795276</v>
       </c>
       <c r="V9">
-        <v>1.000167091506977</v>
+        <v>1.001385806368125</v>
       </c>
       <c r="W9">
-        <v>0.9998587472478373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9993642268918479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.002953482658046</v>
+        <v>0.7698921623030324</v>
       </c>
       <c r="D10">
-        <v>0.9954224894740417</v>
+        <v>0.9719998947654724</v>
       </c>
       <c r="E10">
-        <v>1.001192175443521</v>
+        <v>1.087317089514042</v>
       </c>
       <c r="F10">
-        <v>1.002953482658046</v>
+        <v>0.7698921623030324</v>
       </c>
       <c r="G10">
-        <v>0.9990238812647662</v>
+        <v>1.101685879967702</v>
       </c>
       <c r="H10">
-        <v>1.001704435994626</v>
+        <v>1.101685879967702</v>
       </c>
       <c r="I10">
-        <v>1.002953482658046</v>
+        <v>1.101685879967702</v>
       </c>
       <c r="J10">
-        <v>0.9954224894740417</v>
+        <v>0.9519133801710585</v>
       </c>
       <c r="K10">
-        <v>0.9991144816031706</v>
+        <v>1.089225717926446</v>
       </c>
       <c r="L10">
-        <v>1.001120792656758</v>
+        <v>1.041583519101506</v>
       </c>
       <c r="M10">
-        <v>0.9970331297453559</v>
+        <v>0.8548159904010986</v>
       </c>
       <c r="N10">
-        <v>1.002953482658046</v>
+        <v>1.101685879967702</v>
       </c>
       <c r="O10">
-        <v>1.001192175443521</v>
+        <v>1.087317089514042</v>
       </c>
       <c r="P10">
-        <v>0.9983073324587812</v>
+        <v>0.9286046259085373</v>
       </c>
       <c r="Q10">
-        <v>1.000108028354143</v>
+        <v>1.01961523484255</v>
       </c>
       <c r="R10">
-        <v>0.9998560491918695</v>
+        <v>0.9862983772615923</v>
       </c>
       <c r="S10">
-        <v>0.9985461820607763</v>
+        <v>0.9363742106627111</v>
       </c>
       <c r="T10">
-        <v>0.9998560491918695</v>
+        <v>0.9862983772615923</v>
       </c>
       <c r="U10">
-        <v>0.9996480072100937</v>
+        <v>0.9777021279889588</v>
       </c>
       <c r="V10">
-        <v>1.000309102299684</v>
+        <v>1.002498878384708</v>
       </c>
       <c r="W10">
-        <v>0.9996956086050357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9835542042687948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.005530231307421</v>
+        <v>0.9600786515014091</v>
       </c>
       <c r="D11">
-        <v>0.9922161249489228</v>
+        <v>0.9893438391323528</v>
       </c>
       <c r="E11">
-        <v>1.001744250046807</v>
+        <v>1.007892580504527</v>
       </c>
       <c r="F11">
-        <v>1.005530231307421</v>
+        <v>0.9600786515014091</v>
       </c>
       <c r="G11">
-        <v>0.9983214527582972</v>
+        <v>1.033765221318822</v>
       </c>
       <c r="H11">
-        <v>1.002868241759702</v>
+        <v>1.033765221318822</v>
       </c>
       <c r="I11">
-        <v>1.005530231307421</v>
+        <v>1.033765221318822</v>
       </c>
       <c r="J11">
-        <v>0.9922161249489228</v>
+        <v>0.9900975903520612</v>
       </c>
       <c r="K11">
-        <v>0.9983137330700799</v>
+        <v>1.015489754135894</v>
       </c>
       <c r="L11">
-        <v>1.002061656645142</v>
+        <v>1.01156890760824</v>
       </c>
       <c r="M11">
-        <v>0.9949057595459186</v>
+        <v>0.9725420906300807</v>
       </c>
       <c r="N11">
-        <v>1.005530231307421</v>
+        <v>1.033765221318822</v>
       </c>
       <c r="O11">
-        <v>1.001744250046807</v>
+        <v>1.007892580504527</v>
       </c>
       <c r="P11">
-        <v>0.9969801874978647</v>
+        <v>0.9839856160029683</v>
       </c>
       <c r="Q11">
-        <v>1.000032851402552</v>
+        <v>0.9989950854282943</v>
       </c>
       <c r="R11">
-        <v>0.9998302021010502</v>
+        <v>1.00057881777492</v>
       </c>
       <c r="S11">
-        <v>0.9974272759180088</v>
+        <v>0.9860229407859992</v>
       </c>
       <c r="T11">
-        <v>0.9998302021010502</v>
+        <v>1.00057881777492</v>
       </c>
       <c r="U11">
-        <v>0.999453014765362</v>
+        <v>0.9979585109192048</v>
       </c>
       <c r="V11">
-        <v>1.000668458073774</v>
+        <v>1.005119852999128</v>
       </c>
       <c r="W11">
-        <v>0.9994951812602864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>0.9975973293979234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9860814526514601</v>
+        <v>0.9298814479157903</v>
       </c>
       <c r="D12">
-        <v>1.114359926117516</v>
+        <v>0.9915563869263148</v>
       </c>
       <c r="E12">
-        <v>0.9355091172145319</v>
+        <v>1.026760252863159</v>
       </c>
       <c r="F12">
-        <v>0.9860814526514601</v>
+        <v>0.9298814479157903</v>
       </c>
       <c r="G12">
-        <v>1.022939026056447</v>
+        <v>1.030905684431579</v>
       </c>
       <c r="H12">
-        <v>0.9534045963821535</v>
+        <v>1.030905684431579</v>
       </c>
       <c r="I12">
-        <v>0.9860814526514601</v>
+        <v>1.030905684431579</v>
       </c>
       <c r="J12">
-        <v>1.114359926117516</v>
+        <v>0.9852893536631577</v>
       </c>
       <c r="K12">
-        <v>1.000461040254294</v>
+        <v>1.027212487410527</v>
       </c>
       <c r="L12">
-        <v>0.9911820440698967</v>
+        <v>1.012557879547367</v>
       </c>
       <c r="M12">
-        <v>1.068629186633957</v>
+        <v>0.9557587573999982</v>
       </c>
       <c r="N12">
-        <v>0.9860814526514601</v>
+        <v>1.030905684431579</v>
       </c>
       <c r="O12">
-        <v>0.9355091172145319</v>
+        <v>1.026760252863159</v>
       </c>
       <c r="P12">
-        <v>1.024934521666024</v>
+        <v>0.9783208503894745</v>
       </c>
       <c r="Q12">
-        <v>0.9792240716354892</v>
+        <v>1.006024803263158</v>
       </c>
       <c r="R12">
-        <v>1.011983498661169</v>
+        <v>0.9958491284035093</v>
       </c>
       <c r="S12">
-        <v>1.024269356462831</v>
+        <v>0.9806436848140355</v>
       </c>
       <c r="T12">
-        <v>1.011983498661169</v>
+        <v>0.9958491284035093</v>
       </c>
       <c r="U12">
-        <v>1.014722380509989</v>
+        <v>0.9932091847184213</v>
       </c>
       <c r="V12">
-        <v>1.008994194938283</v>
+        <v>1.000748484661053</v>
       </c>
       <c r="W12">
-        <v>1.009070798672532</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9949902812697364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.965589992305406</v>
+        <v>1.041873186379277</v>
       </c>
       <c r="D13">
-        <v>1.013023478209936</v>
+        <v>1.007770382659151</v>
       </c>
       <c r="E13">
-        <v>1.012259343999107</v>
+        <v>0.9883176984096156</v>
       </c>
       <c r="F13">
-        <v>0.965589992305406</v>
+        <v>1.041873186379277</v>
       </c>
       <c r="G13">
-        <v>1.003084459309294</v>
+        <v>0.9738690710750353</v>
       </c>
       <c r="H13">
-        <v>0.9972410691309167</v>
+        <v>0.9738690710750353</v>
       </c>
       <c r="I13">
-        <v>0.965589992305406</v>
+        <v>0.9738690710750353</v>
       </c>
       <c r="J13">
-        <v>1.013023478209936</v>
+        <v>1.009054824171492</v>
       </c>
       <c r="K13">
-        <v>1.01186609296541</v>
+        <v>0.9842150382446868</v>
       </c>
       <c r="L13">
-        <v>0.9883139550583141</v>
+        <v>0.9901374066959524</v>
       </c>
       <c r="M13">
-        <v>1.010568862437565</v>
+        <v>1.027155157439802</v>
       </c>
       <c r="N13">
-        <v>0.965589992305406</v>
+        <v>0.9738690710750353</v>
       </c>
       <c r="O13">
-        <v>1.012259343999107</v>
+        <v>0.9883176984096156</v>
       </c>
       <c r="P13">
-        <v>1.012641411104521</v>
+        <v>1.015095442394446</v>
       </c>
       <c r="Q13">
-        <v>1.0076719016542</v>
+        <v>0.9986862612905539</v>
       </c>
       <c r="R13">
-        <v>0.9969576048381494</v>
+        <v>1.001353318621309</v>
       </c>
       <c r="S13">
-        <v>1.009455760506112</v>
+        <v>1.013081902986795</v>
       </c>
       <c r="T13">
-        <v>0.9969576048381494</v>
+        <v>1.001353318621309</v>
       </c>
       <c r="U13">
-        <v>0.9984893184559355</v>
+        <v>1.003278695008855</v>
       </c>
       <c r="V13">
-        <v>0.9919094532258296</v>
+        <v>0.9973967702220909</v>
       </c>
       <c r="W13">
-        <v>1.000243406676993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.002799095634376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9232440436940612</v>
+        <v>0.6016685999999992</v>
       </c>
       <c r="D14">
-        <v>0.9495556907948551</v>
+        <v>0.9521386999999997</v>
       </c>
       <c r="E14">
-        <v>1.073895747723929</v>
+        <v>1.152217100000001</v>
       </c>
       <c r="F14">
-        <v>0.9232440436940612</v>
+        <v>0.6016685999999992</v>
       </c>
       <c r="G14">
-        <v>0.9933444082733895</v>
+        <v>1.174133799999998</v>
       </c>
       <c r="H14">
-        <v>1.024771104951278</v>
+        <v>1.174133799999998</v>
       </c>
       <c r="I14">
-        <v>0.9232440436940612</v>
+        <v>1.174133799999998</v>
       </c>
       <c r="J14">
-        <v>0.9495556907948551</v>
+        <v>0.916821820000001</v>
       </c>
       <c r="K14">
-        <v>1.029713845490989</v>
+        <v>1.1546147</v>
       </c>
       <c r="L14">
-        <v>0.9783665009512694</v>
+        <v>1.071449999999999</v>
       </c>
       <c r="M14">
-        <v>0.9783002134435266</v>
+        <v>0.7488204100000003</v>
       </c>
       <c r="N14">
-        <v>0.9232440436940612</v>
+        <v>1.174133799999998</v>
       </c>
       <c r="O14">
-        <v>1.073895747723929</v>
+        <v>1.152217100000001</v>
       </c>
       <c r="P14">
-        <v>1.011725719259392</v>
+        <v>0.8769428500000001</v>
       </c>
       <c r="Q14">
-        <v>1.033620077998659</v>
+        <v>1.034519460000001</v>
       </c>
       <c r="R14">
-        <v>0.9822318274042817</v>
+        <v>0.9760064999999996</v>
       </c>
       <c r="S14">
-        <v>1.005598615597391</v>
+        <v>0.8902358400000003</v>
       </c>
       <c r="T14">
-        <v>0.9822318274042817</v>
+        <v>0.9760064999999996</v>
       </c>
       <c r="U14">
-        <v>0.9850099726215586</v>
+        <v>0.9612103299999999</v>
       </c>
       <c r="V14">
-        <v>0.9726567868360592</v>
+        <v>1.003795024</v>
       </c>
       <c r="W14">
-        <v>0.9938989444154123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9714831412499999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.033861511597765</v>
+        <v>0.45606906</v>
       </c>
       <c r="D15">
-        <v>1.017742000111958</v>
+        <v>0.80579632</v>
       </c>
       <c r="E15">
-        <v>0.9708447351522942</v>
+        <v>0.99716908</v>
       </c>
       <c r="F15">
-        <v>1.033861511597765</v>
+        <v>0.45606906</v>
       </c>
       <c r="G15">
-        <v>1.00171894190294</v>
+        <v>1.6012283</v>
       </c>
       <c r="H15">
-        <v>0.9913194689752158</v>
+        <v>1.6012283</v>
       </c>
       <c r="I15">
-        <v>1.033861511597765</v>
+        <v>1.6012283</v>
       </c>
       <c r="J15">
-        <v>1.017742000111958</v>
+        <v>0.87762719</v>
       </c>
       <c r="K15">
-        <v>0.9869753866395347</v>
+        <v>1.1850539</v>
       </c>
       <c r="L15">
-        <v>1.009575558954179</v>
+        <v>1.2118823</v>
       </c>
       <c r="M15">
-        <v>1.006636380876238</v>
+        <v>0.6251443800000001</v>
       </c>
       <c r="N15">
-        <v>1.033861511597765</v>
+        <v>1.6012283</v>
       </c>
       <c r="O15">
-        <v>0.9708447351522942</v>
+        <v>0.99716908</v>
       </c>
       <c r="P15">
-        <v>0.9942933676321261</v>
+        <v>0.72661907</v>
       </c>
       <c r="Q15">
-        <v>0.986281838527617</v>
+        <v>0.937398135</v>
       </c>
       <c r="R15">
-        <v>1.007482748954006</v>
+        <v>1.01815548</v>
       </c>
       <c r="S15">
-        <v>0.9967685590557306</v>
+        <v>0.7769551099999999</v>
       </c>
       <c r="T15">
-        <v>1.007482748954006</v>
+        <v>1.01815548</v>
       </c>
       <c r="U15">
-        <v>1.006041797191239</v>
+        <v>0.9830234074999999</v>
       </c>
       <c r="V15">
-        <v>1.011605740072544</v>
+        <v>1.106664386</v>
       </c>
       <c r="W15">
-        <v>1.002334248026266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>0.96999631625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000012951111389</v>
+        <v>0.41368629</v>
       </c>
       <c r="D16">
-        <v>1.000014265262033</v>
+        <v>0.86506772</v>
       </c>
       <c r="E16">
-        <v>1.000047888214149</v>
+        <v>1.1462233</v>
       </c>
       <c r="F16">
-        <v>1.000012951111389</v>
+        <v>0.41368629</v>
       </c>
       <c r="G16">
-        <v>0.9999664449995812</v>
+        <v>1.4380329</v>
       </c>
       <c r="H16">
-        <v>1.000030110702129</v>
+        <v>1.4380329</v>
       </c>
       <c r="I16">
-        <v>1.000012951111389</v>
+        <v>1.4380329</v>
       </c>
       <c r="J16">
-        <v>1.000014265262033</v>
+        <v>0.85777772</v>
       </c>
       <c r="K16">
-        <v>0.9999907513428428</v>
+        <v>1.2292378</v>
       </c>
       <c r="L16">
-        <v>0.9999826819109803</v>
+        <v>1.1520714</v>
       </c>
       <c r="M16">
-        <v>0.9999800044695841</v>
+        <v>0.60365118</v>
       </c>
       <c r="N16">
-        <v>1.000012951111389</v>
+        <v>1.4380329</v>
       </c>
       <c r="O16">
-        <v>1.000047888214149</v>
+        <v>1.1462233</v>
       </c>
       <c r="P16">
-        <v>1.000031076738091</v>
+        <v>0.779954795</v>
       </c>
       <c r="Q16">
-        <v>1.000007166606865</v>
+        <v>1.00200051</v>
       </c>
       <c r="R16">
-        <v>1.000025034862524</v>
+        <v>0.9993141633333332</v>
       </c>
       <c r="S16">
-        <v>1.000009532825255</v>
+        <v>0.8058957699999999</v>
       </c>
       <c r="T16">
-        <v>1.000025034862524</v>
+        <v>0.9993141633333332</v>
       </c>
       <c r="U16">
-        <v>1.000010387396788</v>
+        <v>0.9639300525</v>
       </c>
       <c r="V16">
-        <v>1.000010900139709</v>
+        <v>1.058750622</v>
       </c>
       <c r="W16">
-        <v>1.000003137251586</v>
+        <v>0.9632185387500001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000222050567939</v>
+        <v>0.81379322</v>
       </c>
       <c r="D17">
-        <v>0.9993719398151365</v>
+        <v>0.9639041699999999</v>
       </c>
       <c r="E17">
-        <v>1.000191244423077</v>
+        <v>1.0304307</v>
       </c>
       <c r="F17">
-        <v>1.000222050567939</v>
+        <v>0.81379322</v>
       </c>
       <c r="G17">
-        <v>0.99991443408531</v>
+        <v>1.1229073</v>
       </c>
       <c r="H17">
-        <v>1.000202620248907</v>
+        <v>1.1229073</v>
       </c>
       <c r="I17">
-        <v>1.000222050567939</v>
+        <v>1.1229073</v>
       </c>
       <c r="J17">
-        <v>0.9993719398151365</v>
+        <v>0.96943759</v>
       </c>
       <c r="K17">
-        <v>0.999947400678812</v>
+        <v>1.0597814</v>
       </c>
       <c r="L17">
-        <v>1.000122387592581</v>
+        <v>1.0518988</v>
       </c>
       <c r="M17">
-        <v>0.9996416329785256</v>
+        <v>0.88595644</v>
       </c>
       <c r="N17">
-        <v>1.000222050567939</v>
+        <v>1.1229073</v>
       </c>
       <c r="O17">
-        <v>1.000191244423077</v>
+        <v>1.0304307</v>
       </c>
       <c r="P17">
-        <v>0.9997815921191067</v>
+        <v>0.92211196</v>
       </c>
       <c r="Q17">
-        <v>1.000052839254193</v>
+        <v>0.9999341449999999</v>
       </c>
       <c r="R17">
-        <v>0.9999284116020507</v>
+        <v>0.9890437399999999</v>
       </c>
       <c r="S17">
-        <v>0.9998258727745077</v>
+        <v>0.9378871699999999</v>
       </c>
       <c r="T17">
-        <v>0.9999284116020505</v>
+        <v>0.9890437399999999</v>
       </c>
       <c r="U17">
-        <v>0.9999249172228654</v>
+        <v>0.9841422025</v>
       </c>
       <c r="V17">
-        <v>0.9999843438918801</v>
+        <v>1.011895222</v>
       </c>
       <c r="W17">
-        <v>0.9999517137987859</v>
+        <v>0.9872637025</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001586305192045</v>
+        <v>0.8701709627397264</v>
       </c>
       <c r="D18">
-        <v>0.998506415786273</v>
+        <v>0.9627578027397259</v>
       </c>
       <c r="E18">
-        <v>1.000221322261168</v>
+        <v>1.014831053150685</v>
       </c>
       <c r="F18">
-        <v>1.001586305192045</v>
+        <v>0.8701709627397264</v>
       </c>
       <c r="G18">
-        <v>0.9995583097899158</v>
+        <v>1.118537590410959</v>
       </c>
       <c r="H18">
-        <v>1.000619838833335</v>
+        <v>1.118537590410959</v>
       </c>
       <c r="I18">
-        <v>1.001586305192045</v>
+        <v>1.118537590410959</v>
       </c>
       <c r="J18">
-        <v>0.998506415786273</v>
+        <v>0.9708170735616437</v>
       </c>
       <c r="K18">
-        <v>0.9994819292093284</v>
+        <v>1.046343477534247</v>
       </c>
       <c r="L18">
-        <v>1.000495921767031</v>
+        <v>1.042124317534247</v>
       </c>
       <c r="M18">
-        <v>0.9988977590113023</v>
+        <v>0.9124604726027402</v>
       </c>
       <c r="N18">
-        <v>1.001586305192045</v>
+        <v>1.118537590410959</v>
       </c>
       <c r="O18">
-        <v>1.000221322261168</v>
+        <v>1.014831053150685</v>
       </c>
       <c r="P18">
-        <v>0.9993638690237203</v>
+        <v>0.9425010079452056</v>
       </c>
       <c r="Q18">
-        <v>0.9998898160255416</v>
+        <v>0.9928240633561642</v>
       </c>
       <c r="R18">
-        <v>1.000104681079828</v>
+        <v>1.001179868767123</v>
       </c>
       <c r="S18">
-        <v>0.9994286826124522</v>
+        <v>0.9519396964840183</v>
       </c>
       <c r="T18">
-        <v>1.000104681079828</v>
+        <v>1.001179868767123</v>
       </c>
       <c r="U18">
-        <v>0.9999680882573503</v>
+        <v>0.9935891699657534</v>
       </c>
       <c r="V18">
-        <v>1.000291731644289</v>
+        <v>1.018578854054794</v>
       </c>
       <c r="W18">
-        <v>0.9999209752312996</v>
+        <v>0.9922553437842466</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004322445273111</v>
+        <v>0.7168553047368421</v>
       </c>
       <c r="D19">
-        <v>0.9970591658172933</v>
+        <v>0.9698350252631578</v>
       </c>
       <c r="E19">
-        <v>1.000196223344717</v>
+        <v>1.111709294736842</v>
       </c>
       <c r="F19">
-        <v>1.004322445273111</v>
+        <v>0.7168553047368421</v>
       </c>
       <c r="G19">
-        <v>0.9988464451549904</v>
+        <v>1.115133974736842</v>
       </c>
       <c r="H19">
-        <v>1.001390740019026</v>
+        <v>1.115133974736842</v>
       </c>
       <c r="I19">
-        <v>1.004322445273111</v>
+        <v>1.115133974736842</v>
       </c>
       <c r="J19">
-        <v>0.9970591658172933</v>
+        <v>0.9419243331578947</v>
       </c>
       <c r="K19">
-        <v>0.9985336736135123</v>
+        <v>1.109213078947368</v>
       </c>
       <c r="L19">
-        <v>1.001200027352157</v>
+        <v>1.047995976842105</v>
       </c>
       <c r="M19">
-        <v>0.9975362002347745</v>
+        <v>0.8232362084210527</v>
       </c>
       <c r="N19">
-        <v>1.004322445273111</v>
+        <v>1.115133974736842</v>
       </c>
       <c r="O19">
-        <v>1.000196223344717</v>
+        <v>1.111709294736842</v>
       </c>
       <c r="P19">
-        <v>0.9986276945810049</v>
+        <v>0.9142822997368421</v>
       </c>
       <c r="Q19">
-        <v>0.9995213342498535</v>
+        <v>1.026816813947368</v>
       </c>
       <c r="R19">
-        <v>1.000525944811707</v>
+        <v>0.9812328580701752</v>
       </c>
       <c r="S19">
-        <v>0.9987006114390001</v>
+        <v>0.923496310877193</v>
       </c>
       <c r="T19">
-        <v>1.000525944811707</v>
+        <v>0.9812328580701752</v>
       </c>
       <c r="U19">
-        <v>1.000106069897528</v>
+        <v>0.9714057268421051</v>
       </c>
       <c r="V19">
-        <v>1.000949344972645</v>
+        <v>1.000151376421053</v>
       </c>
       <c r="W19">
-        <v>0.9998856151011977</v>
+        <v>0.9794878996052629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.7577747673684211</v>
+      </c>
+      <c r="D20">
+        <v>0.9509650821052634</v>
+      </c>
+      <c r="E20">
+        <v>1.067063227368421</v>
+      </c>
+      <c r="F20">
+        <v>0.7577747673684211</v>
+      </c>
+      <c r="G20">
+        <v>1.161701761578947</v>
+      </c>
+      <c r="H20">
+        <v>1.161701761578947</v>
+      </c>
+      <c r="I20">
+        <v>1.161701761578947</v>
+      </c>
+      <c r="J20">
+        <v>0.9442347436842107</v>
+      </c>
+      <c r="K20">
+        <v>1.093760708421053</v>
+      </c>
+      <c r="L20">
+        <v>1.058552753157894</v>
+      </c>
+      <c r="M20">
+        <v>0.8396274373684209</v>
+      </c>
+      <c r="N20">
+        <v>1.161701761578947</v>
+      </c>
+      <c r="O20">
+        <v>1.067063227368421</v>
+      </c>
+      <c r="P20">
+        <v>0.9124189973684211</v>
+      </c>
+      <c r="Q20">
+        <v>1.005648985526316</v>
+      </c>
+      <c r="R20">
+        <v>0.9955132521052632</v>
+      </c>
+      <c r="S20">
+        <v>0.9230242461403509</v>
+      </c>
+      <c r="T20">
+        <v>0.9955132521052632</v>
+      </c>
+      <c r="U20">
+        <v>0.982693625</v>
+      </c>
+      <c r="V20">
+        <v>1.01849525231579</v>
+      </c>
+      <c r="W20">
+        <v>0.9842100601315791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9495556907948551</v>
+      </c>
+      <c r="D21">
+        <v>1.029713845490989</v>
+      </c>
+      <c r="E21">
+        <v>1.073895747723929</v>
+      </c>
+      <c r="F21">
+        <v>0.9495556907948551</v>
+      </c>
+      <c r="G21">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="H21">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="I21">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="J21">
+        <v>0.9933444082733895</v>
+      </c>
+      <c r="K21">
+        <v>1.024771104951278</v>
+      </c>
+      <c r="L21">
+        <v>0.9783665009512694</v>
+      </c>
+      <c r="M21">
+        <v>0.9783002134435266</v>
+      </c>
+      <c r="N21">
+        <v>0.9232440436940611</v>
+      </c>
+      <c r="O21">
+        <v>1.073895747723929</v>
+      </c>
+      <c r="P21">
+        <v>1.011725719259392</v>
+      </c>
+      <c r="Q21">
+        <v>1.033620077998659</v>
+      </c>
+      <c r="R21">
+        <v>0.9822318274042817</v>
+      </c>
+      <c r="S21">
+        <v>1.005598615597391</v>
+      </c>
+      <c r="T21">
+        <v>0.9822318274042816</v>
+      </c>
+      <c r="U21">
+        <v>0.9850099726215586</v>
+      </c>
+      <c r="V21">
+        <v>0.9726567868360592</v>
+      </c>
+      <c r="W21">
+        <v>0.9938989444154123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.017742000111958</v>
+      </c>
+      <c r="D22">
+        <v>0.9869753866395347</v>
+      </c>
+      <c r="E22">
+        <v>0.9708447351522942</v>
+      </c>
+      <c r="F22">
+        <v>1.017742000111958</v>
+      </c>
+      <c r="G22">
+        <v>1.033861511597765</v>
+      </c>
+      <c r="H22">
+        <v>1.033861511597765</v>
+      </c>
+      <c r="I22">
+        <v>1.033861511597765</v>
+      </c>
+      <c r="J22">
+        <v>1.00171894190294</v>
+      </c>
+      <c r="K22">
+        <v>0.9913194689752158</v>
+      </c>
+      <c r="L22">
+        <v>1.009575558954179</v>
+      </c>
+      <c r="M22">
+        <v>1.006636380876238</v>
+      </c>
+      <c r="N22">
+        <v>1.033861511597765</v>
+      </c>
+      <c r="O22">
+        <v>0.9708447351522942</v>
+      </c>
+      <c r="P22">
+        <v>0.9942933676321261</v>
+      </c>
+      <c r="Q22">
+        <v>0.986281838527617</v>
+      </c>
+      <c r="R22">
+        <v>1.007482748954006</v>
+      </c>
+      <c r="S22">
+        <v>0.9967685590557306</v>
+      </c>
+      <c r="T22">
+        <v>1.007482748954006</v>
+      </c>
+      <c r="U22">
+        <v>1.006041797191239</v>
+      </c>
+      <c r="V22">
+        <v>1.011605740072544</v>
+      </c>
+      <c r="W22">
+        <v>1.002334248026266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.114359926117516</v>
+      </c>
+      <c r="D23">
+        <v>1.000461040254294</v>
+      </c>
+      <c r="E23">
+        <v>0.9355091172145319</v>
+      </c>
+      <c r="F23">
+        <v>1.114359926117516</v>
+      </c>
+      <c r="G23">
+        <v>0.9860814526514601</v>
+      </c>
+      <c r="H23">
+        <v>0.9860814526514601</v>
+      </c>
+      <c r="I23">
+        <v>0.9860814526514601</v>
+      </c>
+      <c r="J23">
+        <v>1.022939026056447</v>
+      </c>
+      <c r="K23">
+        <v>0.9534045963821534</v>
+      </c>
+      <c r="L23">
+        <v>0.9911820440698969</v>
+      </c>
+      <c r="M23">
+        <v>1.068629186633957</v>
+      </c>
+      <c r="N23">
+        <v>0.9860814526514601</v>
+      </c>
+      <c r="O23">
+        <v>0.9355091172145319</v>
+      </c>
+      <c r="P23">
+        <v>1.024934521666024</v>
+      </c>
+      <c r="Q23">
+        <v>0.9792240716354892</v>
+      </c>
+      <c r="R23">
+        <v>1.011983498661169</v>
+      </c>
+      <c r="S23">
+        <v>1.024269356462831</v>
+      </c>
+      <c r="T23">
+        <v>1.011983498661169</v>
+      </c>
+      <c r="U23">
+        <v>1.014722380509989</v>
+      </c>
+      <c r="V23">
+        <v>1.008994194938283</v>
+      </c>
+      <c r="W23">
+        <v>1.009070798672532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.013023478209936</v>
+      </c>
+      <c r="D24">
+        <v>1.01186609296541</v>
+      </c>
+      <c r="E24">
+        <v>1.012259343999107</v>
+      </c>
+      <c r="F24">
+        <v>1.013023478209936</v>
+      </c>
+      <c r="G24">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="H24">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="I24">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="J24">
+        <v>1.003084459309294</v>
+      </c>
+      <c r="K24">
+        <v>0.9972410691309167</v>
+      </c>
+      <c r="L24">
+        <v>0.9883139550583141</v>
+      </c>
+      <c r="M24">
+        <v>1.010568862437565</v>
+      </c>
+      <c r="N24">
+        <v>0.9655899923054061</v>
+      </c>
+      <c r="O24">
+        <v>1.012259343999107</v>
+      </c>
+      <c r="P24">
+        <v>1.012641411104521</v>
+      </c>
+      <c r="Q24">
+        <v>1.0076719016542</v>
+      </c>
+      <c r="R24">
+        <v>0.9969576048381494</v>
+      </c>
+      <c r="S24">
+        <v>1.009455760506112</v>
+      </c>
+      <c r="T24">
+        <v>0.9969576048381494</v>
+      </c>
+      <c r="U24">
+        <v>0.9984893184559355</v>
+      </c>
+      <c r="V24">
+        <v>0.9919094532258296</v>
+      </c>
+      <c r="W24">
+        <v>1.000243406676993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.046390926777636</v>
+      </c>
+      <c r="D25">
+        <v>0.9837530049907257</v>
+      </c>
+      <c r="E25">
+        <v>0.9512337429165536</v>
+      </c>
+      <c r="F25">
+        <v>1.046390926777636</v>
+      </c>
+      <c r="G25">
+        <v>1.039407608403931</v>
+      </c>
+      <c r="H25">
+        <v>1.039407608403931</v>
+      </c>
+      <c r="I25">
+        <v>1.039407608403931</v>
+      </c>
+      <c r="J25">
+        <v>1.00625035787547</v>
+      </c>
+      <c r="K25">
+        <v>0.9800349183121581</v>
+      </c>
+      <c r="L25">
+        <v>1.009649545207431</v>
+      </c>
+      <c r="M25">
+        <v>1.02227102942824</v>
+      </c>
+      <c r="N25">
+        <v>1.039407608403931</v>
+      </c>
+      <c r="O25">
+        <v>0.9512337429165536</v>
+      </c>
+      <c r="P25">
+        <v>0.998812334847095</v>
+      </c>
+      <c r="Q25">
+        <v>0.9787420503960119</v>
+      </c>
+      <c r="R25">
+        <v>1.012344092699373</v>
+      </c>
+      <c r="S25">
+        <v>1.001291675856553</v>
+      </c>
+      <c r="T25">
+        <v>1.012344092699373</v>
+      </c>
+      <c r="U25">
+        <v>1.010820658993398</v>
+      </c>
+      <c r="V25">
+        <v>1.016538048875504</v>
+      </c>
+      <c r="W25">
+        <v>1.004873891739018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9903832417488676</v>
+      </c>
+      <c r="D26">
+        <v>1.009324793599263</v>
+      </c>
+      <c r="E26">
+        <v>1.0164716060782</v>
+      </c>
+      <c r="F26">
+        <v>0.9903832417488676</v>
+      </c>
+      <c r="G26">
+        <v>0.9762499319365482</v>
+      </c>
+      <c r="H26">
+        <v>0.9762499319365482</v>
+      </c>
+      <c r="I26">
+        <v>0.9762499319365482</v>
+      </c>
+      <c r="J26">
+        <v>1.000574977356762</v>
+      </c>
+      <c r="K26">
+        <v>1.00355470797117</v>
+      </c>
+      <c r="L26">
+        <v>0.9937506320193062</v>
+      </c>
+      <c r="M26">
+        <v>0.9980256560877875</v>
+      </c>
+      <c r="N26">
+        <v>0.9762499319365482</v>
+      </c>
+      <c r="O26">
+        <v>1.0164716060782</v>
+      </c>
+      <c r="P26">
+        <v>1.003427423913534</v>
+      </c>
+      <c r="Q26">
+        <v>1.008523291717481</v>
+      </c>
+      <c r="R26">
+        <v>0.9943682599212053</v>
+      </c>
+      <c r="S26">
+        <v>1.00247660839461</v>
+      </c>
+      <c r="T26">
+        <v>0.9943682599212051</v>
+      </c>
+      <c r="U26">
+        <v>0.9959199392800944</v>
+      </c>
+      <c r="V26">
+        <v>0.9919859378113852</v>
+      </c>
+      <c r="W26">
+        <v>0.9985419433497381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9809978904488431</v>
+      </c>
+      <c r="D27">
+        <v>0.9946007189579981</v>
+      </c>
+      <c r="E27">
+        <v>1.004902983993083</v>
+      </c>
+      <c r="F27">
+        <v>0.9809978904488431</v>
+      </c>
+      <c r="G27">
+        <v>1.016159025622051</v>
+      </c>
+      <c r="H27">
+        <v>1.016159025622051</v>
+      </c>
+      <c r="I27">
+        <v>1.016159025622051</v>
+      </c>
+      <c r="J27">
+        <v>0.9946148546736259</v>
+      </c>
+      <c r="K27">
+        <v>1.008195507537611</v>
+      </c>
+      <c r="L27">
+        <v>1.005323981071058</v>
+      </c>
+      <c r="M27">
+        <v>0.986293674817626</v>
+      </c>
+      <c r="N27">
+        <v>1.016159025622051</v>
+      </c>
+      <c r="O27">
+        <v>1.004902983993083</v>
+      </c>
+      <c r="P27">
+        <v>0.9929504372209632</v>
+      </c>
+      <c r="Q27">
+        <v>0.9997589193333547</v>
+      </c>
+      <c r="R27">
+        <v>1.000686633354659</v>
+      </c>
+      <c r="S27">
+        <v>0.9935052430385175</v>
+      </c>
+      <c r="T27">
+        <v>1.000686633354659</v>
+      </c>
+      <c r="U27">
+        <v>0.9991686886844008</v>
+      </c>
+      <c r="V27">
+        <v>1.002566756071931</v>
+      </c>
+      <c r="W27">
+        <v>0.998886079640237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.976020729552654</v>
+      </c>
+      <c r="D28">
+        <v>0.9936089003118432</v>
+      </c>
+      <c r="E28">
+        <v>1.005914271216583</v>
+      </c>
+      <c r="F28">
+        <v>0.976020729552654</v>
+      </c>
+      <c r="G28">
+        <v>1.020377131685013</v>
+      </c>
+      <c r="H28">
+        <v>1.020377131685013</v>
+      </c>
+      <c r="I28">
+        <v>1.020377131685013</v>
+      </c>
+      <c r="J28">
+        <v>0.9933620710783702</v>
+      </c>
+      <c r="K28">
+        <v>1.009923711543165</v>
+      </c>
+      <c r="L28">
+        <v>1.006483885627274</v>
+      </c>
+      <c r="M28">
+        <v>0.9830465733096998</v>
+      </c>
+      <c r="N28">
+        <v>1.020377131685013</v>
+      </c>
+      <c r="O28">
+        <v>1.005914271216583</v>
+      </c>
+      <c r="P28">
+        <v>0.9909675003846186</v>
+      </c>
+      <c r="Q28">
+        <v>0.9996381711474767</v>
+      </c>
+      <c r="R28">
+        <v>1.000770710818083</v>
+      </c>
+      <c r="S28">
+        <v>0.9917656906158691</v>
+      </c>
+      <c r="T28">
+        <v>1.000770710818083</v>
+      </c>
+      <c r="U28">
+        <v>0.9989185508831552</v>
+      </c>
+      <c r="V28">
+        <v>1.003210267043527</v>
+      </c>
+      <c r="W28">
+        <v>0.9985921592905753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.044633689189962</v>
+      </c>
+      <c r="D29">
+        <v>1.001964997168152</v>
+      </c>
+      <c r="E29">
+        <v>0.9700091427787116</v>
+      </c>
+      <c r="F29">
+        <v>1.044633689189962</v>
+      </c>
+      <c r="G29">
+        <v>0.9906948207597495</v>
+      </c>
+      <c r="H29">
+        <v>0.9906948207597495</v>
+      </c>
+      <c r="I29">
+        <v>0.9906948207597495</v>
+      </c>
+      <c r="J29">
+        <v>1.013000028458738</v>
+      </c>
+      <c r="K29">
+        <v>0.9780622248966059</v>
+      </c>
+      <c r="L29">
+        <v>0.9976551205075398</v>
+      </c>
+      <c r="M29">
+        <v>1.030093698932028</v>
+      </c>
+      <c r="N29">
+        <v>0.9906948207597495</v>
+      </c>
+      <c r="O29">
+        <v>0.9700091427787116</v>
+      </c>
+      <c r="P29">
+        <v>1.007321415984337</v>
+      </c>
+      <c r="Q29">
+        <v>0.9915045856187248</v>
+      </c>
+      <c r="R29">
+        <v>1.001779217576141</v>
+      </c>
+      <c r="S29">
+        <v>1.009214286809137</v>
+      </c>
+      <c r="T29">
+        <v>1.001779217576141</v>
+      </c>
+      <c r="U29">
+        <v>1.00458442029679</v>
+      </c>
+      <c r="V29">
+        <v>1.001806500389382</v>
+      </c>
+      <c r="W29">
+        <v>1.003264215336436</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9136429991658068</v>
+        <v>0.9464068876641953</v>
       </c>
       <c r="D4">
-        <v>0.9820799869891673</v>
+        <v>0.9928602520067089</v>
       </c>
       <c r="E4">
-        <v>1.022285018107455</v>
+        <v>1.019225335654223</v>
       </c>
       <c r="F4">
-        <v>0.9136429991658068</v>
+        <v>0.9464068876641953</v>
       </c>
       <c r="G4">
-        <v>1.059220447268806</v>
+        <v>1.025582367231897</v>
       </c>
       <c r="H4">
-        <v>1.059220447268806</v>
+        <v>1.025582367231897</v>
       </c>
       <c r="I4">
-        <v>1.059220447268806</v>
+        <v>1.025582367231897</v>
       </c>
       <c r="J4">
-        <v>0.980479864708228</v>
+        <v>0.9887601768153721</v>
       </c>
       <c r="K4">
-        <v>1.032857789697587</v>
+        <v>1.020603867016811</v>
       </c>
       <c r="L4">
-        <v>1.021540811379689</v>
+        <v>1.010242037918561</v>
       </c>
       <c r="M4">
-        <v>0.9430296304989757</v>
+        <v>0.9660540748129771</v>
       </c>
       <c r="N4">
-        <v>1.059220447268806</v>
+        <v>1.025582367231897</v>
       </c>
       <c r="O4">
-        <v>1.022285018107455</v>
+        <v>1.019225335654223</v>
       </c>
       <c r="P4">
-        <v>0.9679640086366309</v>
+        <v>0.9828161116592093</v>
       </c>
       <c r="Q4">
-        <v>1.001382441407841</v>
+        <v>1.003992756234798</v>
       </c>
       <c r="R4">
-        <v>0.9983828215140228</v>
+        <v>0.9970715301834385</v>
       </c>
       <c r="S4">
-        <v>0.9721359606604967</v>
+        <v>0.9847974667112637</v>
       </c>
       <c r="T4">
-        <v>0.9983828215140228</v>
+        <v>0.9970715301834385</v>
       </c>
       <c r="U4">
-        <v>0.9939070823125741</v>
+        <v>0.9949936918414219</v>
       </c>
       <c r="V4">
-        <v>1.006969755303821</v>
+        <v>1.001111426919517</v>
       </c>
       <c r="W4">
-        <v>0.9943920684769644</v>
+        <v>0.9962168748900933</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.931937707291066</v>
+        <v>0.7769352445081835</v>
       </c>
       <c r="D5">
-        <v>0.9898990155763674</v>
+        <v>0.9545582578186358</v>
       </c>
       <c r="E5">
-        <v>1.022870408515851</v>
+        <v>1.062605117582375</v>
       </c>
       <c r="F5">
-        <v>0.931937707291066</v>
+        <v>0.7769352445081835</v>
       </c>
       <c r="G5">
-        <v>1.035359874387607</v>
+        <v>1.14962395841443</v>
       </c>
       <c r="H5">
-        <v>1.035359874387607</v>
+        <v>1.14962395841443</v>
       </c>
       <c r="I5">
-        <v>1.035359874387607</v>
+        <v>1.14962395841443</v>
       </c>
       <c r="J5">
-        <v>0.985589760540346</v>
+        <v>0.9479235707156691</v>
       </c>
       <c r="K5">
-        <v>1.026034091556198</v>
+        <v>1.086985273198841</v>
       </c>
       <c r="L5">
-        <v>1.013878469171469</v>
+        <v>1.053699861226355</v>
       </c>
       <c r="M5">
-        <v>0.9565827099567692</v>
+        <v>0.8517439425382844</v>
       </c>
       <c r="N5">
-        <v>1.035359874387607</v>
+        <v>1.14962395841443</v>
       </c>
       <c r="O5">
-        <v>1.022870408515851</v>
+        <v>1.062605117582375</v>
       </c>
       <c r="P5">
-        <v>0.9774040579034585</v>
+        <v>0.9197701810452794</v>
       </c>
       <c r="Q5">
-        <v>1.004230084528098</v>
+        <v>1.005264344149022</v>
       </c>
       <c r="R5">
-        <v>0.9967226633981747</v>
+        <v>0.9963881068349963</v>
       </c>
       <c r="S5">
-        <v>0.9801326254490877</v>
+        <v>0.9291546442687427</v>
       </c>
       <c r="T5">
-        <v>0.9967226633981747</v>
+        <v>0.9963881068349963</v>
       </c>
       <c r="U5">
-        <v>0.9939394376837175</v>
+        <v>0.9842719728051645</v>
       </c>
       <c r="V5">
-        <v>1.002223525024495</v>
+        <v>1.017342369927018</v>
       </c>
       <c r="W5">
-        <v>0.9952690046244592</v>
+        <v>0.9855094032503469</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7735651689095547</v>
+        <v>0.9136429991658068</v>
       </c>
       <c r="D6">
-        <v>0.9721893727893858</v>
+        <v>0.9820799869891673</v>
       </c>
       <c r="E6">
-        <v>1.085483983338213</v>
+        <v>1.022285018107455</v>
       </c>
       <c r="F6">
-        <v>0.7735651689095547</v>
+        <v>0.9136429991658068</v>
       </c>
       <c r="G6">
-        <v>1.100780122629307</v>
+        <v>1.059220447268806</v>
       </c>
       <c r="H6">
-        <v>1.100780122629307</v>
+        <v>1.059220447268806</v>
       </c>
       <c r="I6">
-        <v>1.100780122629307</v>
+        <v>1.059220447268806</v>
       </c>
       <c r="J6">
-        <v>0.9526767354278208</v>
+        <v>0.980479864708228</v>
       </c>
       <c r="K6">
-        <v>1.087739537655904</v>
+        <v>1.032857789697587</v>
       </c>
       <c r="L6">
-        <v>1.041156716528014</v>
+        <v>1.021540811379689</v>
       </c>
       <c r="M6">
-        <v>0.857077893329007</v>
+        <v>0.9430296304989757</v>
       </c>
       <c r="N6">
-        <v>1.100780122629307</v>
+        <v>1.059220447268806</v>
       </c>
       <c r="O6">
-        <v>1.085483983338213</v>
+        <v>1.022285018107455</v>
       </c>
       <c r="P6">
-        <v>0.9295245761238842</v>
+        <v>0.9679640086366309</v>
       </c>
       <c r="Q6">
-        <v>1.019080359383017</v>
+        <v>1.001382441407841</v>
       </c>
       <c r="R6">
-        <v>0.9866097582923583</v>
+        <v>0.9983828215140228</v>
       </c>
       <c r="S6">
-        <v>0.9372419625585297</v>
+        <v>0.9721359606604967</v>
       </c>
       <c r="T6">
-        <v>0.9866097582923583</v>
+        <v>0.9983828215140228</v>
       </c>
       <c r="U6">
-        <v>0.9781265025762239</v>
+        <v>0.9939070823125741</v>
       </c>
       <c r="V6">
-        <v>1.002657226586841</v>
+        <v>1.006969755303821</v>
       </c>
       <c r="W6">
-        <v>0.9838336913259007</v>
+        <v>0.9943920684769644</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9935424968271928</v>
+        <v>0.931937707291066</v>
       </c>
       <c r="D7">
-        <v>0.998098301890469</v>
+        <v>0.9898990155763674</v>
       </c>
       <c r="E7">
-        <v>1.000677475539629</v>
+        <v>1.022870408515851</v>
       </c>
       <c r="F7">
-        <v>0.9935424968271928</v>
+        <v>0.931937707291066</v>
       </c>
       <c r="G7">
-        <v>1.006025836157328</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="H7">
-        <v>1.006025836157328</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="I7">
-        <v>1.006025836157328</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="J7">
-        <v>0.9985368725181772</v>
+        <v>0.985589760540346</v>
       </c>
       <c r="K7">
-        <v>1.002305896745516</v>
+        <v>1.026034091556198</v>
       </c>
       <c r="L7">
-        <v>1.00213302652238</v>
+        <v>1.013878469171469</v>
       </c>
       <c r="M7">
-        <v>0.9956268389217143</v>
+        <v>0.9565827099567692</v>
       </c>
       <c r="N7">
-        <v>1.006025836157328</v>
+        <v>1.035359874387607</v>
       </c>
       <c r="O7">
-        <v>1.000677475539629</v>
+        <v>1.022870408515851</v>
       </c>
       <c r="P7">
-        <v>0.997109986183411</v>
+        <v>0.9774040579034585</v>
       </c>
       <c r="Q7">
-        <v>0.9996071740289032</v>
+        <v>1.004230084528098</v>
       </c>
       <c r="R7">
-        <v>1.000081936174716</v>
+        <v>0.9967226633981747</v>
       </c>
       <c r="S7">
-        <v>0.9975856149616664</v>
+        <v>0.9801326254490877</v>
       </c>
       <c r="T7">
-        <v>1.000081936174716</v>
+        <v>0.9967226633981747</v>
       </c>
       <c r="U7">
-        <v>0.9996956702605817</v>
+        <v>0.9939394376837175</v>
       </c>
       <c r="V7">
-        <v>1.000961703439931</v>
+        <v>1.002223525024495</v>
       </c>
       <c r="W7">
-        <v>0.9996183431403007</v>
+        <v>0.9952690046244592</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9993719398151365</v>
+        <v>0.7735651689095547</v>
       </c>
       <c r="D8">
-        <v>0.999947400678812</v>
+        <v>0.9721893727893858</v>
       </c>
       <c r="E8">
-        <v>1.000191244423077</v>
+        <v>1.085483983338213</v>
       </c>
       <c r="F8">
-        <v>0.9993719398151365</v>
+        <v>0.7735651689095547</v>
       </c>
       <c r="G8">
-        <v>1.000222050567939</v>
+        <v>1.100780122629307</v>
       </c>
       <c r="H8">
-        <v>1.000222050567939</v>
+        <v>1.100780122629307</v>
       </c>
       <c r="I8">
-        <v>1.000222050567939</v>
+        <v>1.100780122629307</v>
       </c>
       <c r="J8">
-        <v>0.99991443408531</v>
+        <v>0.9526767354278208</v>
       </c>
       <c r="K8">
-        <v>1.000202620248907</v>
+        <v>1.087739537655904</v>
       </c>
       <c r="L8">
-        <v>1.000122387592581</v>
+        <v>1.041156716528014</v>
       </c>
       <c r="M8">
-        <v>0.9996416329785256</v>
+        <v>0.857077893329007</v>
       </c>
       <c r="N8">
-        <v>1.000222050567939</v>
+        <v>1.100780122629307</v>
       </c>
       <c r="O8">
-        <v>1.000191244423077</v>
+        <v>1.085483983338213</v>
       </c>
       <c r="P8">
-        <v>0.9997815921191067</v>
+        <v>0.9295245761238842</v>
       </c>
       <c r="Q8">
-        <v>1.000052839254193</v>
+        <v>1.019080359383017</v>
       </c>
       <c r="R8">
-        <v>0.9999284116020507</v>
+        <v>0.9866097582923583</v>
       </c>
       <c r="S8">
-        <v>0.9998258727745077</v>
+        <v>0.9372419625585297</v>
       </c>
       <c r="T8">
-        <v>0.9999284116020505</v>
+        <v>0.9866097582923583</v>
       </c>
       <c r="U8">
-        <v>0.9999249172228654</v>
+        <v>0.9781265025762239</v>
       </c>
       <c r="V8">
-        <v>0.9999843438918801</v>
+        <v>1.002657226586841</v>
       </c>
       <c r="W8">
-        <v>0.9999517137987859</v>
+        <v>0.9838336913259007</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9895132465174489</v>
+        <v>0.9935424968271928</v>
       </c>
       <c r="D9">
-        <v>0.9971386508381694</v>
+        <v>0.998098301890469</v>
       </c>
       <c r="E9">
-        <v>1.001429042347536</v>
+        <v>1.000677475539629</v>
       </c>
       <c r="F9">
-        <v>0.9895132465174489</v>
+        <v>0.9935424968271928</v>
       </c>
       <c r="G9">
-        <v>1.009165273922513</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="H9">
-        <v>1.009165273922513</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="I9">
-        <v>1.009165273922513</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="J9">
-        <v>0.9976561951306122</v>
+        <v>0.9985368725181772</v>
       </c>
       <c r="K9">
-        <v>1.003768280793965</v>
+        <v>1.002305896745516</v>
       </c>
       <c r="L9">
-        <v>1.003274744147699</v>
+        <v>1.00213302652238</v>
       </c>
       <c r="M9">
-        <v>0.9929683814368394</v>
+        <v>0.9956268389217143</v>
       </c>
       <c r="N9">
-        <v>1.009165273922513</v>
+        <v>1.006025836157328</v>
       </c>
       <c r="O9">
-        <v>1.001429042347536</v>
+        <v>1.000677475539629</v>
       </c>
       <c r="P9">
-        <v>0.9954711444324924</v>
+        <v>0.997109986183411</v>
       </c>
       <c r="Q9">
-        <v>0.9995426187390741</v>
+        <v>0.9996071740289032</v>
       </c>
       <c r="R9">
-        <v>1.000035854262499</v>
+        <v>1.000081936174716</v>
       </c>
       <c r="S9">
-        <v>0.996199494665199</v>
+        <v>0.9975856149616664</v>
       </c>
       <c r="T9">
-        <v>1.000035854262499</v>
+        <v>1.000081936174716</v>
       </c>
       <c r="U9">
-        <v>0.9994409394795276</v>
+        <v>0.9996956702605817</v>
       </c>
       <c r="V9">
-        <v>1.001385806368125</v>
+        <v>1.000961703439931</v>
       </c>
       <c r="W9">
-        <v>0.9993642268918479</v>
+        <v>0.9996183431403007</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7698921623030324</v>
+        <v>0.9993719398151365</v>
       </c>
       <c r="D10">
-        <v>0.9719998947654724</v>
+        <v>0.999947400678812</v>
       </c>
       <c r="E10">
-        <v>1.087317089514042</v>
+        <v>1.000191244423077</v>
       </c>
       <c r="F10">
-        <v>0.7698921623030324</v>
+        <v>0.9993719398151365</v>
       </c>
       <c r="G10">
-        <v>1.101685879967702</v>
+        <v>1.000222050567939</v>
       </c>
       <c r="H10">
-        <v>1.101685879967702</v>
+        <v>1.000222050567939</v>
       </c>
       <c r="I10">
-        <v>1.101685879967702</v>
+        <v>1.000222050567939</v>
       </c>
       <c r="J10">
-        <v>0.9519133801710585</v>
+        <v>0.99991443408531</v>
       </c>
       <c r="K10">
-        <v>1.089225717926446</v>
+        <v>1.000202620248907</v>
       </c>
       <c r="L10">
-        <v>1.041583519101506</v>
+        <v>1.000122387592581</v>
       </c>
       <c r="M10">
-        <v>0.8548159904010986</v>
+        <v>0.9996416329785256</v>
       </c>
       <c r="N10">
-        <v>1.101685879967702</v>
+        <v>1.000222050567939</v>
       </c>
       <c r="O10">
-        <v>1.087317089514042</v>
+        <v>1.000191244423077</v>
       </c>
       <c r="P10">
-        <v>0.9286046259085373</v>
+        <v>0.9997815921191067</v>
       </c>
       <c r="Q10">
-        <v>1.01961523484255</v>
+        <v>1.000052839254193</v>
       </c>
       <c r="R10">
-        <v>0.9862983772615923</v>
+        <v>0.9999284116020507</v>
       </c>
       <c r="S10">
-        <v>0.9363742106627111</v>
+        <v>0.9998258727745077</v>
       </c>
       <c r="T10">
-        <v>0.9862983772615923</v>
+        <v>0.9999284116020505</v>
       </c>
       <c r="U10">
-        <v>0.9777021279889588</v>
+        <v>0.9999249172228654</v>
       </c>
       <c r="V10">
-        <v>1.002498878384708</v>
+        <v>0.9999843438918801</v>
       </c>
       <c r="W10">
-        <v>0.9835542042687948</v>
+        <v>0.9999517137987859</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9600786515014091</v>
+        <v>0.9895132465174489</v>
       </c>
       <c r="D11">
-        <v>0.9893438391323528</v>
+        <v>0.9971386508381694</v>
       </c>
       <c r="E11">
-        <v>1.007892580504527</v>
+        <v>1.001429042347536</v>
       </c>
       <c r="F11">
-        <v>0.9600786515014091</v>
+        <v>0.9895132465174489</v>
       </c>
       <c r="G11">
-        <v>1.033765221318822</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="H11">
-        <v>1.033765221318822</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="I11">
-        <v>1.033765221318822</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="J11">
-        <v>0.9900975903520612</v>
+        <v>0.9976561951306122</v>
       </c>
       <c r="K11">
-        <v>1.015489754135894</v>
+        <v>1.003768280793965</v>
       </c>
       <c r="L11">
-        <v>1.01156890760824</v>
+        <v>1.003274744147699</v>
       </c>
       <c r="M11">
-        <v>0.9725420906300807</v>
+        <v>0.9929683814368394</v>
       </c>
       <c r="N11">
-        <v>1.033765221318822</v>
+        <v>1.009165273922513</v>
       </c>
       <c r="O11">
-        <v>1.007892580504527</v>
+        <v>1.001429042347536</v>
       </c>
       <c r="P11">
-        <v>0.9839856160029683</v>
+        <v>0.9954711444324924</v>
       </c>
       <c r="Q11">
-        <v>0.9989950854282943</v>
+        <v>0.9995426187390741</v>
       </c>
       <c r="R11">
-        <v>1.00057881777492</v>
+        <v>1.000035854262499</v>
       </c>
       <c r="S11">
-        <v>0.9860229407859992</v>
+        <v>0.996199494665199</v>
       </c>
       <c r="T11">
-        <v>1.00057881777492</v>
+        <v>1.000035854262499</v>
       </c>
       <c r="U11">
-        <v>0.9979585109192048</v>
+        <v>0.9994409394795276</v>
       </c>
       <c r="V11">
-        <v>1.005119852999128</v>
+        <v>1.001385806368125</v>
       </c>
       <c r="W11">
-        <v>0.9975973293979234</v>
+        <v>0.9993642268918479</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9298814479157903</v>
+        <v>0.7698921623030324</v>
       </c>
       <c r="D12">
-        <v>0.9915563869263148</v>
+        <v>0.9719998947654724</v>
       </c>
       <c r="E12">
-        <v>1.026760252863159</v>
+        <v>1.087317089514042</v>
       </c>
       <c r="F12">
-        <v>0.9298814479157903</v>
+        <v>0.7698921623030324</v>
       </c>
       <c r="G12">
-        <v>1.030905684431579</v>
+        <v>1.101685879967702</v>
       </c>
       <c r="H12">
-        <v>1.030905684431579</v>
+        <v>1.101685879967702</v>
       </c>
       <c r="I12">
-        <v>1.030905684431579</v>
+        <v>1.101685879967702</v>
       </c>
       <c r="J12">
-        <v>0.9852893536631577</v>
+        <v>0.9519133801710585</v>
       </c>
       <c r="K12">
-        <v>1.027212487410527</v>
+        <v>1.089225717926446</v>
       </c>
       <c r="L12">
-        <v>1.012557879547367</v>
+        <v>1.041583519101506</v>
       </c>
       <c r="M12">
-        <v>0.9557587573999982</v>
+        <v>0.8548159904010986</v>
       </c>
       <c r="N12">
-        <v>1.030905684431579</v>
+        <v>1.101685879967702</v>
       </c>
       <c r="O12">
-        <v>1.026760252863159</v>
+        <v>1.087317089514042</v>
       </c>
       <c r="P12">
-        <v>0.9783208503894745</v>
+        <v>0.9286046259085373</v>
       </c>
       <c r="Q12">
-        <v>1.006024803263158</v>
+        <v>1.01961523484255</v>
       </c>
       <c r="R12">
-        <v>0.9958491284035093</v>
+        <v>0.9862983772615923</v>
       </c>
       <c r="S12">
-        <v>0.9806436848140355</v>
+        <v>0.9363742106627111</v>
       </c>
       <c r="T12">
-        <v>0.9958491284035093</v>
+        <v>0.9862983772615923</v>
       </c>
       <c r="U12">
-        <v>0.9932091847184213</v>
+        <v>0.9777021279889588</v>
       </c>
       <c r="V12">
-        <v>1.000748484661053</v>
+        <v>1.002498878384708</v>
       </c>
       <c r="W12">
-        <v>0.9949902812697364</v>
+        <v>0.9835542042687948</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.041873186379277</v>
+        <v>0.9600786515014091</v>
       </c>
       <c r="D13">
-        <v>1.007770382659151</v>
+        <v>0.9893438391323528</v>
       </c>
       <c r="E13">
-        <v>0.9883176984096156</v>
+        <v>1.007892580504527</v>
       </c>
       <c r="F13">
-        <v>1.041873186379277</v>
+        <v>0.9600786515014091</v>
       </c>
       <c r="G13">
-        <v>0.9738690710750353</v>
+        <v>1.033765221318822</v>
       </c>
       <c r="H13">
-        <v>0.9738690710750353</v>
+        <v>1.033765221318822</v>
       </c>
       <c r="I13">
-        <v>0.9738690710750353</v>
+        <v>1.033765221318822</v>
       </c>
       <c r="J13">
-        <v>1.009054824171492</v>
+        <v>0.9900975903520612</v>
       </c>
       <c r="K13">
-        <v>0.9842150382446868</v>
+        <v>1.015489754135894</v>
       </c>
       <c r="L13">
-        <v>0.9901374066959524</v>
+        <v>1.01156890760824</v>
       </c>
       <c r="M13">
-        <v>1.027155157439802</v>
+        <v>0.9725420906300807</v>
       </c>
       <c r="N13">
-        <v>0.9738690710750353</v>
+        <v>1.033765221318822</v>
       </c>
       <c r="O13">
-        <v>0.9883176984096156</v>
+        <v>1.007892580504527</v>
       </c>
       <c r="P13">
-        <v>1.015095442394446</v>
+        <v>0.9839856160029683</v>
       </c>
       <c r="Q13">
-        <v>0.9986862612905539</v>
+        <v>0.9989950854282943</v>
       </c>
       <c r="R13">
-        <v>1.001353318621309</v>
+        <v>1.00057881777492</v>
       </c>
       <c r="S13">
-        <v>1.013081902986795</v>
+        <v>0.9860229407859992</v>
       </c>
       <c r="T13">
-        <v>1.001353318621309</v>
+        <v>1.00057881777492</v>
       </c>
       <c r="U13">
-        <v>1.003278695008855</v>
+        <v>0.9979585109192048</v>
       </c>
       <c r="V13">
-        <v>0.9973967702220909</v>
+        <v>1.005119852999128</v>
       </c>
       <c r="W13">
-        <v>1.002799095634376</v>
+        <v>0.9975973293979234</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6016685999999992</v>
+        <v>0.9298814479157903</v>
       </c>
       <c r="D14">
-        <v>0.9521386999999997</v>
+        <v>0.9915563869263148</v>
       </c>
       <c r="E14">
-        <v>1.152217100000001</v>
+        <v>1.026760252863159</v>
       </c>
       <c r="F14">
-        <v>0.6016685999999992</v>
+        <v>0.9298814479157903</v>
       </c>
       <c r="G14">
-        <v>1.174133799999998</v>
+        <v>1.030905684431579</v>
       </c>
       <c r="H14">
-        <v>1.174133799999998</v>
+        <v>1.030905684431579</v>
       </c>
       <c r="I14">
-        <v>1.174133799999998</v>
+        <v>1.030905684431579</v>
       </c>
       <c r="J14">
-        <v>0.916821820000001</v>
+        <v>0.9852893536631577</v>
       </c>
       <c r="K14">
-        <v>1.1546147</v>
+        <v>1.027212487410527</v>
       </c>
       <c r="L14">
-        <v>1.071449999999999</v>
+        <v>1.012557879547367</v>
       </c>
       <c r="M14">
-        <v>0.7488204100000003</v>
+        <v>0.9557587573999982</v>
       </c>
       <c r="N14">
-        <v>1.174133799999998</v>
+        <v>1.030905684431579</v>
       </c>
       <c r="O14">
-        <v>1.152217100000001</v>
+        <v>1.026760252863159</v>
       </c>
       <c r="P14">
-        <v>0.8769428500000001</v>
+        <v>0.9783208503894745</v>
       </c>
       <c r="Q14">
-        <v>1.034519460000001</v>
+        <v>1.006024803263158</v>
       </c>
       <c r="R14">
-        <v>0.9760064999999996</v>
+        <v>0.9958491284035093</v>
       </c>
       <c r="S14">
-        <v>0.8902358400000003</v>
+        <v>0.9806436848140355</v>
       </c>
       <c r="T14">
-        <v>0.9760064999999996</v>
+        <v>0.9958491284035093</v>
       </c>
       <c r="U14">
-        <v>0.9612103299999999</v>
+        <v>0.9932091847184213</v>
       </c>
       <c r="V14">
-        <v>1.003795024</v>
+        <v>1.000748484661053</v>
       </c>
       <c r="W14">
-        <v>0.9714831412499999</v>
+        <v>0.9949902812697364</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.45606906</v>
+        <v>1.041873186379277</v>
       </c>
       <c r="D15">
-        <v>0.80579632</v>
+        <v>1.007770382659151</v>
       </c>
       <c r="E15">
-        <v>0.99716908</v>
+        <v>0.9883176984096156</v>
       </c>
       <c r="F15">
-        <v>0.45606906</v>
+        <v>1.041873186379277</v>
       </c>
       <c r="G15">
-        <v>1.6012283</v>
+        <v>0.9738690710750353</v>
       </c>
       <c r="H15">
-        <v>1.6012283</v>
+        <v>0.9738690710750353</v>
       </c>
       <c r="I15">
-        <v>1.6012283</v>
+        <v>0.9738690710750353</v>
       </c>
       <c r="J15">
-        <v>0.87762719</v>
+        <v>1.009054824171492</v>
       </c>
       <c r="K15">
-        <v>1.1850539</v>
+        <v>0.9842150382446868</v>
       </c>
       <c r="L15">
-        <v>1.2118823</v>
+        <v>0.9901374066959524</v>
       </c>
       <c r="M15">
-        <v>0.6251443800000001</v>
+        <v>1.027155157439802</v>
       </c>
       <c r="N15">
-        <v>1.6012283</v>
+        <v>0.9738690710750353</v>
       </c>
       <c r="O15">
-        <v>0.99716908</v>
+        <v>0.9883176984096156</v>
       </c>
       <c r="P15">
-        <v>0.72661907</v>
+        <v>1.015095442394446</v>
       </c>
       <c r="Q15">
-        <v>0.937398135</v>
+        <v>0.9986862612905539</v>
       </c>
       <c r="R15">
-        <v>1.01815548</v>
+        <v>1.001353318621309</v>
       </c>
       <c r="S15">
-        <v>0.7769551099999999</v>
+        <v>1.013081902986795</v>
       </c>
       <c r="T15">
-        <v>1.01815548</v>
+        <v>1.001353318621309</v>
       </c>
       <c r="U15">
-        <v>0.9830234074999999</v>
+        <v>1.003278695008855</v>
       </c>
       <c r="V15">
-        <v>1.106664386</v>
+        <v>0.9973967702220909</v>
       </c>
       <c r="W15">
-        <v>0.96999631625</v>
+        <v>1.002799095634376</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.41368629</v>
+        <v>0.6016685999999992</v>
       </c>
       <c r="D16">
-        <v>0.86506772</v>
+        <v>0.9521386999999997</v>
       </c>
       <c r="E16">
-        <v>1.1462233</v>
+        <v>1.152217100000001</v>
       </c>
       <c r="F16">
-        <v>0.41368629</v>
+        <v>0.6016685999999992</v>
       </c>
       <c r="G16">
-        <v>1.4380329</v>
+        <v>1.174133799999998</v>
       </c>
       <c r="H16">
-        <v>1.4380329</v>
+        <v>1.174133799999998</v>
       </c>
       <c r="I16">
-        <v>1.4380329</v>
+        <v>1.174133799999998</v>
       </c>
       <c r="J16">
-        <v>0.85777772</v>
+        <v>0.916821820000001</v>
       </c>
       <c r="K16">
-        <v>1.2292378</v>
+        <v>1.1546147</v>
       </c>
       <c r="L16">
-        <v>1.1520714</v>
+        <v>1.071449999999999</v>
       </c>
       <c r="M16">
-        <v>0.60365118</v>
+        <v>0.7488204100000003</v>
       </c>
       <c r="N16">
-        <v>1.4380329</v>
+        <v>1.174133799999998</v>
       </c>
       <c r="O16">
-        <v>1.1462233</v>
+        <v>1.152217100000001</v>
       </c>
       <c r="P16">
-        <v>0.779954795</v>
+        <v>0.8769428500000001</v>
       </c>
       <c r="Q16">
-        <v>1.00200051</v>
+        <v>1.034519460000001</v>
       </c>
       <c r="R16">
-        <v>0.9993141633333332</v>
+        <v>0.9760064999999996</v>
       </c>
       <c r="S16">
-        <v>0.8058957699999999</v>
+        <v>0.8902358400000003</v>
       </c>
       <c r="T16">
-        <v>0.9993141633333332</v>
+        <v>0.9760064999999996</v>
       </c>
       <c r="U16">
-        <v>0.9639300525</v>
+        <v>0.9612103299999999</v>
       </c>
       <c r="V16">
-        <v>1.058750622</v>
+        <v>1.003795024</v>
       </c>
       <c r="W16">
-        <v>0.9632185387500001</v>
+        <v>0.9714831412499999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.81379322</v>
+        <v>0.45606906</v>
       </c>
       <c r="D17">
-        <v>0.9639041699999999</v>
+        <v>0.80579632</v>
       </c>
       <c r="E17">
-        <v>1.0304307</v>
+        <v>0.99716908</v>
       </c>
       <c r="F17">
-        <v>0.81379322</v>
+        <v>0.45606906</v>
       </c>
       <c r="G17">
-        <v>1.1229073</v>
+        <v>1.6012283</v>
       </c>
       <c r="H17">
-        <v>1.1229073</v>
+        <v>1.6012283</v>
       </c>
       <c r="I17">
-        <v>1.1229073</v>
+        <v>1.6012283</v>
       </c>
       <c r="J17">
-        <v>0.96943759</v>
+        <v>0.87762719</v>
       </c>
       <c r="K17">
-        <v>1.0597814</v>
+        <v>1.1850539</v>
       </c>
       <c r="L17">
-        <v>1.0518988</v>
+        <v>1.2118823</v>
       </c>
       <c r="M17">
-        <v>0.88595644</v>
+        <v>0.6251443800000001</v>
       </c>
       <c r="N17">
-        <v>1.1229073</v>
+        <v>1.6012283</v>
       </c>
       <c r="O17">
-        <v>1.0304307</v>
+        <v>0.99716908</v>
       </c>
       <c r="P17">
-        <v>0.92211196</v>
+        <v>0.72661907</v>
       </c>
       <c r="Q17">
-        <v>0.9999341449999999</v>
+        <v>0.937398135</v>
       </c>
       <c r="R17">
-        <v>0.9890437399999999</v>
+        <v>1.01815548</v>
       </c>
       <c r="S17">
-        <v>0.9378871699999999</v>
+        <v>0.7769551099999999</v>
       </c>
       <c r="T17">
-        <v>0.9890437399999999</v>
+        <v>1.01815548</v>
       </c>
       <c r="U17">
-        <v>0.9841422025</v>
+        <v>0.9830234074999999</v>
       </c>
       <c r="V17">
-        <v>1.011895222</v>
+        <v>1.106664386</v>
       </c>
       <c r="W17">
-        <v>0.9872637025</v>
+        <v>0.96999631625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8701709627397264</v>
+        <v>0.41368629</v>
       </c>
       <c r="D18">
-        <v>0.9627578027397259</v>
+        <v>0.86506772</v>
       </c>
       <c r="E18">
-        <v>1.014831053150685</v>
+        <v>1.1462233</v>
       </c>
       <c r="F18">
-        <v>0.8701709627397264</v>
+        <v>0.41368629</v>
       </c>
       <c r="G18">
-        <v>1.118537590410959</v>
+        <v>1.4380329</v>
       </c>
       <c r="H18">
-        <v>1.118537590410959</v>
+        <v>1.4380329</v>
       </c>
       <c r="I18">
-        <v>1.118537590410959</v>
+        <v>1.4380329</v>
       </c>
       <c r="J18">
-        <v>0.9708170735616437</v>
+        <v>0.85777772</v>
       </c>
       <c r="K18">
-        <v>1.046343477534247</v>
+        <v>1.2292378</v>
       </c>
       <c r="L18">
-        <v>1.042124317534247</v>
+        <v>1.1520714</v>
       </c>
       <c r="M18">
-        <v>0.9124604726027402</v>
+        <v>0.60365118</v>
       </c>
       <c r="N18">
-        <v>1.118537590410959</v>
+        <v>1.4380329</v>
       </c>
       <c r="O18">
-        <v>1.014831053150685</v>
+        <v>1.1462233</v>
       </c>
       <c r="P18">
-        <v>0.9425010079452056</v>
+        <v>0.779954795</v>
       </c>
       <c r="Q18">
-        <v>0.9928240633561642</v>
+        <v>1.00200051</v>
       </c>
       <c r="R18">
-        <v>1.001179868767123</v>
+        <v>0.9993141633333332</v>
       </c>
       <c r="S18">
-        <v>0.9519396964840183</v>
+        <v>0.8058957699999999</v>
       </c>
       <c r="T18">
-        <v>1.001179868767123</v>
+        <v>0.9993141633333332</v>
       </c>
       <c r="U18">
-        <v>0.9935891699657534</v>
+        <v>0.9639300525</v>
       </c>
       <c r="V18">
-        <v>1.018578854054794</v>
+        <v>1.058750622</v>
       </c>
       <c r="W18">
-        <v>0.9922553437842466</v>
+        <v>0.9632185387500001</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7168553047368421</v>
+        <v>0.81379322</v>
       </c>
       <c r="D19">
-        <v>0.9698350252631578</v>
+        <v>0.9639041699999999</v>
       </c>
       <c r="E19">
-        <v>1.111709294736842</v>
+        <v>1.0304307</v>
       </c>
       <c r="F19">
-        <v>0.7168553047368421</v>
+        <v>0.81379322</v>
       </c>
       <c r="G19">
-        <v>1.115133974736842</v>
+        <v>1.1229073</v>
       </c>
       <c r="H19">
-        <v>1.115133974736842</v>
+        <v>1.1229073</v>
       </c>
       <c r="I19">
-        <v>1.115133974736842</v>
+        <v>1.1229073</v>
       </c>
       <c r="J19">
-        <v>0.9419243331578947</v>
+        <v>0.96943759</v>
       </c>
       <c r="K19">
-        <v>1.109213078947368</v>
+        <v>1.0597814</v>
       </c>
       <c r="L19">
-        <v>1.047995976842105</v>
+        <v>1.0518988</v>
       </c>
       <c r="M19">
-        <v>0.8232362084210527</v>
+        <v>0.88595644</v>
       </c>
       <c r="N19">
-        <v>1.115133974736842</v>
+        <v>1.1229073</v>
       </c>
       <c r="O19">
-        <v>1.111709294736842</v>
+        <v>1.0304307</v>
       </c>
       <c r="P19">
-        <v>0.9142822997368421</v>
+        <v>0.92211196</v>
       </c>
       <c r="Q19">
-        <v>1.026816813947368</v>
+        <v>0.9999341449999999</v>
       </c>
       <c r="R19">
-        <v>0.9812328580701752</v>
+        <v>0.9890437399999999</v>
       </c>
       <c r="S19">
-        <v>0.923496310877193</v>
+        <v>0.9378871699999999</v>
       </c>
       <c r="T19">
-        <v>0.9812328580701752</v>
+        <v>0.9890437399999999</v>
       </c>
       <c r="U19">
-        <v>0.9714057268421051</v>
+        <v>0.9841422025</v>
       </c>
       <c r="V19">
-        <v>1.000151376421053</v>
+        <v>1.011895222</v>
       </c>
       <c r="W19">
-        <v>0.9794878996052629</v>
+        <v>0.9872637025</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7577747673684211</v>
+        <v>0.8701709627397264</v>
       </c>
       <c r="D20">
-        <v>0.9509650821052634</v>
+        <v>0.9627578027397259</v>
       </c>
       <c r="E20">
-        <v>1.067063227368421</v>
+        <v>1.014831053150685</v>
       </c>
       <c r="F20">
-        <v>0.7577747673684211</v>
+        <v>0.8701709627397264</v>
       </c>
       <c r="G20">
-        <v>1.161701761578947</v>
+        <v>1.118537590410959</v>
       </c>
       <c r="H20">
-        <v>1.161701761578947</v>
+        <v>1.118537590410959</v>
       </c>
       <c r="I20">
-        <v>1.161701761578947</v>
+        <v>1.118537590410959</v>
       </c>
       <c r="J20">
-        <v>0.9442347436842107</v>
+        <v>0.9708170735616437</v>
       </c>
       <c r="K20">
-        <v>1.093760708421053</v>
+        <v>1.046343477534247</v>
       </c>
       <c r="L20">
-        <v>1.058552753157894</v>
+        <v>1.042124317534247</v>
       </c>
       <c r="M20">
-        <v>0.8396274373684209</v>
+        <v>0.9124604726027402</v>
       </c>
       <c r="N20">
-        <v>1.161701761578947</v>
+        <v>1.118537590410959</v>
       </c>
       <c r="O20">
-        <v>1.067063227368421</v>
+        <v>1.014831053150685</v>
       </c>
       <c r="P20">
-        <v>0.9124189973684211</v>
+        <v>0.9425010079452056</v>
       </c>
       <c r="Q20">
-        <v>1.005648985526316</v>
+        <v>0.9928240633561642</v>
       </c>
       <c r="R20">
-        <v>0.9955132521052632</v>
+        <v>1.001179868767123</v>
       </c>
       <c r="S20">
-        <v>0.9230242461403509</v>
+        <v>0.9519396964840183</v>
       </c>
       <c r="T20">
-        <v>0.9955132521052632</v>
+        <v>1.001179868767123</v>
       </c>
       <c r="U20">
-        <v>0.982693625</v>
+        <v>0.9935891699657534</v>
       </c>
       <c r="V20">
-        <v>1.01849525231579</v>
+        <v>1.018578854054794</v>
       </c>
       <c r="W20">
-        <v>0.9842100601315791</v>
+        <v>0.9922553437842466</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9495556907948551</v>
+        <v>0.7168553047368421</v>
       </c>
       <c r="D21">
-        <v>1.029713845490989</v>
+        <v>0.9698350252631578</v>
       </c>
       <c r="E21">
-        <v>1.073895747723929</v>
+        <v>1.111709294736842</v>
       </c>
       <c r="F21">
-        <v>0.9495556907948551</v>
+        <v>0.7168553047368421</v>
       </c>
       <c r="G21">
-        <v>0.9232440436940611</v>
+        <v>1.115133974736842</v>
       </c>
       <c r="H21">
-        <v>0.9232440436940611</v>
+        <v>1.115133974736842</v>
       </c>
       <c r="I21">
-        <v>0.9232440436940611</v>
+        <v>1.115133974736842</v>
       </c>
       <c r="J21">
-        <v>0.9933444082733895</v>
+        <v>0.9419243331578947</v>
       </c>
       <c r="K21">
-        <v>1.024771104951278</v>
+        <v>1.109213078947368</v>
       </c>
       <c r="L21">
-        <v>0.9783665009512694</v>
+        <v>1.047995976842105</v>
       </c>
       <c r="M21">
-        <v>0.9783002134435266</v>
+        <v>0.8232362084210527</v>
       </c>
       <c r="N21">
-        <v>0.9232440436940611</v>
+        <v>1.115133974736842</v>
       </c>
       <c r="O21">
-        <v>1.073895747723929</v>
+        <v>1.111709294736842</v>
       </c>
       <c r="P21">
-        <v>1.011725719259392</v>
+        <v>0.9142822997368421</v>
       </c>
       <c r="Q21">
-        <v>1.033620077998659</v>
+        <v>1.026816813947368</v>
       </c>
       <c r="R21">
-        <v>0.9822318274042817</v>
+        <v>0.9812328580701752</v>
       </c>
       <c r="S21">
-        <v>1.005598615597391</v>
+        <v>0.923496310877193</v>
       </c>
       <c r="T21">
-        <v>0.9822318274042816</v>
+        <v>0.9812328580701752</v>
       </c>
       <c r="U21">
-        <v>0.9850099726215586</v>
+        <v>0.9714057268421051</v>
       </c>
       <c r="V21">
-        <v>0.9726567868360592</v>
+        <v>1.000151376421053</v>
       </c>
       <c r="W21">
-        <v>0.9938989444154123</v>
+        <v>0.9794878996052629</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.017742000111958</v>
+        <v>0.7577747673684211</v>
       </c>
       <c r="D22">
-        <v>0.9869753866395347</v>
+        <v>0.9509650821052634</v>
       </c>
       <c r="E22">
-        <v>0.9708447351522942</v>
+        <v>1.067063227368421</v>
       </c>
       <c r="F22">
-        <v>1.017742000111958</v>
+        <v>0.7577747673684211</v>
       </c>
       <c r="G22">
-        <v>1.033861511597765</v>
+        <v>1.161701761578947</v>
       </c>
       <c r="H22">
-        <v>1.033861511597765</v>
+        <v>1.161701761578947</v>
       </c>
       <c r="I22">
-        <v>1.033861511597765</v>
+        <v>1.161701761578947</v>
       </c>
       <c r="J22">
-        <v>1.00171894190294</v>
+        <v>0.9442347436842107</v>
       </c>
       <c r="K22">
-        <v>0.9913194689752158</v>
+        <v>1.093760708421053</v>
       </c>
       <c r="L22">
-        <v>1.009575558954179</v>
+        <v>1.058552753157894</v>
       </c>
       <c r="M22">
-        <v>1.006636380876238</v>
+        <v>0.8396274373684209</v>
       </c>
       <c r="N22">
-        <v>1.033861511597765</v>
+        <v>1.161701761578947</v>
       </c>
       <c r="O22">
-        <v>0.9708447351522942</v>
+        <v>1.067063227368421</v>
       </c>
       <c r="P22">
-        <v>0.9942933676321261</v>
+        <v>0.9124189973684211</v>
       </c>
       <c r="Q22">
-        <v>0.986281838527617</v>
+        <v>1.005648985526316</v>
       </c>
       <c r="R22">
-        <v>1.007482748954006</v>
+        <v>0.9955132521052632</v>
       </c>
       <c r="S22">
-        <v>0.9967685590557306</v>
+        <v>0.9230242461403509</v>
       </c>
       <c r="T22">
-        <v>1.007482748954006</v>
+        <v>0.9955132521052632</v>
       </c>
       <c r="U22">
-        <v>1.006041797191239</v>
+        <v>0.982693625</v>
       </c>
       <c r="V22">
-        <v>1.011605740072544</v>
+        <v>1.01849525231579</v>
       </c>
       <c r="W22">
-        <v>1.002334248026266</v>
+        <v>0.9842100601315791</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.114359926117516</v>
+        <v>0.9495556907948551</v>
       </c>
       <c r="D23">
-        <v>1.000461040254294</v>
+        <v>1.029713845490989</v>
       </c>
       <c r="E23">
-        <v>0.9355091172145319</v>
+        <v>1.073895747723929</v>
       </c>
       <c r="F23">
-        <v>1.114359926117516</v>
+        <v>0.9495556907948551</v>
       </c>
       <c r="G23">
-        <v>0.9860814526514601</v>
+        <v>0.9232440436940611</v>
       </c>
       <c r="H23">
-        <v>0.9860814526514601</v>
+        <v>0.9232440436940611</v>
       </c>
       <c r="I23">
-        <v>0.9860814526514601</v>
+        <v>0.9232440436940611</v>
       </c>
       <c r="J23">
-        <v>1.022939026056447</v>
+        <v>0.9933444082733895</v>
       </c>
       <c r="K23">
-        <v>0.9534045963821534</v>
+        <v>1.024771104951278</v>
       </c>
       <c r="L23">
-        <v>0.9911820440698969</v>
+        <v>0.9783665009512694</v>
       </c>
       <c r="M23">
-        <v>1.068629186633957</v>
+        <v>0.9783002134435266</v>
       </c>
       <c r="N23">
-        <v>0.9860814526514601</v>
+        <v>0.9232440436940611</v>
       </c>
       <c r="O23">
-        <v>0.9355091172145319</v>
+        <v>1.073895747723929</v>
       </c>
       <c r="P23">
-        <v>1.024934521666024</v>
+        <v>1.011725719259392</v>
       </c>
       <c r="Q23">
-        <v>0.9792240716354892</v>
+        <v>1.033620077998659</v>
       </c>
       <c r="R23">
-        <v>1.011983498661169</v>
+        <v>0.9822318274042817</v>
       </c>
       <c r="S23">
-        <v>1.024269356462831</v>
+        <v>1.005598615597391</v>
       </c>
       <c r="T23">
-        <v>1.011983498661169</v>
+        <v>0.9822318274042816</v>
       </c>
       <c r="U23">
-        <v>1.014722380509989</v>
+        <v>0.9850099726215586</v>
       </c>
       <c r="V23">
-        <v>1.008994194938283</v>
+        <v>0.9726567868360592</v>
       </c>
       <c r="W23">
-        <v>1.009070798672532</v>
+        <v>0.9938989444154123</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.013023478209936</v>
+        <v>1.017742000111958</v>
       </c>
       <c r="D24">
-        <v>1.01186609296541</v>
+        <v>0.9869753866395347</v>
       </c>
       <c r="E24">
-        <v>1.012259343999107</v>
+        <v>0.9708447351522942</v>
       </c>
       <c r="F24">
-        <v>1.013023478209936</v>
+        <v>1.017742000111958</v>
       </c>
       <c r="G24">
-        <v>0.9655899923054061</v>
+        <v>1.033861511597765</v>
       </c>
       <c r="H24">
-        <v>0.9655899923054061</v>
+        <v>1.033861511597765</v>
       </c>
       <c r="I24">
-        <v>0.9655899923054061</v>
+        <v>1.033861511597765</v>
       </c>
       <c r="J24">
-        <v>1.003084459309294</v>
+        <v>1.00171894190294</v>
       </c>
       <c r="K24">
-        <v>0.9972410691309167</v>
+        <v>0.9913194689752158</v>
       </c>
       <c r="L24">
-        <v>0.9883139550583141</v>
+        <v>1.009575558954179</v>
       </c>
       <c r="M24">
-        <v>1.010568862437565</v>
+        <v>1.006636380876238</v>
       </c>
       <c r="N24">
-        <v>0.9655899923054061</v>
+        <v>1.033861511597765</v>
       </c>
       <c r="O24">
-        <v>1.012259343999107</v>
+        <v>0.9708447351522942</v>
       </c>
       <c r="P24">
-        <v>1.012641411104521</v>
+        <v>0.9942933676321261</v>
       </c>
       <c r="Q24">
-        <v>1.0076719016542</v>
+        <v>0.986281838527617</v>
       </c>
       <c r="R24">
-        <v>0.9969576048381494</v>
+        <v>1.007482748954006</v>
       </c>
       <c r="S24">
-        <v>1.009455760506112</v>
+        <v>0.9967685590557306</v>
       </c>
       <c r="T24">
-        <v>0.9969576048381494</v>
+        <v>1.007482748954006</v>
       </c>
       <c r="U24">
-        <v>0.9984893184559355</v>
+        <v>1.006041797191239</v>
       </c>
       <c r="V24">
-        <v>0.9919094532258296</v>
+        <v>1.011605740072544</v>
       </c>
       <c r="W24">
-        <v>1.000243406676993</v>
+        <v>1.002334248026266</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.046390926777636</v>
+        <v>1.114359926117516</v>
       </c>
       <c r="D25">
-        <v>0.9837530049907257</v>
+        <v>1.000461040254294</v>
       </c>
       <c r="E25">
-        <v>0.9512337429165536</v>
+        <v>0.9355091172145319</v>
       </c>
       <c r="F25">
-        <v>1.046390926777636</v>
+        <v>1.114359926117516</v>
       </c>
       <c r="G25">
-        <v>1.039407608403931</v>
+        <v>0.9860814526514601</v>
       </c>
       <c r="H25">
-        <v>1.039407608403931</v>
+        <v>0.9860814526514601</v>
       </c>
       <c r="I25">
-        <v>1.039407608403931</v>
+        <v>0.9860814526514601</v>
       </c>
       <c r="J25">
-        <v>1.00625035787547</v>
+        <v>1.022939026056447</v>
       </c>
       <c r="K25">
-        <v>0.9800349183121581</v>
+        <v>0.9534045963821534</v>
       </c>
       <c r="L25">
-        <v>1.009649545207431</v>
+        <v>0.9911820440698969</v>
       </c>
       <c r="M25">
-        <v>1.02227102942824</v>
+        <v>1.068629186633957</v>
       </c>
       <c r="N25">
-        <v>1.039407608403931</v>
+        <v>0.9860814526514601</v>
       </c>
       <c r="O25">
-        <v>0.9512337429165536</v>
+        <v>0.9355091172145319</v>
       </c>
       <c r="P25">
-        <v>0.998812334847095</v>
+        <v>1.024934521666024</v>
       </c>
       <c r="Q25">
-        <v>0.9787420503960119</v>
+        <v>0.9792240716354892</v>
       </c>
       <c r="R25">
-        <v>1.012344092699373</v>
+        <v>1.011983498661169</v>
       </c>
       <c r="S25">
-        <v>1.001291675856553</v>
+        <v>1.024269356462831</v>
       </c>
       <c r="T25">
-        <v>1.012344092699373</v>
+        <v>1.011983498661169</v>
       </c>
       <c r="U25">
-        <v>1.010820658993398</v>
+        <v>1.014722380509989</v>
       </c>
       <c r="V25">
-        <v>1.016538048875504</v>
+        <v>1.008994194938283</v>
       </c>
       <c r="W25">
-        <v>1.004873891739018</v>
+        <v>1.009070798672532</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9903832417488676</v>
+        <v>1.013023478209936</v>
       </c>
       <c r="D26">
-        <v>1.009324793599263</v>
+        <v>1.01186609296541</v>
       </c>
       <c r="E26">
-        <v>1.0164716060782</v>
+        <v>1.012259343999107</v>
       </c>
       <c r="F26">
-        <v>0.9903832417488676</v>
+        <v>1.013023478209936</v>
       </c>
       <c r="G26">
-        <v>0.9762499319365482</v>
+        <v>0.9655899923054061</v>
       </c>
       <c r="H26">
-        <v>0.9762499319365482</v>
+        <v>0.9655899923054061</v>
       </c>
       <c r="I26">
-        <v>0.9762499319365482</v>
+        <v>0.9655899923054061</v>
       </c>
       <c r="J26">
-        <v>1.000574977356762</v>
+        <v>1.003084459309294</v>
       </c>
       <c r="K26">
-        <v>1.00355470797117</v>
+        <v>0.9972410691309167</v>
       </c>
       <c r="L26">
-        <v>0.9937506320193062</v>
+        <v>0.9883139550583141</v>
       </c>
       <c r="M26">
-        <v>0.9980256560877875</v>
+        <v>1.010568862437565</v>
       </c>
       <c r="N26">
-        <v>0.9762499319365482</v>
+        <v>0.9655899923054061</v>
       </c>
       <c r="O26">
-        <v>1.0164716060782</v>
+        <v>1.012259343999107</v>
       </c>
       <c r="P26">
-        <v>1.003427423913534</v>
+        <v>1.012641411104521</v>
       </c>
       <c r="Q26">
-        <v>1.008523291717481</v>
+        <v>1.0076719016542</v>
       </c>
       <c r="R26">
-        <v>0.9943682599212053</v>
+        <v>0.9969576048381494</v>
       </c>
       <c r="S26">
-        <v>1.00247660839461</v>
+        <v>1.009455760506112</v>
       </c>
       <c r="T26">
-        <v>0.9943682599212051</v>
+        <v>0.9969576048381494</v>
       </c>
       <c r="U26">
-        <v>0.9959199392800944</v>
+        <v>0.9984893184559355</v>
       </c>
       <c r="V26">
-        <v>0.9919859378113852</v>
+        <v>0.9919094532258296</v>
       </c>
       <c r="W26">
-        <v>0.9985419433497381</v>
+        <v>1.000243406676993</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9809978904488431</v>
+        <v>1.046390926777636</v>
       </c>
       <c r="D27">
-        <v>0.9946007189579981</v>
+        <v>0.9837530049907257</v>
       </c>
       <c r="E27">
-        <v>1.004902983993083</v>
+        <v>0.9512337429165536</v>
       </c>
       <c r="F27">
-        <v>0.9809978904488431</v>
+        <v>1.046390926777636</v>
       </c>
       <c r="G27">
-        <v>1.016159025622051</v>
+        <v>1.039407608403931</v>
       </c>
       <c r="H27">
-        <v>1.016159025622051</v>
+        <v>1.039407608403931</v>
       </c>
       <c r="I27">
-        <v>1.016159025622051</v>
+        <v>1.039407608403931</v>
       </c>
       <c r="J27">
-        <v>0.9946148546736259</v>
+        <v>1.00625035787547</v>
       </c>
       <c r="K27">
-        <v>1.008195507537611</v>
+        <v>0.9800349183121581</v>
       </c>
       <c r="L27">
-        <v>1.005323981071058</v>
+        <v>1.009649545207431</v>
       </c>
       <c r="M27">
-        <v>0.986293674817626</v>
+        <v>1.02227102942824</v>
       </c>
       <c r="N27">
-        <v>1.016159025622051</v>
+        <v>1.039407608403931</v>
       </c>
       <c r="O27">
-        <v>1.004902983993083</v>
+        <v>0.9512337429165536</v>
       </c>
       <c r="P27">
-        <v>0.9929504372209632</v>
+        <v>0.998812334847095</v>
       </c>
       <c r="Q27">
-        <v>0.9997589193333547</v>
+        <v>0.9787420503960119</v>
       </c>
       <c r="R27">
-        <v>1.000686633354659</v>
+        <v>1.012344092699373</v>
       </c>
       <c r="S27">
-        <v>0.9935052430385175</v>
+        <v>1.001291675856553</v>
       </c>
       <c r="T27">
-        <v>1.000686633354659</v>
+        <v>1.012344092699373</v>
       </c>
       <c r="U27">
-        <v>0.9991686886844008</v>
+        <v>1.010820658993398</v>
       </c>
       <c r="V27">
-        <v>1.002566756071931</v>
+        <v>1.016538048875504</v>
       </c>
       <c r="W27">
-        <v>0.998886079640237</v>
+        <v>1.004873891739018</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.976020729552654</v>
+        <v>0.9903832417488676</v>
       </c>
       <c r="D28">
-        <v>0.9936089003118432</v>
+        <v>1.009324793599263</v>
       </c>
       <c r="E28">
-        <v>1.005914271216583</v>
+        <v>1.0164716060782</v>
       </c>
       <c r="F28">
-        <v>0.976020729552654</v>
+        <v>0.9903832417488676</v>
       </c>
       <c r="G28">
-        <v>1.020377131685013</v>
+        <v>0.9762499319365482</v>
       </c>
       <c r="H28">
-        <v>1.020377131685013</v>
+        <v>0.9762499319365482</v>
       </c>
       <c r="I28">
-        <v>1.020377131685013</v>
+        <v>0.9762499319365482</v>
       </c>
       <c r="J28">
-        <v>0.9933620710783702</v>
+        <v>1.000574977356762</v>
       </c>
       <c r="K28">
-        <v>1.009923711543165</v>
+        <v>1.00355470797117</v>
       </c>
       <c r="L28">
-        <v>1.006483885627274</v>
+        <v>0.9937506320193062</v>
       </c>
       <c r="M28">
-        <v>0.9830465733096998</v>
+        <v>0.9980256560877875</v>
       </c>
       <c r="N28">
-        <v>1.020377131685013</v>
+        <v>0.9762499319365482</v>
       </c>
       <c r="O28">
-        <v>1.005914271216583</v>
+        <v>1.0164716060782</v>
       </c>
       <c r="P28">
-        <v>0.9909675003846186</v>
+        <v>1.003427423913534</v>
       </c>
       <c r="Q28">
-        <v>0.9996381711474767</v>
+        <v>1.008523291717481</v>
       </c>
       <c r="R28">
-        <v>1.000770710818083</v>
+        <v>0.9943682599212053</v>
       </c>
       <c r="S28">
-        <v>0.9917656906158691</v>
+        <v>1.00247660839461</v>
       </c>
       <c r="T28">
-        <v>1.000770710818083</v>
+        <v>0.9943682599212051</v>
       </c>
       <c r="U28">
-        <v>0.9989185508831552</v>
+        <v>0.9959199392800944</v>
       </c>
       <c r="V28">
-        <v>1.003210267043527</v>
+        <v>0.9919859378113852</v>
       </c>
       <c r="W28">
-        <v>0.9985921592905753</v>
+        <v>0.9985419433497381</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9809978904488431</v>
+      </c>
+      <c r="D29">
+        <v>0.9946007189579981</v>
+      </c>
+      <c r="E29">
+        <v>1.004902983993083</v>
+      </c>
+      <c r="F29">
+        <v>0.9809978904488431</v>
+      </c>
+      <c r="G29">
+        <v>1.016159025622051</v>
+      </c>
+      <c r="H29">
+        <v>1.016159025622051</v>
+      </c>
+      <c r="I29">
+        <v>1.016159025622051</v>
+      </c>
+      <c r="J29">
+        <v>0.9946148546736259</v>
+      </c>
+      <c r="K29">
+        <v>1.008195507537611</v>
+      </c>
+      <c r="L29">
+        <v>1.005323981071058</v>
+      </c>
+      <c r="M29">
+        <v>0.986293674817626</v>
+      </c>
+      <c r="N29">
+        <v>1.016159025622051</v>
+      </c>
+      <c r="O29">
+        <v>1.004902983993083</v>
+      </c>
+      <c r="P29">
+        <v>0.9929504372209632</v>
+      </c>
+      <c r="Q29">
+        <v>0.9997589193333547</v>
+      </c>
+      <c r="R29">
+        <v>1.000686633354659</v>
+      </c>
+      <c r="S29">
+        <v>0.9935052430385175</v>
+      </c>
+      <c r="T29">
+        <v>1.000686633354659</v>
+      </c>
+      <c r="U29">
+        <v>0.9991686886844008</v>
+      </c>
+      <c r="V29">
+        <v>1.002566756071931</v>
+      </c>
+      <c r="W29">
+        <v>0.998886079640237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.976020729552654</v>
+      </c>
+      <c r="D30">
+        <v>0.9936089003118432</v>
+      </c>
+      <c r="E30">
+        <v>1.005914271216583</v>
+      </c>
+      <c r="F30">
+        <v>0.976020729552654</v>
+      </c>
+      <c r="G30">
+        <v>1.020377131685013</v>
+      </c>
+      <c r="H30">
+        <v>1.020377131685013</v>
+      </c>
+      <c r="I30">
+        <v>1.020377131685013</v>
+      </c>
+      <c r="J30">
+        <v>0.9933620710783702</v>
+      </c>
+      <c r="K30">
+        <v>1.009923711543165</v>
+      </c>
+      <c r="L30">
+        <v>1.006483885627274</v>
+      </c>
+      <c r="M30">
+        <v>0.9830465733096998</v>
+      </c>
+      <c r="N30">
+        <v>1.020377131685013</v>
+      </c>
+      <c r="O30">
+        <v>1.005914271216583</v>
+      </c>
+      <c r="P30">
+        <v>0.9909675003846186</v>
+      </c>
+      <c r="Q30">
+        <v>0.9996381711474767</v>
+      </c>
+      <c r="R30">
+        <v>1.000770710818083</v>
+      </c>
+      <c r="S30">
+        <v>0.9917656906158691</v>
+      </c>
+      <c r="T30">
+        <v>1.000770710818083</v>
+      </c>
+      <c r="U30">
+        <v>0.9989185508831552</v>
+      </c>
+      <c r="V30">
+        <v>1.003210267043527</v>
+      </c>
+      <c r="W30">
+        <v>0.9985921592905753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.044633689189962</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.001964997168152</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9700091427787116</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.044633689189962</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9906948207597495</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9906948207597495</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9906948207597495</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.013000028458738</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9780622248966059</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9976551205075398</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.030093698932028</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9906948207597495</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9700091427787116</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.007321415984337</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9915045856187248</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001779217576141</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.009214286809137</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.001779217576141</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.00458442029679</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.001806500389382</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.003264215336436</v>
       </c>
     </row>
